--- a/Hexxium Creations Master Threat List.xlsx
+++ b/Hexxium Creations Master Threat List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajgil\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A1E3A7A-613D-4531-95B2-18079B8BC15F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF69CB4-E34E-4C04-9ABE-CE07469B4DD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3DEABEAD-3436-424C-B428-D269778B0BBE}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="107">
   <si>
     <t>HEXXIUM CREATIONS THREAT LIST MASTER LOGBOOK</t>
   </si>
@@ -357,6 +357,24 @@
   </si>
   <si>
     <t>https://github.com/HexxiumCreations/threat-list/commit/5d644e1b7641c06bd7036af028a3451466fdf8e12</t>
+  </si>
+  <si>
+    <t>marketingservicesignup.com</t>
+  </si>
+  <si>
+    <t>pcnghw.com</t>
+  </si>
+  <si>
+    <t>chattingverify.com</t>
+  </si>
+  <si>
+    <t>freeverifynow.com</t>
+  </si>
+  <si>
+    <t>Fraud, using the identity of someone I personally know to mimic a fake Fansly site to distribute phishing domains under the guise of a bit.ly link and a Wix site.</t>
+  </si>
+  <si>
+    <t>https://github.com/HexxiumCreations/threat-list/commit/4e87bd0edca8acb49df1aeb0908a1107695a279f</t>
   </si>
 </sst>
 </file>
@@ -444,15 +462,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <color theme="1"/>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="8"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -702,7 +720,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -719,12 +737,12 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -775,6 +793,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1092,10 +1113,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14C866A6-DA4E-4339-A449-D3F4A4C1F408}">
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1206,7 +1227,7 @@
       <c r="G10" s="26"/>
     </row>
     <row r="11" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1218,10 +1239,10 @@
       <c r="D11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="8" t="s">
         <v>45</v>
       </c>
       <c r="G11" s="2" t="s">
@@ -1885,7 +1906,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>85</v>
       </c>
@@ -1902,7 +1923,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>87</v>
       </c>
@@ -1919,7 +1940,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>88</v>
       </c>
@@ -1934,6 +1955,77 @@
       </c>
       <c r="G51" t="s">
         <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="7">
+        <v>44581</v>
+      </c>
+      <c r="B52" t="s">
+        <v>101</v>
+      </c>
+      <c r="C52" t="s">
+        <v>40</v>
+      </c>
+      <c r="D52" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="E52" t="s">
+        <v>13</v>
+      </c>
+      <c r="G52" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>102</v>
+      </c>
+      <c r="C53" t="s">
+        <v>40</v>
+      </c>
+      <c r="D53" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="E53" t="s">
+        <v>13</v>
+      </c>
+      <c r="G53" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>103</v>
+      </c>
+      <c r="C54" t="s">
+        <v>40</v>
+      </c>
+      <c r="D54" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="E54" t="s">
+        <v>13</v>
+      </c>
+      <c r="G54" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>104</v>
+      </c>
+      <c r="C55" t="s">
+        <v>40</v>
+      </c>
+      <c r="D55" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="E55" t="s">
+        <v>13</v>
+      </c>
+      <c r="G55" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1942,7 +2034,7 @@
     <mergeCell ref="A7:G8"/>
     <mergeCell ref="A9:G10"/>
   </mergeCells>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{E1CADA03-FC3E-40B2-8E25-3C8D6431ED84}">
       <formula1>"#Malware,#Scam,#Spam,#Phishing,#Deceptive_Content,#Exploit"</formula1>

--- a/Hexxium Creations Master Threat List.xlsx
+++ b/Hexxium Creations Master Threat List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajgil\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF69CB4-E34E-4C04-9ABE-CE07469B4DD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A1C148F-1E93-465A-B896-3715E61A0B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3DEABEAD-3436-424C-B428-D269778B0BBE}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="120">
   <si>
     <t>HEXXIUM CREATIONS THREAT LIST MASTER LOGBOOK</t>
   </si>
@@ -375,6 +375,45 @@
   </si>
   <si>
     <t>https://github.com/HexxiumCreations/threat-list/commit/4e87bd0edca8acb49df1aeb0908a1107695a279f</t>
+  </si>
+  <si>
+    <t>discountshops2021.ru</t>
+  </si>
+  <si>
+    <t>sbeenawholeyear.xyz</t>
+  </si>
+  <si>
+    <t>Fake/unsafe online store</t>
+  </si>
+  <si>
+    <t>Fake payment gateway connected to discountshops2021.ru, leads to paypal login for payment</t>
+  </si>
+  <si>
+    <t>lachemoilesbaskets.com</t>
+  </si>
+  <si>
+    <t>Leads to discountshops2021.ru, phishing. Found because it uses the Hexxium Threat list for SEO in google</t>
+  </si>
+  <si>
+    <t>mgarage.pro</t>
+  </si>
+  <si>
+    <t>Leads to malware</t>
+  </si>
+  <si>
+    <t>primerprizezone.life</t>
+  </si>
+  <si>
+    <t>Linked to mgarage.pro</t>
+  </si>
+  <si>
+    <t>firenewschief.top</t>
+  </si>
+  <si>
+    <t>Linked to primerprizezone.life</t>
+  </si>
+  <si>
+    <t>https://github.com/HexxiumCreations/threat-list/commit/5aac905e860d04093b609f34ae6b658b505a343e</t>
   </si>
 </sst>
 </file>
@@ -743,6 +782,9 @@
     <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -793,9 +835,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1113,10 +1152,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14C866A6-DA4E-4339-A449-D3F4A4C1F408}">
-  <dimension ref="A1:G55"/>
+  <dimension ref="A1:G61"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E59" sqref="E59"/>
+      <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1131,100 +1170,100 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="12"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="13"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="13"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="15"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="16"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="15"/>
+      <c r="A3" s="14"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="16"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="15"/>
+      <c r="A4" s="14"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="16"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="15"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="16"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="16"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="18"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="21"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="22"/>
     </row>
     <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="22"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="24"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="25"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
     </row>
     <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="26"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
     </row>
     <row r="11" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
@@ -1967,7 +2006,7 @@
       <c r="C52" t="s">
         <v>40</v>
       </c>
-      <c r="D52" s="27" t="s">
+      <c r="D52" s="10" t="s">
         <v>105</v>
       </c>
       <c r="E52" t="s">
@@ -1984,7 +2023,7 @@
       <c r="C53" t="s">
         <v>40</v>
       </c>
-      <c r="D53" s="27" t="s">
+      <c r="D53" s="10" t="s">
         <v>105</v>
       </c>
       <c r="E53" t="s">
@@ -2001,7 +2040,7 @@
       <c r="C54" t="s">
         <v>40</v>
       </c>
-      <c r="D54" s="27" t="s">
+      <c r="D54" s="10" t="s">
         <v>105</v>
       </c>
       <c r="E54" t="s">
@@ -2018,7 +2057,7 @@
       <c r="C55" t="s">
         <v>40</v>
       </c>
-      <c r="D55" s="27" t="s">
+      <c r="D55" s="10" t="s">
         <v>105</v>
       </c>
       <c r="E55" t="s">
@@ -2026,6 +2065,111 @@
       </c>
       <c r="G55" t="s">
         <v>106</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="7">
+        <v>44582</v>
+      </c>
+      <c r="B56" t="s">
+        <v>107</v>
+      </c>
+      <c r="C56" t="s">
+        <v>40</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E56" t="s">
+        <v>13</v>
+      </c>
+      <c r="G56" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>108</v>
+      </c>
+      <c r="C57" t="s">
+        <v>40</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E57" t="s">
+        <v>13</v>
+      </c>
+      <c r="G57" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>111</v>
+      </c>
+      <c r="C58" t="s">
+        <v>40</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E58" t="s">
+        <v>13</v>
+      </c>
+      <c r="G58" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>113</v>
+      </c>
+      <c r="C59" t="s">
+        <v>10</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E59" t="s">
+        <v>13</v>
+      </c>
+      <c r="G59" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>115</v>
+      </c>
+      <c r="C60" t="s">
+        <v>10</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E60" t="s">
+        <v>13</v>
+      </c>
+      <c r="G60" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>117</v>
+      </c>
+      <c r="C61" t="s">
+        <v>10</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E61" t="s">
+        <v>13</v>
+      </c>
+      <c r="G61" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/Hexxium Creations Master Threat List.xlsx
+++ b/Hexxium Creations Master Threat List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajgil\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A1C148F-1E93-465A-B896-3715E61A0B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFCAAF51-03D5-4C15-800D-B044B8786EFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3DEABEAD-3436-424C-B428-D269778B0BBE}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="161">
   <si>
     <t>HEXXIUM CREATIONS THREAT LIST MASTER LOGBOOK</t>
   </si>
@@ -414,6 +414,129 @@
   </si>
   <si>
     <t>https://github.com/HexxiumCreations/threat-list/commit/5aac905e860d04093b609f34ae6b658b505a343e</t>
+  </si>
+  <si>
+    <t>skiathosrestaurants.com</t>
+  </si>
+  <si>
+    <t>Distributing phishing emails pretending to be Paypal</t>
+  </si>
+  <si>
+    <t>dayunicorn.com</t>
+  </si>
+  <si>
+    <t>Blocked by multiple entities for trojan activity, linked to a facebook/bitly/blogspot scam site.</t>
+  </si>
+  <si>
+    <t>psemux.com</t>
+  </si>
+  <si>
+    <t>Orders users to install/complete other surveys or apps to "get" the product promised</t>
+  </si>
+  <si>
+    <t>verifyspot.net</t>
+  </si>
+  <si>
+    <t>xshared.link</t>
+  </si>
+  <si>
+    <t>Distributing malicious content</t>
+  </si>
+  <si>
+    <t>Orders users to install/complete other surveys or apps to "get" the product promised, fake PS5 emu</t>
+  </si>
+  <si>
+    <t>ps5emulator.net</t>
+  </si>
+  <si>
+    <t>Fake PS5 emulator</t>
+  </si>
+  <si>
+    <t>shortlinkit.xyz</t>
+  </si>
+  <si>
+    <t>Fake surveys for download of a fake PS5 emulator</t>
+  </si>
+  <si>
+    <t>surveyvoicesresearch.com</t>
+  </si>
+  <si>
+    <t>Wants survey info for a download you will never get</t>
+  </si>
+  <si>
+    <t>luckycashzone.com</t>
+  </si>
+  <si>
+    <t>Fake surveys for fake rewards</t>
+  </si>
+  <si>
+    <t>cstpersl.com</t>
+  </si>
+  <si>
+    <t>Delivers malicious ads</t>
+  </si>
+  <si>
+    <t>dailyfocusng.com</t>
+  </si>
+  <si>
+    <t>Fake news website, unsafe downloads</t>
+  </si>
+  <si>
+    <t>tiborola.info</t>
+  </si>
+  <si>
+    <t>cifegate.info</t>
+  </si>
+  <si>
+    <t>plastmedical.co</t>
+  </si>
+  <si>
+    <t>Pretends to be Mediafire download site</t>
+  </si>
+  <si>
+    <t>Malvertising-fraud known to Malwarebytes</t>
+  </si>
+  <si>
+    <t>https://github.com/HexxiumCreations/threat-list/commit/20a3c87811ad0919cb30e0da4ded08f2d67bc444</t>
+  </si>
+  <si>
+    <t>https://github.com/HexxiumCreations/threat-list/commit/20a3c87811ad0919cb30e0da4ded08f2d67bc445</t>
+  </si>
+  <si>
+    <t>https://github.com/HexxiumCreations/threat-list/commit/20a3c87811ad0919cb30e0da4ded08f2d67bc446</t>
+  </si>
+  <si>
+    <t>https://github.com/HexxiumCreations/threat-list/commit/20a3c87811ad0919cb30e0da4ded08f2d67bc447</t>
+  </si>
+  <si>
+    <t>https://github.com/HexxiumCreations/threat-list/commit/20a3c87811ad0919cb30e0da4ded08f2d67bc448</t>
+  </si>
+  <si>
+    <t>https://github.com/HexxiumCreations/threat-list/commit/20a3c87811ad0919cb30e0da4ded08f2d67bc449</t>
+  </si>
+  <si>
+    <t>https://github.com/HexxiumCreations/threat-list/commit/20a3c87811ad0919cb30e0da4ded08f2d67bc450</t>
+  </si>
+  <si>
+    <t>https://github.com/HexxiumCreations/threat-list/commit/20a3c87811ad0919cb30e0da4ded08f2d67bc451</t>
+  </si>
+  <si>
+    <t>https://github.com/HexxiumCreations/threat-list/commit/20a3c87811ad0919cb30e0da4ded08f2d67bc452</t>
+  </si>
+  <si>
+    <t>https://github.com/HexxiumCreations/threat-list/commit/20a3c87811ad0919cb30e0da4ded08f2d67bc453</t>
+  </si>
+  <si>
+    <t>https://github.com/HexxiumCreations/threat-list/commit/20a3c87811ad0919cb30e0da4ded08f2d67bc454</t>
+  </si>
+  <si>
+    <t>https://github.com/HexxiumCreations/threat-list/commit/20a3c87811ad0919cb30e0da4ded08f2d67bc455</t>
+  </si>
+  <si>
+    <t>https://github.com/HexxiumCreations/threat-list/commit/20a3c87811ad0919cb30e0da4ded08f2d67bc456</t>
+  </si>
+  <si>
+    <t>https://github.com/HexxiumCreations/threat-list/commit/20a3c87811ad0919cb30e0da4ded08f2d67bc457</t>
   </si>
 </sst>
 </file>
@@ -1152,10 +1275,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14C866A6-DA4E-4339-A449-D3F4A4C1F408}">
-  <dimension ref="A1:G61"/>
+  <dimension ref="A1:G75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E60" sqref="E60"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62:B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2170,6 +2293,247 @@
       </c>
       <c r="G61" t="s">
         <v>119</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="7">
+        <v>44587</v>
+      </c>
+      <c r="B62" t="s">
+        <v>120</v>
+      </c>
+      <c r="C62" t="s">
+        <v>40</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E62" t="s">
+        <v>13</v>
+      </c>
+      <c r="G62" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>122</v>
+      </c>
+      <c r="C63" t="s">
+        <v>10</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E63" t="s">
+        <v>13</v>
+      </c>
+      <c r="G63" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>124</v>
+      </c>
+      <c r="C64" t="s">
+        <v>10</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E64" t="s">
+        <v>13</v>
+      </c>
+      <c r="G64" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>126</v>
+      </c>
+      <c r="C65" t="s">
+        <v>40</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E65" t="s">
+        <v>13</v>
+      </c>
+      <c r="G65" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>127</v>
+      </c>
+      <c r="C66" t="s">
+        <v>10</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E66" t="s">
+        <v>13</v>
+      </c>
+      <c r="G66" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>130</v>
+      </c>
+      <c r="C67" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E67" t="s">
+        <v>13</v>
+      </c>
+      <c r="G67" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>132</v>
+      </c>
+      <c r="C68" t="s">
+        <v>40</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E68" t="s">
+        <v>13</v>
+      </c>
+      <c r="G68" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>134</v>
+      </c>
+      <c r="C69" t="s">
+        <v>40</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E69" t="s">
+        <v>13</v>
+      </c>
+      <c r="G69" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>136</v>
+      </c>
+      <c r="C70" t="s">
+        <v>40</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E70" t="s">
+        <v>13</v>
+      </c>
+      <c r="G70" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>138</v>
+      </c>
+      <c r="C71" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E71" t="s">
+        <v>13</v>
+      </c>
+      <c r="G71" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>140</v>
+      </c>
+      <c r="C72" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E72" t="s">
+        <v>13</v>
+      </c>
+      <c r="G72" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>142</v>
+      </c>
+      <c r="C73" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E73" t="s">
+        <v>13</v>
+      </c>
+      <c r="G73" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>143</v>
+      </c>
+      <c r="C74" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E74" t="s">
+        <v>13</v>
+      </c>
+      <c r="G74" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>144</v>
+      </c>
+      <c r="C75" t="s">
+        <v>10</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E75" t="s">
+        <v>13</v>
+      </c>
+      <c r="G75" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/Hexxium Creations Master Threat List.xlsx
+++ b/Hexxium Creations Master Threat List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajgil\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFCAAF51-03D5-4C15-800D-B044B8786EFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80EB59E4-FC8D-45EC-86A8-4238867C4C56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3DEABEAD-3436-424C-B428-D269778B0BBE}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3DEABEAD-3436-424C-B428-D269778B0BBE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="199">
   <si>
     <t>HEXXIUM CREATIONS THREAT LIST MASTER LOGBOOK</t>
   </si>
@@ -538,6 +538,120 @@
   <si>
     <t>https://github.com/HexxiumCreations/threat-list/commit/20a3c87811ad0919cb30e0da4ded08f2d67bc457</t>
   </si>
+  <si>
+    <t>epingi.com</t>
+  </si>
+  <si>
+    <t>Fake game installer, wants surveys after an extreme fake wait</t>
+  </si>
+  <si>
+    <t>mysaysapp.com</t>
+  </si>
+  <si>
+    <t>Linked to epingi.com, fake files and surveys</t>
+  </si>
+  <si>
+    <t>meetrader.com</t>
+  </si>
+  <si>
+    <t>Fake sex meetup site</t>
+  </si>
+  <si>
+    <t>crushnearby.com</t>
+  </si>
+  <si>
+    <t>acjip.icu</t>
+  </si>
+  <si>
+    <t>Malicious search extension</t>
+  </si>
+  <si>
+    <t>href.li</t>
+  </si>
+  <si>
+    <t>used for malvertising</t>
+  </si>
+  <si>
+    <t>me2.do</t>
+  </si>
+  <si>
+    <t>Used for phishing emails and to distribute malware</t>
+  </si>
+  <si>
+    <t>stxpp.com</t>
+  </si>
+  <si>
+    <t>Responsible for Phishing emails pretending to be Paypal</t>
+  </si>
+  <si>
+    <t>eazyasist.com</t>
+  </si>
+  <si>
+    <t>Mass spam email campaigns</t>
+  </si>
+  <si>
+    <t>agentofficemail.com</t>
+  </si>
+  <si>
+    <t>Used in mass phishing campaigns</t>
+  </si>
+  <si>
+    <t>supplygb.com</t>
+  </si>
+  <si>
+    <t>[H.C #50]</t>
+  </si>
+  <si>
+    <t>"Takes payment, does not ship product nor respond to inquires by phone or email, for great than a month" - Verified fake address, notified company to dispute if it wishes and is a real company</t>
+  </si>
+  <si>
+    <t>inx.lv</t>
+  </si>
+  <si>
+    <t>Tojan activity known to malwarebytes, sending spam using this URL directly to Hexxium Creations admin</t>
+  </si>
+  <si>
+    <t>searchwithincognitoapp.com</t>
+  </si>
+  <si>
+    <t>https://github.com/HexxiumCreations/threat-list/commit/d5148e5b416be3137299f4de394403c7c9a03cc2</t>
+  </si>
+  <si>
+    <t>https://github.com/HexxiumCreations/threat-list/commit/d5148e5b416be3137299f4de394403c7c9a03cc3</t>
+  </si>
+  <si>
+    <t>https://github.com/HexxiumCreations/threat-list/commit/d5148e5b416be3137299f4de394403c7c9a03cc4</t>
+  </si>
+  <si>
+    <t>https://github.com/HexxiumCreations/threat-list/commit/d5148e5b416be3137299f4de394403c7c9a03cc5</t>
+  </si>
+  <si>
+    <t>https://github.com/HexxiumCreations/threat-list/commit/d5148e5b416be3137299f4de394403c7c9a03cc6</t>
+  </si>
+  <si>
+    <t>https://github.com/HexxiumCreations/threat-list/commit/d5148e5b416be3137299f4de394403c7c9a03cc7</t>
+  </si>
+  <si>
+    <t>https://github.com/HexxiumCreations/threat-list/commit/d5148e5b416be3137299f4de394403c7c9a03cc8</t>
+  </si>
+  <si>
+    <t>https://github.com/HexxiumCreations/threat-list/commit/d5148e5b416be3137299f4de394403c7c9a03cc9</t>
+  </si>
+  <si>
+    <t>https://github.com/HexxiumCreations/threat-list/commit/d5148e5b416be3137299f4de394403c7c9a03cc10</t>
+  </si>
+  <si>
+    <t>https://github.com/HexxiumCreations/threat-list/commit/d5148e5b416be3137299f4de394403c7c9a03cc11</t>
+  </si>
+  <si>
+    <t>https://github.com/HexxiumCreations/threat-list/commit/d5148e5b416be3137299f4de394403c7c9a03cc12</t>
+  </si>
+  <si>
+    <t>https://github.com/HexxiumCreations/threat-list/commit/d5148e5b416be3137299f4de394403c7c9a03cc13</t>
+  </si>
+  <si>
+    <t>https://github.com/HexxiumCreations/threat-list/commit/d5148e5b416be3137299f4de394403c7c9a03cc14</t>
+  </si>
 </sst>
 </file>
 
@@ -546,7 +660,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -637,6 +751,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -882,7 +1001,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -958,6 +1077,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1275,13 +1397,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14C866A6-DA4E-4339-A449-D3F4A4C1F408}">
-  <dimension ref="A1:G75"/>
+  <dimension ref="A1:G88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62:B75"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B76" sqref="B76:B88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="26.5703125" style="7" customWidth="1"/>
     <col min="2" max="2" width="56.5703125" customWidth="1"/>
@@ -1292,7 +1414,7 @@
     <col min="7" max="7" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1303,7 +1425,7 @@
       <c r="F1" s="12"/>
       <c r="G1" s="13"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="14"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -1312,7 +1434,7 @@
       <c r="F2" s="15"/>
       <c r="G2" s="16"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="14"/>
       <c r="B3" s="15"/>
       <c r="C3" s="15"/>
@@ -1321,7 +1443,7 @@
       <c r="F3" s="15"/>
       <c r="G3" s="16"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="14"/>
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
@@ -1330,7 +1452,7 @@
       <c r="F4" s="15"/>
       <c r="G4" s="16"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="14"/>
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
@@ -1339,7 +1461,7 @@
       <c r="F5" s="15"/>
       <c r="G5" s="16"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="15.75" thickBot="1">
       <c r="A6" s="17"/>
       <c r="B6" s="18"/>
       <c r="C6" s="18"/>
@@ -1348,7 +1470,7 @@
       <c r="F6" s="18"/>
       <c r="G6" s="19"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="20" t="s">
         <v>1</v>
       </c>
@@ -1359,7 +1481,7 @@
       <c r="F7" s="21"/>
       <c r="G7" s="22"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="15.75" thickBot="1">
       <c r="A8" s="23"/>
       <c r="B8" s="24"/>
       <c r="C8" s="24"/>
@@ -1368,7 +1490,7 @@
       <c r="F8" s="24"/>
       <c r="G8" s="25"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="26" t="s">
         <v>8</v>
       </c>
@@ -1379,7 +1501,7 @@
       <c r="F9" s="26"/>
       <c r="G9" s="26"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="15.75" thickBot="1">
       <c r="A10" s="27"/>
       <c r="B10" s="27"/>
       <c r="C10" s="27"/>
@@ -1388,7 +1510,7 @@
       <c r="F10" s="27"/>
       <c r="G10" s="27"/>
     </row>
-    <row r="11" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="30.75" thickBot="1">
       <c r="A11" s="9" t="s">
         <v>2</v>
       </c>
@@ -1411,7 +1533,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="6">
         <v>44577</v>
       </c>
@@ -1431,7 +1553,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" s="6"/>
       <c r="B13" s="5" t="s">
         <v>14</v>
@@ -1449,7 +1571,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="B14" t="s">
         <v>15</v>
       </c>
@@ -1466,7 +1588,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="B15" t="s">
         <v>16</v>
       </c>
@@ -1483,7 +1605,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="B16" t="s">
         <v>18</v>
       </c>
@@ -1500,7 +1622,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="B17" t="s">
         <v>19</v>
       </c>
@@ -1517,7 +1639,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="B18" t="s">
         <v>20</v>
       </c>
@@ -1534,7 +1656,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="B19" t="s">
         <v>21</v>
       </c>
@@ -1551,7 +1673,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="B20" t="s">
         <v>22</v>
       </c>
@@ -1568,7 +1690,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="B21" t="s">
         <v>25</v>
       </c>
@@ -1585,7 +1707,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" s="7">
         <v>44578</v>
       </c>
@@ -1605,7 +1727,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="B23" t="s">
         <v>29</v>
       </c>
@@ -1622,7 +1744,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="B24" t="s">
         <v>31</v>
       </c>
@@ -1639,7 +1761,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="B25" t="s">
         <v>32</v>
       </c>
@@ -1659,7 +1781,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="B26" t="s">
         <v>35</v>
       </c>
@@ -1679,7 +1801,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="B27" t="s">
         <v>37</v>
       </c>
@@ -1699,7 +1821,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7">
       <c r="B28" t="s">
         <v>39</v>
       </c>
@@ -1719,7 +1841,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7">
       <c r="B29" t="s">
         <v>47</v>
       </c>
@@ -1739,7 +1861,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7">
       <c r="B30" t="s">
         <v>49</v>
       </c>
@@ -1756,7 +1878,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7">
       <c r="B31" t="s">
         <v>50</v>
       </c>
@@ -1773,7 +1895,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7">
       <c r="B32" t="s">
         <v>52</v>
       </c>
@@ -1790,7 +1912,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="B33" t="s">
         <v>54</v>
       </c>
@@ -1807,7 +1929,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="B34" t="s">
         <v>55</v>
       </c>
@@ -1824,7 +1946,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7">
       <c r="B35" t="s">
         <v>57</v>
       </c>
@@ -1841,7 +1963,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7">
       <c r="B36" t="s">
         <v>58</v>
       </c>
@@ -1858,7 +1980,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7">
       <c r="B37" t="s">
         <v>59</v>
       </c>
@@ -1875,7 +1997,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7">
       <c r="B38" t="s">
         <v>60</v>
       </c>
@@ -1892,7 +2014,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7">
       <c r="B39" t="s">
         <v>65</v>
       </c>
@@ -1909,7 +2031,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7">
       <c r="B40" t="s">
         <v>67</v>
       </c>
@@ -1929,7 +2051,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7">
       <c r="A41" s="7">
         <v>44580</v>
       </c>
@@ -1949,7 +2071,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7">
       <c r="B42" t="s">
         <v>72</v>
       </c>
@@ -1966,7 +2088,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7">
       <c r="B43" t="s">
         <v>74</v>
       </c>
@@ -1983,7 +2105,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7">
       <c r="B44" t="s">
         <v>76</v>
       </c>
@@ -2000,7 +2122,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7">
       <c r="B45" t="s">
         <v>78</v>
       </c>
@@ -2017,7 +2139,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7">
       <c r="B46" t="s">
         <v>79</v>
       </c>
@@ -2034,7 +2156,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7">
       <c r="B47" t="s">
         <v>82</v>
       </c>
@@ -2051,7 +2173,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7">
       <c r="B48" t="s">
         <v>83</v>
       </c>
@@ -2068,7 +2190,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7">
       <c r="B49" t="s">
         <v>85</v>
       </c>
@@ -2085,7 +2207,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7">
       <c r="B50" t="s">
         <v>87</v>
       </c>
@@ -2102,7 +2224,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7">
       <c r="B51" t="s">
         <v>88</v>
       </c>
@@ -2119,7 +2241,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="30">
       <c r="A52" s="7">
         <v>44581</v>
       </c>
@@ -2139,7 +2261,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="30">
       <c r="B53" t="s">
         <v>102</v>
       </c>
@@ -2156,7 +2278,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="30">
       <c r="B54" t="s">
         <v>103</v>
       </c>
@@ -2173,7 +2295,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" ht="30">
       <c r="B55" t="s">
         <v>104</v>
       </c>
@@ -2190,7 +2312,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7">
       <c r="A56" s="7">
         <v>44582</v>
       </c>
@@ -2210,7 +2332,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7">
       <c r="B57" t="s">
         <v>108</v>
       </c>
@@ -2227,7 +2349,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7">
       <c r="B58" t="s">
         <v>111</v>
       </c>
@@ -2244,7 +2366,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7">
       <c r="B59" t="s">
         <v>113</v>
       </c>
@@ -2261,7 +2383,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7">
       <c r="B60" t="s">
         <v>115</v>
       </c>
@@ -2278,7 +2400,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7">
       <c r="B61" t="s">
         <v>117</v>
       </c>
@@ -2295,7 +2417,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7">
       <c r="A62" s="7">
         <v>44587</v>
       </c>
@@ -2315,7 +2437,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7">
       <c r="B63" t="s">
         <v>122</v>
       </c>
@@ -2332,7 +2454,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7">
       <c r="B64" t="s">
         <v>124</v>
       </c>
@@ -2349,7 +2471,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7">
       <c r="B65" t="s">
         <v>126</v>
       </c>
@@ -2366,7 +2488,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7">
       <c r="B66" t="s">
         <v>127</v>
       </c>
@@ -2383,7 +2505,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7">
       <c r="B67" t="s">
         <v>130</v>
       </c>
@@ -2400,7 +2522,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7">
       <c r="B68" t="s">
         <v>132</v>
       </c>
@@ -2417,7 +2539,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7">
       <c r="B69" t="s">
         <v>134</v>
       </c>
@@ -2434,7 +2556,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7">
       <c r="B70" t="s">
         <v>136</v>
       </c>
@@ -2451,7 +2573,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7">
       <c r="B71" t="s">
         <v>138</v>
       </c>
@@ -2468,7 +2590,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7">
       <c r="B72" t="s">
         <v>140</v>
       </c>
@@ -2485,7 +2607,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7">
       <c r="B73" t="s">
         <v>142</v>
       </c>
@@ -2502,7 +2624,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7">
       <c r="B74" t="s">
         <v>143</v>
       </c>
@@ -2519,7 +2641,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7">
       <c r="B75" t="s">
         <v>144</v>
       </c>
@@ -2534,6 +2656,233 @@
       </c>
       <c r="G75" t="s">
         <v>160</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="7">
+        <v>44589</v>
+      </c>
+      <c r="B76" t="s">
+        <v>161</v>
+      </c>
+      <c r="C76" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E76" t="s">
+        <v>13</v>
+      </c>
+      <c r="G76" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="B77" t="s">
+        <v>163</v>
+      </c>
+      <c r="C77" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="E77" t="s">
+        <v>13</v>
+      </c>
+      <c r="G77" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="B78" t="s">
+        <v>165</v>
+      </c>
+      <c r="C78" t="s">
+        <v>40</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="E78" t="s">
+        <v>13</v>
+      </c>
+      <c r="G78" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="B79" t="s">
+        <v>167</v>
+      </c>
+      <c r="C79" t="s">
+        <v>40</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="E79" t="s">
+        <v>13</v>
+      </c>
+      <c r="G79" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="B80" t="s">
+        <v>168</v>
+      </c>
+      <c r="C80" t="s">
+        <v>10</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="E80" t="s">
+        <v>13</v>
+      </c>
+      <c r="G80" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7">
+      <c r="B81" t="s">
+        <v>170</v>
+      </c>
+      <c r="C81" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E81" t="s">
+        <v>13</v>
+      </c>
+      <c r="G81" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7">
+      <c r="B82" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="C82" t="s">
+        <v>10</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="E82" t="s">
+        <v>13</v>
+      </c>
+      <c r="G82" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7">
+      <c r="B83" t="s">
+        <v>174</v>
+      </c>
+      <c r="C83" t="s">
+        <v>40</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="E83" t="s">
+        <v>13</v>
+      </c>
+      <c r="G83" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7">
+      <c r="B84" t="s">
+        <v>176</v>
+      </c>
+      <c r="C84" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="E84" t="s">
+        <v>13</v>
+      </c>
+      <c r="G84" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7">
+      <c r="B85" t="s">
+        <v>178</v>
+      </c>
+      <c r="C85" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E85" t="s">
+        <v>13</v>
+      </c>
+      <c r="G85" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7" ht="30">
+      <c r="B86" t="s">
+        <v>180</v>
+      </c>
+      <c r="C86" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="E86" t="s">
+        <v>34</v>
+      </c>
+      <c r="F86" t="s">
+        <v>181</v>
+      </c>
+      <c r="G86" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7">
+      <c r="B87" t="s">
+        <v>183</v>
+      </c>
+      <c r="C87" t="s">
+        <v>10</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="E87" t="s">
+        <v>13</v>
+      </c>
+      <c r="G87" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7">
+      <c r="B88" t="s">
+        <v>185</v>
+      </c>
+      <c r="C88" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E88" t="s">
+        <v>13</v>
+      </c>
+      <c r="G88" t="s">
+        <v>198</v>
       </c>
     </row>
   </sheetData>

--- a/Hexxium Creations Master Threat List.xlsx
+++ b/Hexxium Creations Master Threat List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajgil\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80EB59E4-FC8D-45EC-86A8-4238867C4C56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70151806-41F8-435D-B98C-B509FF7B2887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3DEABEAD-3436-424C-B428-D269778B0BBE}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="209">
   <si>
     <t>HEXXIUM CREATIONS THREAT LIST MASTER LOGBOOK</t>
   </si>
@@ -651,6 +651,36 @@
   </si>
   <si>
     <t>https://github.com/HexxiumCreations/threat-list/commit/d5148e5b416be3137299f4de394403c7c9a03cc14</t>
+  </si>
+  <si>
+    <t>loveme.uno</t>
+  </si>
+  <si>
+    <t>tenderchicksfx.com</t>
+  </si>
+  <si>
+    <t>Malvertising, linked to loveme.uno</t>
+  </si>
+  <si>
+    <t>january2022-gift.net</t>
+  </si>
+  <si>
+    <t>Fake SHIBA coins giveaway</t>
+  </si>
+  <si>
+    <t>eveningdating.life</t>
+  </si>
+  <si>
+    <t>royal-babes.xyz</t>
+  </si>
+  <si>
+    <t>hookupclub6.com</t>
+  </si>
+  <si>
+    <t>Malvertising linked to royal-babes.xyz</t>
+  </si>
+  <si>
+    <t>https://github.com/HexxiumCreations/threat-list/commit/373e31b965034f07276b6462d67e098d18023ebc</t>
   </si>
 </sst>
 </file>
@@ -1027,6 +1057,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1077,9 +1110,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1397,10 +1427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14C866A6-DA4E-4339-A449-D3F4A4C1F408}">
-  <dimension ref="A1:G88"/>
+  <dimension ref="A1:G94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B76" sqref="B76:B88"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E95" sqref="E95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1415,100 +1445,100 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="13"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="14"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="14"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="16"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="17"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="14"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="16"/>
+      <c r="A3" s="15"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="17"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="14"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="16"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="17"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="14"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="16"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="17"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A6" s="17"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="19"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="20"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="22"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="23"/>
     </row>
     <row r="8" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A8" s="23"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="25"/>
+      <c r="A8" s="24"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="26"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
     </row>
     <row r="10" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A10" s="27"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
     </row>
     <row r="11" spans="1:7" ht="30.75" thickBot="1">
       <c r="A11" s="9" t="s">
@@ -2746,7 +2776,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="81" spans="2:7">
+    <row r="81" spans="1:7">
       <c r="B81" t="s">
         <v>170</v>
       </c>
@@ -2763,8 +2793,8 @@
         <v>191</v>
       </c>
     </row>
-    <row r="82" spans="2:7">
-      <c r="B82" s="28" t="s">
+    <row r="82" spans="1:7">
+      <c r="B82" s="11" t="s">
         <v>172</v>
       </c>
       <c r="C82" t="s">
@@ -2780,7 +2810,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="83" spans="2:7">
+    <row r="83" spans="1:7">
       <c r="B83" t="s">
         <v>174</v>
       </c>
@@ -2797,7 +2827,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="84" spans="2:7">
+    <row r="84" spans="1:7">
       <c r="B84" t="s">
         <v>176</v>
       </c>
@@ -2814,7 +2844,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="85" spans="2:7">
+    <row r="85" spans="1:7">
       <c r="B85" t="s">
         <v>178</v>
       </c>
@@ -2831,7 +2861,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="86" spans="2:7" ht="30">
+    <row r="86" spans="1:7" ht="30">
       <c r="B86" t="s">
         <v>180</v>
       </c>
@@ -2851,7 +2881,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="87" spans="2:7">
+    <row r="87" spans="1:7">
       <c r="B87" t="s">
         <v>183</v>
       </c>
@@ -2868,7 +2898,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="88" spans="2:7">
+    <row r="88" spans="1:7">
       <c r="B88" t="s">
         <v>185</v>
       </c>
@@ -2883,6 +2913,111 @@
       </c>
       <c r="G88" t="s">
         <v>198</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" s="7">
+        <v>44591</v>
+      </c>
+      <c r="B89" t="s">
+        <v>199</v>
+      </c>
+      <c r="C89" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E89" t="s">
+        <v>13</v>
+      </c>
+      <c r="G89" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="B90" t="s">
+        <v>200</v>
+      </c>
+      <c r="C90" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="E90" t="s">
+        <v>13</v>
+      </c>
+      <c r="G90" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="B91" t="s">
+        <v>202</v>
+      </c>
+      <c r="C91" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E91" t="s">
+        <v>13</v>
+      </c>
+      <c r="G91" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="B92" t="s">
+        <v>204</v>
+      </c>
+      <c r="C92" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E92" t="s">
+        <v>13</v>
+      </c>
+      <c r="G92" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="B93" t="s">
+        <v>205</v>
+      </c>
+      <c r="C93" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E93" t="s">
+        <v>13</v>
+      </c>
+      <c r="G93" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="B94" t="s">
+        <v>206</v>
+      </c>
+      <c r="C94" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="E94" t="s">
+        <v>13</v>
+      </c>
+      <c r="G94" t="s">
+        <v>208</v>
       </c>
     </row>
   </sheetData>

--- a/Hexxium Creations Master Threat List.xlsx
+++ b/Hexxium Creations Master Threat List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajgil\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70151806-41F8-435D-B98C-B509FF7B2887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C73A1CD-87D8-4422-99AE-59A8F34E0428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3DEABEAD-3436-424C-B428-D269778B0BBE}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="276">
   <si>
     <t>HEXXIUM CREATIONS THREAT LIST MASTER LOGBOOK</t>
   </si>
@@ -681,6 +681,207 @@
   </si>
   <si>
     <t>https://github.com/HexxiumCreations/threat-list/commit/373e31b965034f07276b6462d67e098d18023ebc</t>
+  </si>
+  <si>
+    <t>nude-datting.online</t>
+  </si>
+  <si>
+    <t>bigasschubby.com</t>
+  </si>
+  <si>
+    <t>bunnygirlss.site</t>
+  </si>
+  <si>
+    <t>Malvertising, leads to other blocked domains in the threatlist already, spreading via YouTube comment bots -tenderchicksfx.com</t>
+  </si>
+  <si>
+    <t>news-dy.com</t>
+  </si>
+  <si>
+    <t>ap3lorf0il.com</t>
+  </si>
+  <si>
+    <t>blockanoadblockerlabs.site</t>
+  </si>
+  <si>
+    <t>Malvertising, unsafe ad blocker</t>
+  </si>
+  <si>
+    <t>trynewtreat.com</t>
+  </si>
+  <si>
+    <t>Malvertising, unsafe Indian store</t>
+  </si>
+  <si>
+    <t>pbntime.com</t>
+  </si>
+  <si>
+    <t>rbuvmc.com</t>
+  </si>
+  <si>
+    <t>Malicious website, browser trickery</t>
+  </si>
+  <si>
+    <t>main-datings.top</t>
+  </si>
+  <si>
+    <t>allnewindianporn.com</t>
+  </si>
+  <si>
+    <t>Fake Indian porn website, all videos lead to the above unsafe browser hijacking sites</t>
+  </si>
+  <si>
+    <t>trustyfine.com</t>
+  </si>
+  <si>
+    <t>Portal site that leads from allnewindianporn.com to all the above unsafe hijacking sites</t>
+  </si>
+  <si>
+    <t>fictiongroin.com</t>
+  </si>
+  <si>
+    <t>Known malicious to Malwarebytes and multiple other blocklists already</t>
+  </si>
+  <si>
+    <t>bhabhixxxvideos.com</t>
+  </si>
+  <si>
+    <t>Fake Indian porn website, all videos lead to other unsafe sites</t>
+  </si>
+  <si>
+    <t>indianloves.com</t>
+  </si>
+  <si>
+    <t>Endless redirection from all videos to other fake porn sites</t>
+  </si>
+  <si>
+    <t>indianpornvideos.cc</t>
+  </si>
+  <si>
+    <t>desi-xnxx.pro</t>
+  </si>
+  <si>
+    <t>freeindianxxx.cc</t>
+  </si>
+  <si>
+    <t>nudedesiporn.com</t>
+  </si>
+  <si>
+    <t>indianmovies.guru</t>
+  </si>
+  <si>
+    <t>indiansexvids.org</t>
+  </si>
+  <si>
+    <t>indianporn.asia</t>
+  </si>
+  <si>
+    <t>freeindianfuck.net</t>
+  </si>
+  <si>
+    <t>soindianporn.com</t>
+  </si>
+  <si>
+    <t>indiansex.top</t>
+  </si>
+  <si>
+    <t>hindipornhd.com</t>
+  </si>
+  <si>
+    <t>bookmark.xxx</t>
+  </si>
+  <si>
+    <t>dirtyindiangirls.com</t>
+  </si>
+  <si>
+    <t>freemotiontube.com</t>
+  </si>
+  <si>
+    <t>https://github.com/HexxiumCreations/threat-list/commit/62a903231983ae0d877057c2b051e071f9aa93c5</t>
+  </si>
+  <si>
+    <t>https://github.com/HexxiumCreations/threat-list/commit/62a903231983ae0d877057c2b051e071f9aa93c6</t>
+  </si>
+  <si>
+    <t>https://github.com/HexxiumCreations/threat-list/commit/62a903231983ae0d877057c2b051e071f9aa93c7</t>
+  </si>
+  <si>
+    <t>https://github.com/HexxiumCreations/threat-list/commit/62a903231983ae0d877057c2b051e071f9aa93c8</t>
+  </si>
+  <si>
+    <t>https://github.com/HexxiumCreations/threat-list/commit/62a903231983ae0d877057c2b051e071f9aa93c9</t>
+  </si>
+  <si>
+    <t>https://github.com/HexxiumCreations/threat-list/commit/62a903231983ae0d877057c2b051e071f9aa93c10</t>
+  </si>
+  <si>
+    <t>https://github.com/HexxiumCreations/threat-list/commit/62a903231983ae0d877057c2b051e071f9aa93c11</t>
+  </si>
+  <si>
+    <t>https://github.com/HexxiumCreations/threat-list/commit/62a903231983ae0d877057c2b051e071f9aa93c12</t>
+  </si>
+  <si>
+    <t>https://github.com/HexxiumCreations/threat-list/commit/62a903231983ae0d877057c2b051e071f9aa93c13</t>
+  </si>
+  <si>
+    <t>https://github.com/HexxiumCreations/threat-list/commit/62a903231983ae0d877057c2b051e071f9aa93c14</t>
+  </si>
+  <si>
+    <t>https://github.com/HexxiumCreations/threat-list/commit/62a903231983ae0d877057c2b051e071f9aa93c15</t>
+  </si>
+  <si>
+    <t>https://github.com/HexxiumCreations/threat-list/commit/62a903231983ae0d877057c2b051e071f9aa93c16</t>
+  </si>
+  <si>
+    <t>https://github.com/HexxiumCreations/threat-list/commit/62a903231983ae0d877057c2b051e071f9aa93c17</t>
+  </si>
+  <si>
+    <t>https://github.com/HexxiumCreations/threat-list/commit/62a903231983ae0d877057c2b051e071f9aa93c18</t>
+  </si>
+  <si>
+    <t>https://github.com/HexxiumCreations/threat-list/commit/62a903231983ae0d877057c2b051e071f9aa93c19</t>
+  </si>
+  <si>
+    <t>https://github.com/HexxiumCreations/threat-list/commit/62a903231983ae0d877057c2b051e071f9aa93c20</t>
+  </si>
+  <si>
+    <t>https://github.com/HexxiumCreations/threat-list/commit/62a903231983ae0d877057c2b051e071f9aa93c21</t>
+  </si>
+  <si>
+    <t>https://github.com/HexxiumCreations/threat-list/commit/62a903231983ae0d877057c2b051e071f9aa93c22</t>
+  </si>
+  <si>
+    <t>https://github.com/HexxiumCreations/threat-list/commit/62a903231983ae0d877057c2b051e071f9aa93c23</t>
+  </si>
+  <si>
+    <t>https://github.com/HexxiumCreations/threat-list/commit/62a903231983ae0d877057c2b051e071f9aa93c24</t>
+  </si>
+  <si>
+    <t>https://github.com/HexxiumCreations/threat-list/commit/62a903231983ae0d877057c2b051e071f9aa93c25</t>
+  </si>
+  <si>
+    <t>https://github.com/HexxiumCreations/threat-list/commit/62a903231983ae0d877057c2b051e071f9aa93c26</t>
+  </si>
+  <si>
+    <t>https://github.com/HexxiumCreations/threat-list/commit/62a903231983ae0d877057c2b051e071f9aa93c27</t>
+  </si>
+  <si>
+    <t>https://github.com/HexxiumCreations/threat-list/commit/62a903231983ae0d877057c2b051e071f9aa93c28</t>
+  </si>
+  <si>
+    <t>https://github.com/HexxiumCreations/threat-list/commit/62a903231983ae0d877057c2b051e071f9aa93c29</t>
+  </si>
+  <si>
+    <t>https://github.com/HexxiumCreations/threat-list/commit/62a903231983ae0d877057c2b051e071f9aa93c30</t>
+  </si>
+  <si>
+    <t>https://github.com/HexxiumCreations/threat-list/commit/62a903231983ae0d877057c2b051e071f9aa93c31</t>
+  </si>
+  <si>
+    <t>https://github.com/HexxiumCreations/threat-list/commit/62a903231983ae0d877057c2b051e071f9aa93c32</t>
+  </si>
+  <si>
+    <t>https://github.com/HexxiumCreations/threat-list/commit/62a903231983ae0d877057c2b051e071f9aa93c33</t>
   </si>
 </sst>
 </file>
@@ -1427,10 +1628,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14C866A6-DA4E-4339-A449-D3F4A4C1F408}">
-  <dimension ref="A1:G94"/>
+  <dimension ref="A1:G123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E95" sqref="E95"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D113" sqref="D113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3018,6 +3219,502 @@
       </c>
       <c r="G94" t="s">
         <v>208</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="30">
+      <c r="A95" s="7">
+        <v>44593</v>
+      </c>
+      <c r="B95" t="s">
+        <v>209</v>
+      </c>
+      <c r="C95" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="E95" t="s">
+        <v>13</v>
+      </c>
+      <c r="G95" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="30">
+      <c r="B96" t="s">
+        <v>210</v>
+      </c>
+      <c r="C96" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="E96" t="s">
+        <v>13</v>
+      </c>
+      <c r="G96" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="97" spans="2:7" ht="30">
+      <c r="B97" t="s">
+        <v>211</v>
+      </c>
+      <c r="C97" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="E97" t="s">
+        <v>13</v>
+      </c>
+      <c r="G97" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="98" spans="2:7">
+      <c r="B98" t="s">
+        <v>213</v>
+      </c>
+      <c r="C98" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E98" t="s">
+        <v>13</v>
+      </c>
+      <c r="G98" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="99" spans="2:7">
+      <c r="B99" t="s">
+        <v>214</v>
+      </c>
+      <c r="C99" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E99" t="s">
+        <v>13</v>
+      </c>
+      <c r="G99" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="100" spans="2:7">
+      <c r="B100" t="s">
+        <v>215</v>
+      </c>
+      <c r="C100" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="E100" t="s">
+        <v>13</v>
+      </c>
+      <c r="G100" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="101" spans="2:7">
+      <c r="B101" t="s">
+        <v>217</v>
+      </c>
+      <c r="C101" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="E101" t="s">
+        <v>13</v>
+      </c>
+      <c r="G101" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="102" spans="2:7">
+      <c r="B102" t="s">
+        <v>219</v>
+      </c>
+      <c r="C102" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="E102" t="s">
+        <v>13</v>
+      </c>
+      <c r="G102" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="103" spans="2:7">
+      <c r="B103" t="s">
+        <v>220</v>
+      </c>
+      <c r="C103" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="E103" t="s">
+        <v>13</v>
+      </c>
+      <c r="G103" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="104" spans="2:7">
+      <c r="B104" t="s">
+        <v>222</v>
+      </c>
+      <c r="C104" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="E104" t="s">
+        <v>13</v>
+      </c>
+      <c r="G104" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="105" spans="2:7">
+      <c r="B105" t="s">
+        <v>223</v>
+      </c>
+      <c r="C105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="E105" t="s">
+        <v>13</v>
+      </c>
+      <c r="G105" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="106" spans="2:7">
+      <c r="B106" t="s">
+        <v>225</v>
+      </c>
+      <c r="C106" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="E106" t="s">
+        <v>13</v>
+      </c>
+      <c r="G106" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="107" spans="2:7">
+      <c r="B107" t="s">
+        <v>227</v>
+      </c>
+      <c r="C107" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="E107" t="s">
+        <v>13</v>
+      </c>
+      <c r="G107" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="108" spans="2:7">
+      <c r="B108" t="s">
+        <v>229</v>
+      </c>
+      <c r="C108" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="E108" t="s">
+        <v>13</v>
+      </c>
+      <c r="G108" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="109" spans="2:7">
+      <c r="B109" t="s">
+        <v>231</v>
+      </c>
+      <c r="C109" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="E109" t="s">
+        <v>13</v>
+      </c>
+      <c r="G109" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="110" spans="2:7">
+      <c r="B110" t="s">
+        <v>233</v>
+      </c>
+      <c r="C110" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="E110" t="s">
+        <v>13</v>
+      </c>
+      <c r="G110" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="111" spans="2:7">
+      <c r="B111" t="s">
+        <v>234</v>
+      </c>
+      <c r="C111" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="E111" t="s">
+        <v>13</v>
+      </c>
+      <c r="G111" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="112" spans="2:7">
+      <c r="B112" t="s">
+        <v>235</v>
+      </c>
+      <c r="C112" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="E112" t="s">
+        <v>13</v>
+      </c>
+      <c r="G112" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="113" spans="2:7">
+      <c r="B113" t="s">
+        <v>236</v>
+      </c>
+      <c r="C113" t="s">
+        <v>9</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="E113" t="s">
+        <v>13</v>
+      </c>
+      <c r="G113" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="114" spans="2:7">
+      <c r="B114" t="s">
+        <v>237</v>
+      </c>
+      <c r="C114" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="E114" t="s">
+        <v>13</v>
+      </c>
+      <c r="G114" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="115" spans="2:7">
+      <c r="B115" t="s">
+        <v>238</v>
+      </c>
+      <c r="C115" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="E115" t="s">
+        <v>13</v>
+      </c>
+      <c r="G115" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="116" spans="2:7">
+      <c r="B116" t="s">
+        <v>239</v>
+      </c>
+      <c r="C116" t="s">
+        <v>9</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="E116" t="s">
+        <v>13</v>
+      </c>
+      <c r="G116" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="117" spans="2:7">
+      <c r="B117" t="s">
+        <v>240</v>
+      </c>
+      <c r="C117" t="s">
+        <v>9</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="E117" t="s">
+        <v>13</v>
+      </c>
+      <c r="G117" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="118" spans="2:7">
+      <c r="B118" t="s">
+        <v>241</v>
+      </c>
+      <c r="C118" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="E118" t="s">
+        <v>13</v>
+      </c>
+      <c r="G118" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="119" spans="2:7">
+      <c r="B119" t="s">
+        <v>242</v>
+      </c>
+      <c r="C119" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="E119" t="s">
+        <v>13</v>
+      </c>
+      <c r="G119" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="120" spans="2:7">
+      <c r="B120" t="s">
+        <v>243</v>
+      </c>
+      <c r="C120" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="E120" t="s">
+        <v>13</v>
+      </c>
+      <c r="G120" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="121" spans="2:7">
+      <c r="B121" t="s">
+        <v>244</v>
+      </c>
+      <c r="C121" t="s">
+        <v>9</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="E121" t="s">
+        <v>13</v>
+      </c>
+      <c r="G121" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="122" spans="2:7">
+      <c r="B122" t="s">
+        <v>245</v>
+      </c>
+      <c r="C122" t="s">
+        <v>9</v>
+      </c>
+      <c r="D122" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="E122" t="s">
+        <v>13</v>
+      </c>
+      <c r="G122" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="123" spans="2:7">
+      <c r="B123" t="s">
+        <v>246</v>
+      </c>
+      <c r="C123" t="s">
+        <v>9</v>
+      </c>
+      <c r="D123" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="E123" t="s">
+        <v>13</v>
+      </c>
+      <c r="G123" t="s">
+        <v>275</v>
       </c>
     </row>
   </sheetData>

--- a/Hexxium Creations Master Threat List.xlsx
+++ b/Hexxium Creations Master Threat List.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajgil\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C73A1CD-87D8-4422-99AE-59A8F34E0428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D926EA3-0D69-4E62-AA27-7BC4AF727304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3DEABEAD-3436-424C-B428-D269778B0BBE}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="328">
   <si>
     <t>HEXXIUM CREATIONS THREAT LIST MASTER LOGBOOK</t>
   </si>
@@ -602,9 +602,6 @@
     <t>[H.C #50]</t>
   </si>
   <si>
-    <t>"Takes payment, does not ship product nor respond to inquires by phone or email, for great than a month" - Verified fake address, notified company to dispute if it wishes and is a real company</t>
-  </si>
-  <si>
     <t>inx.lv</t>
   </si>
   <si>
@@ -882,6 +879,165 @@
   </si>
   <si>
     <t>https://github.com/HexxiumCreations/threat-list/commit/62a903231983ae0d877057c2b051e071f9aa93c33</t>
+  </si>
+  <si>
+    <t>sayout.me</t>
+  </si>
+  <si>
+    <t>devicefix.rest</t>
+  </si>
+  <si>
+    <t>Fake android virus warnings</t>
+  </si>
+  <si>
+    <t>mobnfgt.com</t>
+  </si>
+  <si>
+    <t>Fake video ad for unsafe android app</t>
+  </si>
+  <si>
+    <t>cmdz35pvhcde.top</t>
+  </si>
+  <si>
+    <t>important-messages.info</t>
+  </si>
+  <si>
+    <t>loyalty-page.xyz</t>
+  </si>
+  <si>
+    <t>Fake Walmart reward page</t>
+  </si>
+  <si>
+    <t>pccamerica.xyz</t>
+  </si>
+  <si>
+    <t>cloud-storage-help.site</t>
+  </si>
+  <si>
+    <t>Fake cloud storage site</t>
+  </si>
+  <si>
+    <t>rewardsavenue.net</t>
+  </si>
+  <si>
+    <t>Fake KFC rewards site</t>
+  </si>
+  <si>
+    <t>zprelandappslab.com</t>
+  </si>
+  <si>
+    <t>inpage-push.com</t>
+  </si>
+  <si>
+    <t>whugesto.net</t>
+  </si>
+  <si>
+    <t>Unsafe site served by inpage-push.com</t>
+  </si>
+  <si>
+    <t>asstok.com</t>
+  </si>
+  <si>
+    <t>b-cdn.net</t>
+  </si>
+  <si>
+    <t>Phishing site linked to adult web pages</t>
+  </si>
+  <si>
+    <t>totalav.com</t>
+  </si>
+  <si>
+    <t>Serves all the malicious pages in the list today above and more, with no user interaction required to trigger most of them. Already blocked by Easylist, but also now here just in case someone disables Easylist</t>
+  </si>
+  <si>
+    <t>Using malvertising campaigns and scare tactics to try to gain customers</t>
+  </si>
+  <si>
+    <t>Page has malicious ads embedded that hijack the browser to malicious domains claiming your phone (andorid) has a virus among other things. Unsafe service</t>
+  </si>
+  <si>
+    <t>perfectwoman-here.life</t>
+  </si>
+  <si>
+    <t>Email spam, leads to phishing sex scams</t>
+  </si>
+  <si>
+    <t>fckme8s.com</t>
+  </si>
+  <si>
+    <t>Linked to perfectwoman-here.life</t>
+  </si>
+  <si>
+    <t>insta-sex.com</t>
+  </si>
+  <si>
+    <t>Linked to fckme8s.com, fake sex site, phishing</t>
+  </si>
+  <si>
+    <t>homedepoten.com</t>
+  </si>
+  <si>
+    <t>"Takes payment, does not ship product nor respond to inquires by phone or email, for great than a month" - Verified fake address, notified company to dispute if it wishes and is a real company - affiliated with Uniqueloomin</t>
+  </si>
+  <si>
+    <t>Affiliated with Uniqueloomin, high risk of fraud/fake sales, F BBB rating, unaccred. - many user complaints unresolved</t>
+  </si>
+  <si>
+    <t>https://github.com/HexxiumCreations/threat-list/commit/bb50f2ad52223f942fefa87aa1f6130ed8231980</t>
+  </si>
+  <si>
+    <t>https://github.com/HexxiumCreations/threat-list/commit/bb50f2ad52223f942fefa87aa1f6130ed8231981</t>
+  </si>
+  <si>
+    <t>https://github.com/HexxiumCreations/threat-list/commit/bb50f2ad52223f942fefa87aa1f6130ed8231982</t>
+  </si>
+  <si>
+    <t>https://github.com/HexxiumCreations/threat-list/commit/bb50f2ad52223f942fefa87aa1f6130ed8231983</t>
+  </si>
+  <si>
+    <t>https://github.com/HexxiumCreations/threat-list/commit/bb50f2ad52223f942fefa87aa1f6130ed8231984</t>
+  </si>
+  <si>
+    <t>https://github.com/HexxiumCreations/threat-list/commit/bb50f2ad52223f942fefa87aa1f6130ed8231985</t>
+  </si>
+  <si>
+    <t>https://github.com/HexxiumCreations/threat-list/commit/bb50f2ad52223f942fefa87aa1f6130ed8231986</t>
+  </si>
+  <si>
+    <t>https://github.com/HexxiumCreations/threat-list/commit/bb50f2ad52223f942fefa87aa1f6130ed8231987</t>
+  </si>
+  <si>
+    <t>https://github.com/HexxiumCreations/threat-list/commit/bb50f2ad52223f942fefa87aa1f6130ed8231988</t>
+  </si>
+  <si>
+    <t>https://github.com/HexxiumCreations/threat-list/commit/bb50f2ad52223f942fefa87aa1f6130ed8231989</t>
+  </si>
+  <si>
+    <t>https://github.com/HexxiumCreations/threat-list/commit/bb50f2ad52223f942fefa87aa1f6130ed8231990</t>
+  </si>
+  <si>
+    <t>https://github.com/HexxiumCreations/threat-list/commit/bb50f2ad52223f942fefa87aa1f6130ed8231991</t>
+  </si>
+  <si>
+    <t>https://github.com/HexxiumCreations/threat-list/commit/bb50f2ad52223f942fefa87aa1f6130ed8231992</t>
+  </si>
+  <si>
+    <t>https://github.com/HexxiumCreations/threat-list/commit/bb50f2ad52223f942fefa87aa1f6130ed8231993</t>
+  </si>
+  <si>
+    <t>https://github.com/HexxiumCreations/threat-list/commit/bb50f2ad52223f942fefa87aa1f6130ed8231994</t>
+  </si>
+  <si>
+    <t>https://github.com/HexxiumCreations/threat-list/commit/bb50f2ad52223f942fefa87aa1f6130ed8231995</t>
+  </si>
+  <si>
+    <t>https://github.com/HexxiumCreations/threat-list/commit/bb50f2ad52223f942fefa87aa1f6130ed8231996</t>
+  </si>
+  <si>
+    <t>https://github.com/HexxiumCreations/threat-list/commit/bb50f2ad52223f942fefa87aa1f6130ed8231997</t>
+  </si>
+  <si>
+    <t>https://github.com/HexxiumCreations/threat-list/commit/bb50f2ad52223f942fefa87aa1f6130ed8231998</t>
   </si>
 </sst>
 </file>
@@ -1628,10 +1784,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14C866A6-DA4E-4339-A449-D3F4A4C1F408}">
-  <dimension ref="A1:G123"/>
+  <dimension ref="A1:G142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D113" sqref="D113"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E136" sqref="E136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2906,7 +3062,7 @@
         <v>13</v>
       </c>
       <c r="G76" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2923,7 +3079,7 @@
         <v>13</v>
       </c>
       <c r="G77" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2940,7 +3096,7 @@
         <v>13</v>
       </c>
       <c r="G78" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2957,7 +3113,7 @@
         <v>13</v>
       </c>
       <c r="G79" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2974,7 +3130,7 @@
         <v>13</v>
       </c>
       <c r="G80" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -2991,7 +3147,7 @@
         <v>13</v>
       </c>
       <c r="G81" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -3008,7 +3164,7 @@
         <v>13</v>
       </c>
       <c r="G82" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -3025,7 +3181,7 @@
         <v>13</v>
       </c>
       <c r="G83" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -3042,7 +3198,7 @@
         <v>13</v>
       </c>
       <c r="G84" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -3059,7 +3215,7 @@
         <v>13</v>
       </c>
       <c r="G85" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="30">
@@ -3070,7 +3226,7 @@
         <v>9</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>182</v>
+        <v>307</v>
       </c>
       <c r="E86" t="s">
         <v>34</v>
@@ -3079,29 +3235,29 @@
         <v>181</v>
       </c>
       <c r="G86" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="B87" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C87" t="s">
         <v>10</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E87" t="s">
         <v>13</v>
       </c>
       <c r="G87" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="B88" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C88" t="s">
         <v>9</v>
@@ -3113,7 +3269,7 @@
         <v>13</v>
       </c>
       <c r="G88" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -3121,7 +3277,7 @@
         <v>44591</v>
       </c>
       <c r="B89" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C89" t="s">
         <v>9</v>
@@ -3133,46 +3289,46 @@
         <v>13</v>
       </c>
       <c r="G89" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="B90" t="s">
+        <v>199</v>
+      </c>
+      <c r="C90" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="C90" t="s">
-        <v>9</v>
-      </c>
-      <c r="D90" s="4" t="s">
-        <v>201</v>
-      </c>
       <c r="E90" t="s">
         <v>13</v>
       </c>
       <c r="G90" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="B91" t="s">
+        <v>201</v>
+      </c>
+      <c r="C91" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="C91" t="s">
-        <v>9</v>
-      </c>
-      <c r="D91" s="4" t="s">
-        <v>203</v>
-      </c>
       <c r="E91" t="s">
         <v>13</v>
       </c>
       <c r="G91" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="B92" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C92" t="s">
         <v>9</v>
@@ -3184,12 +3340,12 @@
         <v>13</v>
       </c>
       <c r="G92" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="B93" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C93" t="s">
         <v>9</v>
@@ -3201,24 +3357,24 @@
         <v>13</v>
       </c>
       <c r="G93" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="B94" t="s">
+        <v>205</v>
+      </c>
+      <c r="C94" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="C94" t="s">
-        <v>9</v>
-      </c>
-      <c r="D94" s="4" t="s">
+      <c r="E94" t="s">
+        <v>13</v>
+      </c>
+      <c r="G94" t="s">
         <v>207</v>
-      </c>
-      <c r="E94" t="s">
-        <v>13</v>
-      </c>
-      <c r="G94" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="30">
@@ -3226,58 +3382,58 @@
         <v>44593</v>
       </c>
       <c r="B95" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C95" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E95" t="s">
         <v>13</v>
       </c>
       <c r="G95" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="30">
       <c r="B96" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C96" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E96" t="s">
         <v>13</v>
       </c>
       <c r="G96" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="97" spans="2:7" ht="30">
       <c r="B97" t="s">
+        <v>210</v>
+      </c>
+      <c r="C97" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="C97" t="s">
-        <v>9</v>
-      </c>
-      <c r="D97" s="4" t="s">
-        <v>212</v>
-      </c>
       <c r="E97" t="s">
         <v>13</v>
       </c>
       <c r="G97" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="98" spans="2:7">
       <c r="B98" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C98" t="s">
         <v>9</v>
@@ -3289,12 +3445,12 @@
         <v>13</v>
       </c>
       <c r="G98" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="99" spans="2:7">
       <c r="B99" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C99" t="s">
         <v>9</v>
@@ -3306,415 +3462,741 @@
         <v>13</v>
       </c>
       <c r="G99" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="100" spans="2:7">
       <c r="B100" t="s">
+        <v>214</v>
+      </c>
+      <c r="C100" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="C100" t="s">
-        <v>9</v>
-      </c>
-      <c r="D100" s="4" t="s">
-        <v>216</v>
-      </c>
       <c r="E100" t="s">
         <v>13</v>
       </c>
       <c r="G100" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="101" spans="2:7">
       <c r="B101" t="s">
+        <v>216</v>
+      </c>
+      <c r="C101" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="C101" t="s">
-        <v>9</v>
-      </c>
-      <c r="D101" s="4" t="s">
-        <v>218</v>
-      </c>
       <c r="E101" t="s">
         <v>13</v>
       </c>
       <c r="G101" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="102" spans="2:7">
       <c r="B102" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C102" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E102" t="s">
         <v>13</v>
       </c>
       <c r="G102" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="103" spans="2:7">
       <c r="B103" t="s">
+        <v>219</v>
+      </c>
+      <c r="C103" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="C103" t="s">
-        <v>9</v>
-      </c>
-      <c r="D103" s="4" t="s">
-        <v>221</v>
-      </c>
       <c r="E103" t="s">
         <v>13</v>
       </c>
       <c r="G103" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="104" spans="2:7">
       <c r="B104" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C104" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E104" t="s">
         <v>13</v>
       </c>
       <c r="G104" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="105" spans="2:7">
       <c r="B105" t="s">
+        <v>222</v>
+      </c>
+      <c r="C105" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="C105" t="s">
-        <v>9</v>
-      </c>
-      <c r="D105" s="4" t="s">
-        <v>224</v>
-      </c>
       <c r="E105" t="s">
         <v>13</v>
       </c>
       <c r="G105" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="106" spans="2:7">
       <c r="B106" t="s">
+        <v>224</v>
+      </c>
+      <c r="C106" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="C106" t="s">
-        <v>9</v>
-      </c>
-      <c r="D106" s="4" t="s">
-        <v>226</v>
-      </c>
       <c r="E106" t="s">
         <v>13</v>
       </c>
       <c r="G106" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="107" spans="2:7">
       <c r="B107" t="s">
+        <v>226</v>
+      </c>
+      <c r="C107" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="C107" t="s">
-        <v>9</v>
-      </c>
-      <c r="D107" s="4" t="s">
-        <v>228</v>
-      </c>
       <c r="E107" t="s">
         <v>13</v>
       </c>
       <c r="G107" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="108" spans="2:7">
       <c r="B108" t="s">
+        <v>228</v>
+      </c>
+      <c r="C108" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="C108" t="s">
-        <v>9</v>
-      </c>
-      <c r="D108" s="4" t="s">
-        <v>230</v>
-      </c>
       <c r="E108" t="s">
         <v>13</v>
       </c>
       <c r="G108" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="109" spans="2:7">
       <c r="B109" t="s">
+        <v>230</v>
+      </c>
+      <c r="C109" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="C109" t="s">
-        <v>9</v>
-      </c>
-      <c r="D109" s="4" t="s">
-        <v>232</v>
-      </c>
       <c r="E109" t="s">
         <v>13</v>
       </c>
       <c r="G109" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="110" spans="2:7">
       <c r="B110" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C110" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E110" t="s">
         <v>13</v>
       </c>
       <c r="G110" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="111" spans="2:7">
       <c r="B111" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C111" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E111" t="s">
         <v>13</v>
       </c>
       <c r="G111" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="112" spans="2:7">
       <c r="B112" t="s">
+        <v>234</v>
+      </c>
+      <c r="C112" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="E112" t="s">
+        <v>13</v>
+      </c>
+      <c r="G112" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="B113" t="s">
         <v>235</v>
       </c>
-      <c r="C112" t="s">
-        <v>9</v>
-      </c>
-      <c r="D112" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="E112" t="s">
-        <v>13</v>
-      </c>
-      <c r="G112" t="s">
+      <c r="C113" t="s">
+        <v>9</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="E113" t="s">
+        <v>13</v>
+      </c>
+      <c r="G113" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="113" spans="2:7">
-      <c r="B113" t="s">
+    <row r="114" spans="1:7">
+      <c r="B114" t="s">
         <v>236</v>
       </c>
-      <c r="C113" t="s">
-        <v>9</v>
-      </c>
-      <c r="D113" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="E113" t="s">
-        <v>13</v>
-      </c>
-      <c r="G113" t="s">
+      <c r="C114" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="E114" t="s">
+        <v>13</v>
+      </c>
+      <c r="G114" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="114" spans="2:7">
-      <c r="B114" t="s">
+    <row r="115" spans="1:7">
+      <c r="B115" t="s">
         <v>237</v>
       </c>
-      <c r="C114" t="s">
-        <v>9</v>
-      </c>
-      <c r="D114" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="E114" t="s">
-        <v>13</v>
-      </c>
-      <c r="G114" t="s">
+      <c r="C115" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="E115" t="s">
+        <v>13</v>
+      </c>
+      <c r="G115" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="115" spans="2:7">
-      <c r="B115" t="s">
+    <row r="116" spans="1:7">
+      <c r="B116" t="s">
         <v>238</v>
       </c>
-      <c r="C115" t="s">
-        <v>9</v>
-      </c>
-      <c r="D115" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="E115" t="s">
-        <v>13</v>
-      </c>
-      <c r="G115" t="s">
+      <c r="C116" t="s">
+        <v>9</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="E116" t="s">
+        <v>13</v>
+      </c>
+      <c r="G116" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="116" spans="2:7">
-      <c r="B116" t="s">
+    <row r="117" spans="1:7">
+      <c r="B117" t="s">
         <v>239</v>
       </c>
-      <c r="C116" t="s">
-        <v>9</v>
-      </c>
-      <c r="D116" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="E116" t="s">
-        <v>13</v>
-      </c>
-      <c r="G116" t="s">
+      <c r="C117" t="s">
+        <v>9</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="E117" t="s">
+        <v>13</v>
+      </c>
+      <c r="G117" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="117" spans="2:7">
-      <c r="B117" t="s">
+    <row r="118" spans="1:7">
+      <c r="B118" t="s">
         <v>240</v>
       </c>
-      <c r="C117" t="s">
-        <v>9</v>
-      </c>
-      <c r="D117" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="E117" t="s">
-        <v>13</v>
-      </c>
-      <c r="G117" t="s">
+      <c r="C118" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="E118" t="s">
+        <v>13</v>
+      </c>
+      <c r="G118" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="118" spans="2:7">
-      <c r="B118" t="s">
+    <row r="119" spans="1:7">
+      <c r="B119" t="s">
         <v>241</v>
       </c>
-      <c r="C118" t="s">
-        <v>9</v>
-      </c>
-      <c r="D118" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="E118" t="s">
-        <v>13</v>
-      </c>
-      <c r="G118" t="s">
+      <c r="C119" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="E119" t="s">
+        <v>13</v>
+      </c>
+      <c r="G119" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="119" spans="2:7">
-      <c r="B119" t="s">
+    <row r="120" spans="1:7">
+      <c r="B120" t="s">
         <v>242</v>
       </c>
-      <c r="C119" t="s">
-        <v>9</v>
-      </c>
-      <c r="D119" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="E119" t="s">
-        <v>13</v>
-      </c>
-      <c r="G119" t="s">
+      <c r="C120" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="E120" t="s">
+        <v>13</v>
+      </c>
+      <c r="G120" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="120" spans="2:7">
-      <c r="B120" t="s">
+    <row r="121" spans="1:7">
+      <c r="B121" t="s">
         <v>243</v>
       </c>
-      <c r="C120" t="s">
-        <v>9</v>
-      </c>
-      <c r="D120" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="E120" t="s">
-        <v>13</v>
-      </c>
-      <c r="G120" t="s">
+      <c r="C121" t="s">
+        <v>9</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="E121" t="s">
+        <v>13</v>
+      </c>
+      <c r="G121" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="121" spans="2:7">
-      <c r="B121" t="s">
+    <row r="122" spans="1:7">
+      <c r="B122" t="s">
         <v>244</v>
       </c>
-      <c r="C121" t="s">
-        <v>9</v>
-      </c>
-      <c r="D121" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="E121" t="s">
-        <v>13</v>
-      </c>
-      <c r="G121" t="s">
+      <c r="C122" t="s">
+        <v>9</v>
+      </c>
+      <c r="D122" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="E122" t="s">
+        <v>13</v>
+      </c>
+      <c r="G122" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="122" spans="2:7">
-      <c r="B122" t="s">
+    <row r="123" spans="1:7">
+      <c r="B123" t="s">
         <v>245</v>
       </c>
-      <c r="C122" t="s">
-        <v>9</v>
-      </c>
-      <c r="D122" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="E122" t="s">
-        <v>13</v>
-      </c>
-      <c r="G122" t="s">
+      <c r="C123" t="s">
+        <v>9</v>
+      </c>
+      <c r="D123" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="E123" t="s">
+        <v>13</v>
+      </c>
+      <c r="G123" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="123" spans="2:7">
-      <c r="B123" t="s">
-        <v>246</v>
-      </c>
-      <c r="C123" t="s">
-        <v>9</v>
-      </c>
-      <c r="D123" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="E123" t="s">
-        <v>13</v>
-      </c>
-      <c r="G123" t="s">
+    <row r="124" spans="1:7" ht="30">
+      <c r="A124" s="7">
+        <v>44597</v>
+      </c>
+      <c r="B124" t="s">
         <v>275</v>
+      </c>
+      <c r="C124" t="s">
+        <v>23</v>
+      </c>
+      <c r="D124" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="E124" t="s">
+        <v>13</v>
+      </c>
+      <c r="G124" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="B125" t="s">
+        <v>276</v>
+      </c>
+      <c r="C125" t="s">
+        <v>10</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="E125" t="s">
+        <v>13</v>
+      </c>
+      <c r="G125" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="B126" t="s">
+        <v>278</v>
+      </c>
+      <c r="C126" t="s">
+        <v>10</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="E126" t="s">
+        <v>13</v>
+      </c>
+      <c r="G126" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="B127" t="s">
+        <v>280</v>
+      </c>
+      <c r="C127" t="s">
+        <v>10</v>
+      </c>
+      <c r="D127" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="E127" t="s">
+        <v>13</v>
+      </c>
+      <c r="G127" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="B128" t="s">
+        <v>281</v>
+      </c>
+      <c r="C128" t="s">
+        <v>10</v>
+      </c>
+      <c r="D128" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="E128" t="s">
+        <v>13</v>
+      </c>
+      <c r="G128" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="129" spans="2:7">
+      <c r="B129" t="s">
+        <v>282</v>
+      </c>
+      <c r="C129" t="s">
+        <v>9</v>
+      </c>
+      <c r="D129" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="E129" t="s">
+        <v>13</v>
+      </c>
+      <c r="G129" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="130" spans="2:7">
+      <c r="B130" t="s">
+        <v>284</v>
+      </c>
+      <c r="C130" t="s">
+        <v>10</v>
+      </c>
+      <c r="D130" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="E130" t="s">
+        <v>13</v>
+      </c>
+      <c r="G130" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="131" spans="2:7">
+      <c r="B131" t="s">
+        <v>285</v>
+      </c>
+      <c r="C131" t="s">
+        <v>9</v>
+      </c>
+      <c r="D131" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="E131" t="s">
+        <v>13</v>
+      </c>
+      <c r="G131" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="132" spans="2:7">
+      <c r="B132" t="s">
+        <v>287</v>
+      </c>
+      <c r="C132" t="s">
+        <v>9</v>
+      </c>
+      <c r="D132" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="E132" t="s">
+        <v>13</v>
+      </c>
+      <c r="G132" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="133" spans="2:7">
+      <c r="B133" t="s">
+        <v>289</v>
+      </c>
+      <c r="C133" t="s">
+        <v>10</v>
+      </c>
+      <c r="D133" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="E133" t="s">
+        <v>13</v>
+      </c>
+      <c r="G133" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="134" spans="2:7" ht="30">
+      <c r="B134" t="s">
+        <v>290</v>
+      </c>
+      <c r="C134" t="s">
+        <v>10</v>
+      </c>
+      <c r="D134" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="E134" t="s">
+        <v>13</v>
+      </c>
+      <c r="G134" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="135" spans="2:7">
+      <c r="B135" t="s">
+        <v>291</v>
+      </c>
+      <c r="C135" t="s">
+        <v>9</v>
+      </c>
+      <c r="D135" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="E135" t="s">
+        <v>13</v>
+      </c>
+      <c r="G135" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="136" spans="2:7">
+      <c r="B136" t="s">
+        <v>293</v>
+      </c>
+      <c r="C136" t="s">
+        <v>40</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="E136" t="s">
+        <v>13</v>
+      </c>
+      <c r="G136" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="137" spans="2:7">
+      <c r="B137" t="s">
+        <v>294</v>
+      </c>
+      <c r="C137" t="s">
+        <v>10</v>
+      </c>
+      <c r="D137" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="E137" t="s">
+        <v>13</v>
+      </c>
+      <c r="G137" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="138" spans="2:7">
+      <c r="B138" t="s">
+        <v>296</v>
+      </c>
+      <c r="C138" t="s">
+        <v>9</v>
+      </c>
+      <c r="D138" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="E138" t="s">
+        <v>13</v>
+      </c>
+      <c r="G138" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="139" spans="2:7">
+      <c r="B139" t="s">
+        <v>300</v>
+      </c>
+      <c r="C139" t="s">
+        <v>9</v>
+      </c>
+      <c r="D139" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="E139" t="s">
+        <v>13</v>
+      </c>
+      <c r="G139" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="140" spans="2:7">
+      <c r="B140" t="s">
+        <v>302</v>
+      </c>
+      <c r="C140" t="s">
+        <v>9</v>
+      </c>
+      <c r="D140" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="E140" t="s">
+        <v>13</v>
+      </c>
+      <c r="G140" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="141" spans="2:7">
+      <c r="B141" t="s">
+        <v>304</v>
+      </c>
+      <c r="C141" t="s">
+        <v>9</v>
+      </c>
+      <c r="D141" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="E141" t="s">
+        <v>13</v>
+      </c>
+      <c r="G141" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="142" spans="2:7">
+      <c r="B142" t="s">
+        <v>306</v>
+      </c>
+      <c r="C142" t="s">
+        <v>9</v>
+      </c>
+      <c r="D142" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="E142" t="s">
+        <v>13</v>
+      </c>
+      <c r="G142" t="s">
+        <v>327</v>
       </c>
     </row>
   </sheetData>

--- a/Hexxium Creations Master Threat List.xlsx
+++ b/Hexxium Creations Master Threat List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajgil\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E13C157-B747-4DAC-9250-861B8C5333A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{352D5500-EECF-47E8-9DD7-E347CDDE1851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3DEABEAD-3436-424C-B428-D269778B0BBE}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="395">
   <si>
     <t>HEXXIUM CREATIONS THREAT LIST MASTER LOGBOOK</t>
   </si>
@@ -1194,6 +1194,51 @@
   </si>
   <si>
     <t>https://github.com/HexxiumCreations/threat-list/commit/436b7a4b9bfcd8f16f26385e2bb6be1f23749c3c</t>
+  </si>
+  <si>
+    <t>mall-live.top</t>
+  </si>
+  <si>
+    <t>Fake Nike online store being advertised via paid ads on Facebook</t>
+  </si>
+  <si>
+    <t>aishite.tokyo</t>
+  </si>
+  <si>
+    <t>Known scam to Malwarebytes, spread by bots on Youtube comments- leads to other domains already in threatlist</t>
+  </si>
+  <si>
+    <t>easy-lay.com</t>
+  </si>
+  <si>
+    <t>Fake sex site, comes from other domains already in the list</t>
+  </si>
+  <si>
+    <t>datingtopgirls.com</t>
+  </si>
+  <si>
+    <t>Abuses browser permissions, fake sex site linked to easy-lay.com</t>
+  </si>
+  <si>
+    <t>spoiled-girl-sensation.xyz</t>
+  </si>
+  <si>
+    <t>Spread via YouTube comment bots, leads to other fake sex sites already in the threatlist</t>
+  </si>
+  <si>
+    <t>https://github.com/HexxiumCreations/threat-list/commit/0f26cdfaf4c21a9e3a3f473e46d1bf169632d625</t>
+  </si>
+  <si>
+    <t>https://github.com/HexxiumCreations/threat-list/commit/0f26cdfaf4c21a9e3a3f473e46d1bf169632d626</t>
+  </si>
+  <si>
+    <t>https://github.com/HexxiumCreations/threat-list/commit/0f26cdfaf4c21a9e3a3f473e46d1bf169632d627</t>
+  </si>
+  <si>
+    <t>https://github.com/HexxiumCreations/threat-list/commit/0f26cdfaf4c21a9e3a3f473e46d1bf169632d628</t>
+  </si>
+  <si>
+    <t>https://github.com/HexxiumCreations/threat-list/commit/0f26cdfaf4c21a9e3a3f473e46d1bf169632d629</t>
   </si>
 </sst>
 </file>
@@ -1553,7 +1598,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1582,6 +1627,8 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1633,7 +1680,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -1951,10 +1997,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14C866A6-DA4E-4339-A449-D3F4A4C1F408}">
-  <dimension ref="A1:G170"/>
+  <dimension ref="A1:G175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A132" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F165" sqref="F165"/>
+    <sheetView tabSelected="1" topLeftCell="A159" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D176" sqref="D176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1969,100 +2015,100 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="14"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="16"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="15"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="17"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="19"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="15"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="17"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="19"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="15"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="19"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="15"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="17"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="19"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A6" s="18"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="20"/>
+      <c r="A6" s="20"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="22"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="23"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="25"/>
     </row>
     <row r="8" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A8" s="24"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="26"/>
+      <c r="A8" s="26"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="28"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
     </row>
     <row r="10" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A10" s="28"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
+      <c r="A10" s="30"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
     </row>
     <row r="11" spans="1:7" ht="30.75" thickBot="1">
       <c r="A11" s="9" t="s">
@@ -4382,7 +4428,7 @@
       <c r="E143" t="s">
         <v>13</v>
       </c>
-      <c r="G143" s="29" t="s">
+      <c r="G143" s="12" t="s">
         <v>379</v>
       </c>
     </row>
@@ -4399,7 +4445,7 @@
       <c r="E144" t="s">
         <v>13</v>
       </c>
-      <c r="G144" s="29" t="s">
+      <c r="G144" s="12" t="s">
         <v>379</v>
       </c>
     </row>
@@ -4416,7 +4462,7 @@
       <c r="E145" t="s">
         <v>13</v>
       </c>
-      <c r="G145" s="29" t="s">
+      <c r="G145" s="12" t="s">
         <v>379</v>
       </c>
     </row>
@@ -4433,7 +4479,7 @@
       <c r="E146" t="s">
         <v>13</v>
       </c>
-      <c r="G146" s="29" t="s">
+      <c r="G146" s="12" t="s">
         <v>379</v>
       </c>
     </row>
@@ -4450,7 +4496,7 @@
       <c r="E147" t="s">
         <v>13</v>
       </c>
-      <c r="G147" s="29" t="s">
+      <c r="G147" s="12" t="s">
         <v>379</v>
       </c>
     </row>
@@ -4467,7 +4513,7 @@
       <c r="E148" t="s">
         <v>13</v>
       </c>
-      <c r="G148" s="29" t="s">
+      <c r="G148" s="12" t="s">
         <v>379</v>
       </c>
     </row>
@@ -4484,7 +4530,7 @@
       <c r="E149" t="s">
         <v>13</v>
       </c>
-      <c r="G149" s="29" t="s">
+      <c r="G149" s="12" t="s">
         <v>379</v>
       </c>
     </row>
@@ -4501,7 +4547,7 @@
       <c r="E150" t="s">
         <v>13</v>
       </c>
-      <c r="G150" s="29" t="s">
+      <c r="G150" s="12" t="s">
         <v>379</v>
       </c>
     </row>
@@ -4518,7 +4564,7 @@
       <c r="E151" t="s">
         <v>13</v>
       </c>
-      <c r="G151" s="29" t="s">
+      <c r="G151" s="12" t="s">
         <v>379</v>
       </c>
     </row>
@@ -4535,7 +4581,7 @@
       <c r="E152" t="s">
         <v>13</v>
       </c>
-      <c r="G152" s="29" t="s">
+      <c r="G152" s="12" t="s">
         <v>379</v>
       </c>
     </row>
@@ -4552,7 +4598,7 @@
       <c r="E153" t="s">
         <v>13</v>
       </c>
-      <c r="G153" s="29" t="s">
+      <c r="G153" s="12" t="s">
         <v>379</v>
       </c>
     </row>
@@ -4569,7 +4615,7 @@
       <c r="E154" t="s">
         <v>13</v>
       </c>
-      <c r="G154" s="29" t="s">
+      <c r="G154" s="12" t="s">
         <v>379</v>
       </c>
     </row>
@@ -4586,7 +4632,7 @@
       <c r="E155" t="s">
         <v>13</v>
       </c>
-      <c r="G155" s="29" t="s">
+      <c r="G155" s="12" t="s">
         <v>379</v>
       </c>
     </row>
@@ -4603,7 +4649,7 @@
       <c r="E156" t="s">
         <v>13</v>
       </c>
-      <c r="G156" s="29" t="s">
+      <c r="G156" s="12" t="s">
         <v>379</v>
       </c>
     </row>
@@ -4620,7 +4666,7 @@
       <c r="E157" t="s">
         <v>13</v>
       </c>
-      <c r="G157" s="29" t="s">
+      <c r="G157" s="12" t="s">
         <v>379</v>
       </c>
     </row>
@@ -4637,7 +4683,7 @@
       <c r="E158" t="s">
         <v>13</v>
       </c>
-      <c r="G158" s="29" t="s">
+      <c r="G158" s="12" t="s">
         <v>379</v>
       </c>
     </row>
@@ -4654,7 +4700,7 @@
       <c r="E159" t="s">
         <v>13</v>
       </c>
-      <c r="G159" s="29" t="s">
+      <c r="G159" s="12" t="s">
         <v>379</v>
       </c>
     </row>
@@ -4671,11 +4717,11 @@
       <c r="E160" t="s">
         <v>13</v>
       </c>
-      <c r="G160" s="29" t="s">
+      <c r="G160" s="12" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="161" spans="2:7">
+    <row r="161" spans="1:7">
       <c r="B161" t="s">
         <v>362</v>
       </c>
@@ -4688,11 +4734,11 @@
       <c r="E161" t="s">
         <v>13</v>
       </c>
-      <c r="G161" s="29" t="s">
+      <c r="G161" s="12" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="162" spans="2:7">
+    <row r="162" spans="1:7">
       <c r="B162" t="s">
         <v>364</v>
       </c>
@@ -4705,11 +4751,11 @@
       <c r="E162" t="s">
         <v>13</v>
       </c>
-      <c r="G162" s="29" t="s">
+      <c r="G162" s="12" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="163" spans="2:7">
+    <row r="163" spans="1:7">
       <c r="B163" t="s">
         <v>365</v>
       </c>
@@ -4722,11 +4768,11 @@
       <c r="E163" t="s">
         <v>13</v>
       </c>
-      <c r="G163" s="29" t="s">
+      <c r="G163" s="12" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="164" spans="2:7">
+    <row r="164" spans="1:7">
       <c r="B164" t="s">
         <v>367</v>
       </c>
@@ -4739,11 +4785,11 @@
       <c r="E164" t="s">
         <v>13</v>
       </c>
-      <c r="G164" s="29" t="s">
+      <c r="G164" s="12" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="165" spans="2:7">
+    <row r="165" spans="1:7">
       <c r="B165" t="s">
         <v>369</v>
       </c>
@@ -4756,11 +4802,11 @@
       <c r="E165" t="s">
         <v>13</v>
       </c>
-      <c r="G165" s="29" t="s">
+      <c r="G165" s="12" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="166" spans="2:7">
+    <row r="166" spans="1:7">
       <c r="B166" t="s">
         <v>370</v>
       </c>
@@ -4773,11 +4819,11 @@
       <c r="E166" t="s">
         <v>13</v>
       </c>
-      <c r="G166" s="29" t="s">
+      <c r="G166" s="12" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="167" spans="2:7">
+    <row r="167" spans="1:7">
       <c r="B167" t="s">
         <v>372</v>
       </c>
@@ -4790,11 +4836,11 @@
       <c r="E167" t="s">
         <v>13</v>
       </c>
-      <c r="G167" s="29" t="s">
+      <c r="G167" s="12" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="168" spans="2:7">
+    <row r="168" spans="1:7">
       <c r="B168" t="s">
         <v>374</v>
       </c>
@@ -4807,11 +4853,11 @@
       <c r="E168" t="s">
         <v>13</v>
       </c>
-      <c r="G168" s="29" t="s">
+      <c r="G168" s="12" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="169" spans="2:7">
+    <row r="169" spans="1:7">
       <c r="B169" t="s">
         <v>376</v>
       </c>
@@ -4824,11 +4870,11 @@
       <c r="E169" t="s">
         <v>13</v>
       </c>
-      <c r="G169" s="29" t="s">
+      <c r="G169" s="12" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="170" spans="2:7">
+    <row r="170" spans="1:7">
       <c r="B170" t="s">
         <v>377</v>
       </c>
@@ -4841,8 +4887,96 @@
       <c r="E170" t="s">
         <v>13</v>
       </c>
-      <c r="G170" s="29" t="s">
+      <c r="G170" s="12" t="s">
         <v>379</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="A171" s="7">
+        <v>44619</v>
+      </c>
+      <c r="B171" t="s">
+        <v>380</v>
+      </c>
+      <c r="C171" t="s">
+        <v>9</v>
+      </c>
+      <c r="D171" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="E171" t="s">
+        <v>13</v>
+      </c>
+      <c r="G171" s="12" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="B172" t="s">
+        <v>382</v>
+      </c>
+      <c r="C172" t="s">
+        <v>9</v>
+      </c>
+      <c r="D172" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="E172" t="s">
+        <v>13</v>
+      </c>
+      <c r="G172" s="12" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="B173" t="s">
+        <v>384</v>
+      </c>
+      <c r="C173" t="s">
+        <v>9</v>
+      </c>
+      <c r="D173" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="E173" t="s">
+        <v>13</v>
+      </c>
+      <c r="G173" s="12" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
+      <c r="B174" t="s">
+        <v>386</v>
+      </c>
+      <c r="C174" t="s">
+        <v>9</v>
+      </c>
+      <c r="D174" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="E174" t="s">
+        <v>13</v>
+      </c>
+      <c r="G174" s="12" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
+      <c r="B175" s="13" t="s">
+        <v>388</v>
+      </c>
+      <c r="C175" t="s">
+        <v>9</v>
+      </c>
+      <c r="D175" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="E175" t="s">
+        <v>13</v>
+      </c>
+      <c r="G175" s="12" t="s">
+        <v>394</v>
       </c>
     </row>
   </sheetData>
@@ -4863,8 +4997,10 @@
   <hyperlinks>
     <hyperlink ref="G143" r:id="rId1" xr:uid="{A6E11BFA-D35D-4630-950C-F0BE7844A844}"/>
     <hyperlink ref="G144:G170" r:id="rId2" display="https://github.com/HexxiumCreations/threat-list/commit/436b7a4b9bfcd8f16f26385e2bb6be1f23749c3c" xr:uid="{F15DB93D-BF14-4C89-A614-FCE127DB77D9}"/>
+    <hyperlink ref="G171" r:id="rId3" xr:uid="{B0F6AAD3-869F-42A3-92E3-C1594FFFFC89}"/>
+    <hyperlink ref="G172:G175" r:id="rId4" display="https://github.com/HexxiumCreations/threat-list/commit/0f26cdfaf4c21a9e3a3f473e46d1bf169632d625" xr:uid="{938CE175-0E5A-463D-A9BE-3B2F0B3CACC3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId5"/>
 </worksheet>
 </file>
--- a/Hexxium Creations Master Threat List.xlsx
+++ b/Hexxium Creations Master Threat List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajgil\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{352D5500-EECF-47E8-9DD7-E347CDDE1851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71CC4B54-7751-4873-95CF-8204B41BE3E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3DEABEAD-3436-424C-B428-D269778B0BBE}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3DEABEAD-3436-424C-B428-D269778B0BBE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="406">
   <si>
     <t>HEXXIUM CREATIONS THREAT LIST MASTER LOGBOOK</t>
   </si>
@@ -1239,6 +1239,39 @@
   </si>
   <si>
     <t>https://github.com/HexxiumCreations/threat-list/commit/0f26cdfaf4c21a9e3a3f473e46d1bf169632d629</t>
+  </si>
+  <si>
+    <t>billingproblem-case-wvaohs.info</t>
+  </si>
+  <si>
+    <t>Pretending to be paypal via sign.paypl.billingproblem-case-wvaohs[DOT]info/signin</t>
+  </si>
+  <si>
+    <t>twitler.info</t>
+  </si>
+  <si>
+    <t>Report via Kyle Wilson (hexxiumcreations staff)- fake twitter domain using blogspot redirects to steal logins</t>
+  </si>
+  <si>
+    <t>Compromised website- https://rivaschool.fr/nema/1260.php - fake twitter login page</t>
+  </si>
+  <si>
+    <t>fudbot.hu</t>
+  </si>
+  <si>
+    <t>The fake twitter login page from https://rivaschool.fr/nema/1260.php</t>
+  </si>
+  <si>
+    <t>hellospace.world</t>
+  </si>
+  <si>
+    <t>Fake twitter login page, extremely compromised website, visiting it plain dumps entire db root password</t>
+  </si>
+  <si>
+    <t>rivaschool.fr</t>
+  </si>
+  <si>
+    <t>https://github.com/HexxiumCreations/threat-list/commit/2508a1e3d9d956e0887dda4d85cfacc8bd98a90d</t>
   </si>
 </sst>
 </file>
@@ -1997,10 +2030,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14C866A6-DA4E-4339-A449-D3F4A4C1F408}">
-  <dimension ref="A1:G175"/>
+  <dimension ref="A1:G180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A159" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D176" sqref="D176"/>
+    <sheetView tabSelected="1" topLeftCell="A141" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B176" sqref="B176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4977,6 +5010,94 @@
       </c>
       <c r="G175" s="12" t="s">
         <v>394</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176" s="7">
+        <v>44635</v>
+      </c>
+      <c r="B176" t="s">
+        <v>395</v>
+      </c>
+      <c r="C176" t="s">
+        <v>40</v>
+      </c>
+      <c r="D176" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="E176" t="s">
+        <v>13</v>
+      </c>
+      <c r="G176" s="12" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="177" spans="2:7">
+      <c r="B177" t="s">
+        <v>397</v>
+      </c>
+      <c r="C177" t="s">
+        <v>40</v>
+      </c>
+      <c r="D177" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="E177" t="s">
+        <v>13</v>
+      </c>
+      <c r="G177" s="12" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="178" spans="2:7">
+      <c r="B178" t="s">
+        <v>404</v>
+      </c>
+      <c r="C178" t="s">
+        <v>40</v>
+      </c>
+      <c r="D178" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="E178" t="s">
+        <v>13</v>
+      </c>
+      <c r="G178" s="12" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="179" spans="2:7">
+      <c r="B179" t="s">
+        <v>400</v>
+      </c>
+      <c r="C179" t="s">
+        <v>40</v>
+      </c>
+      <c r="D179" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="E179" t="s">
+        <v>13</v>
+      </c>
+      <c r="G179" s="12" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="180" spans="2:7">
+      <c r="B180" t="s">
+        <v>402</v>
+      </c>
+      <c r="C180" t="s">
+        <v>40</v>
+      </c>
+      <c r="D180" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="E180" t="s">
+        <v>13</v>
+      </c>
+      <c r="G180" s="12" t="s">
+        <v>405</v>
       </c>
     </row>
   </sheetData>
@@ -4999,8 +5120,10 @@
     <hyperlink ref="G144:G170" r:id="rId2" display="https://github.com/HexxiumCreations/threat-list/commit/436b7a4b9bfcd8f16f26385e2bb6be1f23749c3c" xr:uid="{F15DB93D-BF14-4C89-A614-FCE127DB77D9}"/>
     <hyperlink ref="G171" r:id="rId3" xr:uid="{B0F6AAD3-869F-42A3-92E3-C1594FFFFC89}"/>
     <hyperlink ref="G172:G175" r:id="rId4" display="https://github.com/HexxiumCreations/threat-list/commit/0f26cdfaf4c21a9e3a3f473e46d1bf169632d625" xr:uid="{938CE175-0E5A-463D-A9BE-3B2F0B3CACC3}"/>
+    <hyperlink ref="G176" r:id="rId5" xr:uid="{76F473E2-EAF4-4397-B6BA-55675315EBEB}"/>
+    <hyperlink ref="G177:G180" r:id="rId6" display="https://github.com/HexxiumCreations/threat-list/commit/2508a1e3d9d956e0887dda4d85cfacc8bd98a90d" xr:uid="{14B12C26-32AB-4967-B616-A092EAA068A8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId5"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId7"/>
 </worksheet>
 </file>
--- a/Hexxium Creations Master Threat List.xlsx
+++ b/Hexxium Creations Master Threat List.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajgil\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF7FB748-8C53-4FB3-9A0F-C5AD08AA7EA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FBC0031-207E-4073-9066-A2A5782D1481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3DEABEAD-3436-424C-B428-D269778B0BBE}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1327" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="617">
   <si>
     <t>HEXXIUM CREATIONS THREAT LIST MASTER LOGBOOK</t>
   </si>
@@ -1863,6 +1863,48 @@
   </si>
   <si>
     <t>https://github.com/HexxiumCreations/threat-list/commit/7d67f1e080f783ea2f506c2a07b166841d07aa93</t>
+  </si>
+  <si>
+    <t>reddogupdatephone.xyz</t>
+  </si>
+  <si>
+    <t>phonecleansolutions.com</t>
+  </si>
+  <si>
+    <t>celebs-breaking-news.com</t>
+  </si>
+  <si>
+    <t>closedmyvideo.com</t>
+  </si>
+  <si>
+    <t>Malicious redirection, unsafe</t>
+  </si>
+  <si>
+    <t>parisjeroleinpg.com</t>
+  </si>
+  <si>
+    <t>Malware redirect, likely exploit kit. Known malicious to Malwarebytes</t>
+  </si>
+  <si>
+    <t>check-update-today.com</t>
+  </si>
+  <si>
+    <t>Fake andorid virus warnings, known to Ublock</t>
+  </si>
+  <si>
+    <t>ad-score.com</t>
+  </si>
+  <si>
+    <t>Unsafe ads distrobution, known to Peter Lowe's list already</t>
+  </si>
+  <si>
+    <t>ltiadxa9vpdi.top</t>
+  </si>
+  <si>
+    <t>up-security-version032322.com</t>
+  </si>
+  <si>
+    <t>https://github.com/HexxiumCreations/threat-list/commit/6cad4cbde4755cbe24d40b7a85dc3529288d4c2b</t>
   </si>
 </sst>
 </file>
@@ -2687,10 +2729,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14C866A6-DA4E-4339-A449-D3F4A4C1F408}">
-  <dimension ref="A1:G273"/>
+  <dimension ref="A1:G282"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A237" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D261" sqref="D261"/>
+    <sheetView tabSelected="1" topLeftCell="A259" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F283" sqref="F283"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7341,7 +7383,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="273" spans="2:7">
+    <row r="273" spans="1:7">
       <c r="B273" t="s">
         <v>418</v>
       </c>
@@ -7356,6 +7398,162 @@
       </c>
       <c r="G273" t="s">
         <v>602</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7">
+      <c r="A274" s="7">
+        <v>44685</v>
+      </c>
+      <c r="B274" t="s">
+        <v>603</v>
+      </c>
+      <c r="C274" t="s">
+        <v>9</v>
+      </c>
+      <c r="D274" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="E274" t="s">
+        <v>13</v>
+      </c>
+      <c r="G274" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7">
+      <c r="B275" t="s">
+        <v>604</v>
+      </c>
+      <c r="C275" t="s">
+        <v>9</v>
+      </c>
+      <c r="D275" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="E275" t="s">
+        <v>13</v>
+      </c>
+      <c r="G275" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7">
+      <c r="B276" t="s">
+        <v>605</v>
+      </c>
+      <c r="C276" t="s">
+        <v>9</v>
+      </c>
+      <c r="D276" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="E276" t="s">
+        <v>13</v>
+      </c>
+      <c r="G276" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7">
+      <c r="B277" t="s">
+        <v>606</v>
+      </c>
+      <c r="C277" t="s">
+        <v>9</v>
+      </c>
+      <c r="D277" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="E277" t="s">
+        <v>13</v>
+      </c>
+      <c r="G277" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7">
+      <c r="B278" t="s">
+        <v>608</v>
+      </c>
+      <c r="C278" t="s">
+        <v>10</v>
+      </c>
+      <c r="D278" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="E278" t="s">
+        <v>13</v>
+      </c>
+      <c r="G278" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7">
+      <c r="B279" t="s">
+        <v>610</v>
+      </c>
+      <c r="C279" t="s">
+        <v>9</v>
+      </c>
+      <c r="D279" s="4" t="s">
+        <v>611</v>
+      </c>
+      <c r="E279" t="s">
+        <v>13</v>
+      </c>
+      <c r="G279" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7">
+      <c r="B280" t="s">
+        <v>612</v>
+      </c>
+      <c r="C280" t="s">
+        <v>9</v>
+      </c>
+      <c r="D280" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="E280" t="s">
+        <v>13</v>
+      </c>
+      <c r="G280" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7">
+      <c r="B281" t="s">
+        <v>614</v>
+      </c>
+      <c r="C281" t="s">
+        <v>9</v>
+      </c>
+      <c r="D281" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="E281" t="s">
+        <v>13</v>
+      </c>
+      <c r="G281" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7">
+      <c r="B282" t="s">
+        <v>615</v>
+      </c>
+      <c r="C282" t="s">
+        <v>9</v>
+      </c>
+      <c r="D282" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="E282" t="s">
+        <v>13</v>
+      </c>
+      <c r="G282" t="s">
+        <v>616</v>
       </c>
     </row>
   </sheetData>

--- a/Hexxium Creations Master Threat List.xlsx
+++ b/Hexxium Creations Master Threat List.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1774" uniqueCount="735">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1859" uniqueCount="757">
   <si>
     <t xml:space="preserve">HEXXIUM CREATIONS THREAT LIST MASTER LOGBOOK</t>
   </si>
@@ -2245,6 +2245,72 @@
   </si>
   <si>
     <t xml:space="preserve">Fake Steam login page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/HexxiumCreations/threat-list/commit/abfcdd23de4806abb41809a96356643980a6e739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">my-gifts.space</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stenmcommunity.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stearnscommunilty.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steanncamunity.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steanmscomnunnity.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stearncommunuetiuey.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steanmsconmmunnity.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcommunritly.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcommunuetiuey.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">open-gifts.net</t>
+  </si>
+  <si>
+    <t xml:space="preserve">glft-games.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deck-stean.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mynltro.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boxes-steam.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcomnumnitly.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamscomnunitly.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steanmcomnmnunity.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steanmcommnimnity.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcomunuetiuey.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mygifts.site</t>
+  </si>
+  <si>
+    <t xml:space="preserve">glfts.ru</t>
   </si>
 </sst>
 </file>
@@ -2616,8 +2682,8 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A323" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G350" activeCellId="0" sqref="G350"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A344" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G362" activeCellId="0" sqref="G362"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8837,92 +8903,308 @@
       <c r="E362" s="10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="363" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C363" s="10"/>
-      <c r="E363" s="10"/>
-    </row>
-    <row r="364" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C364" s="10"/>
-      <c r="E364" s="10"/>
-    </row>
-    <row r="365" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C365" s="10"/>
-      <c r="E365" s="10"/>
-    </row>
-    <row r="366" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C366" s="10"/>
-      <c r="E366" s="10"/>
-    </row>
-    <row r="367" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C367" s="10"/>
-      <c r="E367" s="10"/>
-    </row>
-    <row r="368" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C368" s="10"/>
-      <c r="E368" s="10"/>
-    </row>
-    <row r="369" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C369" s="10"/>
-      <c r="E369" s="10"/>
-    </row>
-    <row r="370" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C370" s="10"/>
-      <c r="E370" s="10"/>
-    </row>
-    <row r="371" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C371" s="10"/>
-      <c r="E371" s="10"/>
-    </row>
-    <row r="372" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C372" s="10"/>
-      <c r="E372" s="10"/>
-    </row>
-    <row r="373" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C373" s="10"/>
-      <c r="E373" s="10"/>
-    </row>
-    <row r="374" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C374" s="10"/>
-      <c r="E374" s="10"/>
-    </row>
-    <row r="375" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C375" s="10"/>
-      <c r="E375" s="10"/>
-    </row>
-    <row r="376" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C376" s="10"/>
-      <c r="E376" s="10"/>
-    </row>
-    <row r="377" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C377" s="10"/>
-      <c r="E377" s="10"/>
-    </row>
-    <row r="378" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C378" s="10"/>
-      <c r="E378" s="10"/>
-    </row>
-    <row r="379" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C379" s="10"/>
-      <c r="E379" s="10"/>
-    </row>
-    <row r="380" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C380" s="10"/>
-      <c r="E380" s="10"/>
-    </row>
-    <row r="381" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C381" s="10"/>
-      <c r="E381" s="10"/>
-    </row>
-    <row r="382" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C382" s="10"/>
-      <c r="E382" s="10"/>
-    </row>
-    <row r="383" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C383" s="10"/>
-      <c r="E383" s="10"/>
-    </row>
-    <row r="384" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G362" s="2" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A363" s="1" t="n">
+        <v>45091</v>
+      </c>
+      <c r="B363" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="C363" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D363" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="E363" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B364" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="C364" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D364" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="E364" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B365" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="C365" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D365" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="E365" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B366" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="C366" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D366" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="E366" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B367" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="C367" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D367" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="E367" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B368" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="C368" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D368" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="E368" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B369" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="C369" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D369" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="E369" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B370" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="C370" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D370" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="E370" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B371" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="C371" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D371" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="E371" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B372" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="C372" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D372" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="E372" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B373" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="C373" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D373" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="E373" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B374" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="C374" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D374" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="E374" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B375" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="C375" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D375" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="E375" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B376" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="C376" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D376" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="E376" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B377" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="C377" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D377" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="E377" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B378" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="C378" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D378" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="E378" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B379" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="C379" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D379" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="E379" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B380" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="C380" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D380" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="E380" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B381" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="C381" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D381" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="E381" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="382" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B382" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="C382" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D382" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="E382" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="383" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B383" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="C383" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D383" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="E383" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C384" s="10"/>
       <c r="E384" s="10"/>
     </row>

--- a/Hexxium Creations Master Threat List.xlsx
+++ b/Hexxium Creations Master Threat List.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1859" uniqueCount="757">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1920" uniqueCount="768">
   <si>
     <t xml:space="preserve">HEXXIUM CREATIONS THREAT LIST MASTER LOGBOOK</t>
   </si>
@@ -2253,6 +2253,9 @@
     <t xml:space="preserve">my-gifts.space</t>
   </si>
   <si>
+    <t xml:space="preserve">https://github.com/HexxiumCreations/threat-list/commit/774e301050fe0c5315005972d316988911132953</t>
+  </si>
+  <si>
     <t xml:space="preserve">stenmcommunity.com</t>
   </si>
   <si>
@@ -2311,6 +2314,36 @@
   </si>
   <si>
     <t xml:space="preserve">glfts.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcommunillu.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cstournaments.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">csgo-source2betta.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steanmcommnunity.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">faceltcase.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">betblitz-csgo.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcommuunnittys.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamccomuniity.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stealmscomnunnity.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">csgo-source2beta.com</t>
   </si>
 </sst>
 </file>
@@ -2321,7 +2354,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="[$-F800]dddd&quot;, &quot;mmmm\ dd&quot;, &quot;yyyy"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2428,6 +2461,13 @@
       <family val="0"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -2516,7 +2556,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2594,6 +2634,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="2" borderId="0" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2682,8 +2726,8 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A344" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G362" activeCellId="0" sqref="G362"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A359" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G385" activeCellId="0" sqref="G385"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8923,10 +8967,13 @@
       <c r="E363" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="G363" s="2" t="s">
+        <v>737</v>
+      </c>
     </row>
     <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B364" s="2" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="C364" s="10" t="s">
         <v>45</v>
@@ -8937,10 +8984,13 @@
       <c r="E364" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="G364" s="2" t="s">
+        <v>737</v>
+      </c>
     </row>
     <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B365" s="2" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="C365" s="10" t="s">
         <v>45</v>
@@ -8951,10 +9001,13 @@
       <c r="E365" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="G365" s="2" t="s">
+        <v>737</v>
+      </c>
     </row>
     <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B366" s="2" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="C366" s="10" t="s">
         <v>45</v>
@@ -8965,10 +9018,13 @@
       <c r="E366" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="G366" s="2" t="s">
+        <v>737</v>
+      </c>
     </row>
     <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B367" s="2" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="C367" s="10" t="s">
         <v>45</v>
@@ -8979,10 +9035,13 @@
       <c r="E367" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="G367" s="2" t="s">
+        <v>737</v>
+      </c>
     </row>
     <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B368" s="2" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="C368" s="10" t="s">
         <v>45</v>
@@ -8993,10 +9052,13 @@
       <c r="E368" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="G368" s="2" t="s">
+        <v>737</v>
+      </c>
     </row>
     <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B369" s="2" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="C369" s="10" t="s">
         <v>45</v>
@@ -9007,10 +9069,13 @@
       <c r="E369" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="G369" s="2" t="s">
+        <v>737</v>
+      </c>
     </row>
     <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B370" s="2" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C370" s="10" t="s">
         <v>45</v>
@@ -9021,10 +9086,13 @@
       <c r="E370" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="G370" s="2" t="s">
+        <v>737</v>
+      </c>
     </row>
     <row r="371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B371" s="2" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="C371" s="10" t="s">
         <v>45</v>
@@ -9035,10 +9103,13 @@
       <c r="E371" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="G371" s="2" t="s">
+        <v>737</v>
+      </c>
     </row>
     <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B372" s="2" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="C372" s="10" t="s">
         <v>45</v>
@@ -9049,10 +9120,13 @@
       <c r="E372" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="G372" s="2" t="s">
+        <v>737</v>
+      </c>
     </row>
     <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B373" s="2" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="C373" s="10" t="s">
         <v>45</v>
@@ -9063,10 +9137,13 @@
       <c r="E373" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="G373" s="2" t="s">
+        <v>737</v>
+      </c>
     </row>
     <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B374" s="2" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="C374" s="10" t="s">
         <v>45</v>
@@ -9077,10 +9154,13 @@
       <c r="E374" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="G374" s="2" t="s">
+        <v>737</v>
+      </c>
     </row>
     <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B375" s="2" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="C375" s="10" t="s">
         <v>45</v>
@@ -9091,10 +9171,13 @@
       <c r="E375" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="G375" s="2" t="s">
+        <v>737</v>
+      </c>
     </row>
     <row r="376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B376" s="2" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="C376" s="10" t="s">
         <v>45</v>
@@ -9105,10 +9188,13 @@
       <c r="E376" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="G376" s="2" t="s">
+        <v>737</v>
+      </c>
     </row>
     <row r="377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B377" s="2" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="C377" s="10" t="s">
         <v>45</v>
@@ -9119,10 +9205,13 @@
       <c r="E377" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="G377" s="2" t="s">
+        <v>737</v>
+      </c>
     </row>
     <row r="378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B378" s="2" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="C378" s="10" t="s">
         <v>45</v>
@@ -9133,10 +9222,13 @@
       <c r="E378" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="G378" s="2" t="s">
+        <v>737</v>
+      </c>
     </row>
     <row r="379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B379" s="2" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="C379" s="10" t="s">
         <v>45</v>
@@ -9147,10 +9239,13 @@
       <c r="E379" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="G379" s="2" t="s">
+        <v>737</v>
+      </c>
     </row>
     <row r="380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B380" s="2" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="C380" s="10" t="s">
         <v>45</v>
@@ -9161,10 +9256,13 @@
       <c r="E380" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="G380" s="2" t="s">
+        <v>737</v>
+      </c>
     </row>
     <row r="381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B381" s="2" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="C381" s="10" t="s">
         <v>45</v>
@@ -9175,10 +9273,13 @@
       <c r="E381" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="G381" s="2" t="s">
+        <v>737</v>
+      </c>
     </row>
     <row r="382" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B382" s="2" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="C382" s="10" t="s">
         <v>45</v>
@@ -9189,10 +9290,13 @@
       <c r="E382" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="G382" s="2" t="s">
+        <v>737</v>
+      </c>
     </row>
     <row r="383" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B383" s="2" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="C383" s="10" t="s">
         <v>45</v>
@@ -9203,46 +9307,153 @@
       <c r="E383" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="G383" s="2" t="s">
+        <v>737</v>
+      </c>
     </row>
     <row r="384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C384" s="10"/>
-      <c r="E384" s="10"/>
-    </row>
-    <row r="385" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C385" s="10"/>
-      <c r="E385" s="10"/>
-    </row>
-    <row r="386" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C386" s="10"/>
-      <c r="E386" s="10"/>
-    </row>
-    <row r="387" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C387" s="10"/>
-      <c r="E387" s="10"/>
-    </row>
-    <row r="388" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C388" s="10"/>
-      <c r="E388" s="10"/>
-    </row>
-    <row r="389" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C389" s="10"/>
-      <c r="E389" s="10"/>
-    </row>
-    <row r="390" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C390" s="10"/>
-      <c r="E390" s="10"/>
-    </row>
-    <row r="391" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C391" s="10"/>
-      <c r="E391" s="10"/>
-    </row>
-    <row r="392" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C392" s="10"/>
-      <c r="E392" s="10"/>
-    </row>
-    <row r="393" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C393" s="10"/>
-      <c r="E393" s="10"/>
+      <c r="A384" s="20" t="n">
+        <v>45092</v>
+      </c>
+      <c r="B384" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="C384" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D384" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="E384" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G384" s="0"/>
+    </row>
+    <row r="385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B385" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="C385" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D385" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="E385" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="386" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B386" s="2" t="s">
+        <v>760</v>
+      </c>
+      <c r="C386" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D386" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="E386" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="387" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B387" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="C387" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D387" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="E387" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B388" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="C388" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D388" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="E388" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B389" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="C389" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D389" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="E389" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B390" s="2" t="s">
+        <v>764</v>
+      </c>
+      <c r="C390" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D390" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="E390" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B391" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="C391" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D391" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="E391" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B392" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="C392" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D392" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="E392" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B393" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="C393" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D393" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="E393" s="10" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="394" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C394" s="10"/>

--- a/Hexxium Creations Master Threat List.xlsx
+++ b/Hexxium Creations Master Threat List.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1920" uniqueCount="768">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3130" uniqueCount="1069">
   <si>
     <t xml:space="preserve">HEXXIUM CREATIONS THREAT LIST MASTER LOGBOOK</t>
   </si>
@@ -2319,6 +2319,9 @@
     <t xml:space="preserve">steamcommunillu.ru</t>
   </si>
   <si>
+    <t xml:space="preserve">https://github.com/HexxiumCreations/threat-list/commit/49f4556af209f1f70fb1185169bf2448d610ce96</t>
+  </si>
+  <si>
     <t xml:space="preserve">cstournaments.ru</t>
   </si>
   <si>
@@ -2344,6 +2347,906 @@
   </si>
   <si>
     <t xml:space="preserve">csgo-source2beta.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcomuunntiy.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hosted on same host as other phishing domains (185.106.93.161); high probability of abuse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fastcup-cs.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">staemcommnunuty.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcomminnity.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamncommunity.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcomnnunmity.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcomunmitty.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">market-cs.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcummnunity.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamconnumity.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcornmumily.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">staemconmmunitly.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcomunnunity.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">staemcommunilty.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">korpubg.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steanmnconnmunlty.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">staemcornmunily.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcomnuinuty.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcomuriti.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">team-case.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pubgplayers.top</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fast20.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcomnunty.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcoomunilty.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pubg-koreav.top</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steancomnurnity.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sleamconmnnity.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pubgosch.top</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pubgkr2023.top</t>
+  </si>
+  <si>
+    <t xml:space="preserve">staemcoommunty.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steanconunity.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcommulty.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">game-toptournaments.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">takeskin.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcommunityuis.top</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sleamcommunityn.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emperes.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcomnnunty.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcomrnmuity.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">source2beta.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">st-sport.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">faze99.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">faze20.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stearncomrnuniltiy.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cs2-steam.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcomnunmittly.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steancommunuity.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wwwsleamcommnulty.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stemncommunitlly.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcomnunmuity.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wireo.top</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steancomunitty.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stearncormnunlty.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">staemcomnuinty.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcommunitun.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steahcomnuity.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steammconmuntiy.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stecmmcommunity.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcommurnuity.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">staencomunity.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">staemcommunmity.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pubg2023.top</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steancommuniuty.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcommmuniity.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcommunitlly.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steanmconmunity.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stearmcommnuity.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">punch-rust.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pubgkorea.club</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steanconmuinty.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamncommunrty.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steeamcomnmunity.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcommunytiy.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcommnrnunnity.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcomnumnnity.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcontent.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcomnunmitty.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcomuunilty.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcommunityi.top</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steemcommuniity.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fs-sportsgame.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pubg-korean.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steanconmunittly.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fsport-cs.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">staemcoommunity.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcommyny.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pubgkorean.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steam-commiunity.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcommunittliy.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steanccomnmunity.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scgorun.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">staemconnnunlty.de</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcommninuty.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bountysday.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nitropromo.ink</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pubgotg.top</t>
+  </si>
+  <si>
+    <t xml:space="preserve">korea-pubg.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcommunltluy.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steammcommuntiy.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcommuenuity.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">newpubg.top</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pubgancdh.top</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rustypotgiveaway.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pubg-korea.top</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamsommunitly.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pubgkoreas.top</t>
+  </si>
+  <si>
+    <t xml:space="preserve">playbattlegrounds.top</t>
+  </si>
+  <si>
+    <t xml:space="preserve">takessdrop.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steanconlmunity.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcomnmnuity.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcoomuniity.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">discord-nitro-gift.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcomnnuntity.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steanconnmunlty.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stearncomminity.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steammcommuniity.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcomnunjity.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steancomrunity.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gocstournaments.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcommunty.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">blast-major.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steemconmmunlty.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">somacases.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steanconmumlty.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcommnuunity.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steammcommnlty.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcommnuitry.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamncornmunity.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcommulnity.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcomunnily.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stearncommuniy.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamconmmunuity.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dlcsord.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stearncomnnunilty.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gamefssport.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamxcommnuity.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcommulnty.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sterncommunnity.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pubgkorea.cc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">staemcoomunity.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcommmuinty.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stearncomunnity.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">twitchdrolpsrlust.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcomunlity.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stearcormrnunilty.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eci-league.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">faiceit.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stearncomuntiy.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stemcommunityn.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stearncormunity.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcommunnuty.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcommunityw-pubg.asia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steancommunilly.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcomunntuy.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ctopesteannpowereb.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pubgkorean.top</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcomnnuinity.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcommurnitiy.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rust-panch.pro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stearncornnrunity.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcomunituy.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stearncommurity.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcommunittlly.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sleamcommunliy.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steumcommnulty.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stearncommuintly.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pubgkorean.asia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stearncornnunity.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamncomnmnunltiy.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcommuniltyru.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steampcommunity.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcomrnunrity.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcommuniyty.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sleamcomumnity.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamncommunify.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">koreanpubg.asia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcommuunitlly.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steancormmunity.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcommunuilty.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stearncomurnity.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">koreanpubg.top</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcomnnmuity.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steanncommunitu.shop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steancomniunity.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcomuonity.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ssteamcommunity.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcommnutie.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcommeunuity.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stemcomnnunuty.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcommyunity.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">staemcornrnunity.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcomununity.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">store-steamowered.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">discordpubgkorea.top</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamconmumitly.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mmpub.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamconmnuity.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcomnanity.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pubgnew.top</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcomnnyunity.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcommunify.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steancomnunlltly.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steannconnumity.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pubgkr-gift.top</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cs-skinshop.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steanconnumlty.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steampubg.top</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcommunicly.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamnconmumnity.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stemcomnwunyyty.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steemcornmunity.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stearnconmunitly.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steancomlmunity.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamccommunlty.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcomunite.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stearncommunintly.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcommnnuity.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tekesdrop.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cupmajor.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stearncomunty.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2cupstour.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stearncoummuniity.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stemconmunnity.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pubgkoreas.asia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stearnconmuinty.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcommunidy.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">korea-pubg.top</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pubgkor.top</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcomnunjty.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcommnunllty.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">staemcoomunivity.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcommunmnunity.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stemcornmuninty.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fastcup-league.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pubgitg.top</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcomrnunillty.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stemcommunetly.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stearncornrnumity.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steanncommunite.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcomnunnitty.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">koreapubg.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">es-league.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fastcup-new.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stearncoommunity.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steancommnnlty.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">korpubg.top</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcommunityuiv.top</t>
+  </si>
+  <si>
+    <t xml:space="preserve">streamcommunitty.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcommmnuity.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">faceit-league.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bossarena.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamncommunity.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">koreapubg.cc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steanmcomnuniity.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stearncomrnunitu.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stemcommuity.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcommunitq.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steanmconmunuity.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stemcomnunnity.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steancomrnnity.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steancommunntiy.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pubg-koreae.top</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sleamcommnulty.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steumcommunitu.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">faceiit-casec.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">slleamcommunity.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pubgkoreac.asia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stearncormnunlty.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">staerncommnuity.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">staemcommunivilty.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcommnnlty.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023pubg.top</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcommunety.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">koreanpubg.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steanmnconnmunity.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcomminitiy.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">korean-pubg.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcommunlity.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wwwsleamcommunliy.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">faze-team.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcomnumnittly.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steannconnmunity.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">take-drops-5.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">freediscordbysteam.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steanmconmnmmnnunty.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stemconmunuty.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pubggame.top</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pubg-korea.asia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcomnmunity.su</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamncommnity.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcomnrunity.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcomuntyy.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">staemcomrnnulty.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcomnunulty.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcomnnmunily.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcommumintly.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcomunnuetiuey.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcomnmnunily.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gft-50stm.com</t>
   </si>
 </sst>
 </file>
@@ -2726,8 +3629,8 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A359" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G385" activeCellId="0" sqref="G385"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A661" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A395" activeCellId="0" sqref="A395"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9312,7 +10215,7 @@
       </c>
     </row>
     <row r="384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A384" s="20" t="n">
+      <c r="A384" s="1" t="n">
         <v>45092</v>
       </c>
       <c r="B384" s="2" t="s">
@@ -9327,11 +10230,13 @@
       <c r="E384" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G384" s="0"/>
+      <c r="G384" s="2" t="s">
+        <v>759</v>
+      </c>
     </row>
     <row r="385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B385" s="2" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="C385" s="10" t="s">
         <v>45</v>
@@ -9342,10 +10247,13 @@
       <c r="E385" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="G385" s="2" t="s">
+        <v>759</v>
+      </c>
     </row>
     <row r="386" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B386" s="2" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="C386" s="10" t="s">
         <v>45</v>
@@ -9356,10 +10264,13 @@
       <c r="E386" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="G386" s="2" t="s">
+        <v>759</v>
+      </c>
     </row>
     <row r="387" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B387" s="2" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="C387" s="10" t="s">
         <v>45</v>
@@ -9370,10 +10281,13 @@
       <c r="E387" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="G387" s="2" t="s">
+        <v>759</v>
+      </c>
     </row>
     <row r="388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B388" s="2" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="C388" s="10" t="s">
         <v>45</v>
@@ -9384,10 +10298,13 @@
       <c r="E388" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="G388" s="2" t="s">
+        <v>759</v>
+      </c>
     </row>
     <row r="389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B389" s="2" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="C389" s="10" t="s">
         <v>45</v>
@@ -9398,10 +10315,13 @@
       <c r="E389" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="G389" s="2" t="s">
+        <v>759</v>
+      </c>
     </row>
     <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B390" s="2" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C390" s="10" t="s">
         <v>45</v>
@@ -9412,10 +10332,13 @@
       <c r="E390" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="G390" s="2" t="s">
+        <v>759</v>
+      </c>
     </row>
     <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B391" s="2" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="C391" s="10" t="s">
         <v>45</v>
@@ -9426,10 +10349,13 @@
       <c r="E391" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="G391" s="2" t="s">
+        <v>759</v>
+      </c>
     </row>
     <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B392" s="2" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="C392" s="10" t="s">
         <v>45</v>
@@ -9440,10 +10366,13 @@
       <c r="E392" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="G392" s="2" t="s">
+        <v>759</v>
+      </c>
     </row>
     <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B393" s="2" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="C393" s="10" t="s">
         <v>45</v>
@@ -9454,1206 +10383,4212 @@
       <c r="E393" s="10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="394" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C394" s="10"/>
-      <c r="E394" s="10"/>
-    </row>
-    <row r="395" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C395" s="10"/>
-      <c r="E395" s="10"/>
-    </row>
-    <row r="396" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C396" s="10"/>
-      <c r="E396" s="10"/>
-    </row>
-    <row r="397" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C397" s="10"/>
-      <c r="E397" s="10"/>
-    </row>
-    <row r="398" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C398" s="10"/>
-      <c r="E398" s="10"/>
-    </row>
-    <row r="399" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C399" s="10"/>
-      <c r="E399" s="10"/>
-    </row>
-    <row r="400" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C400" s="10"/>
-      <c r="E400" s="10"/>
-    </row>
-    <row r="401" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C401" s="10"/>
-      <c r="E401" s="10"/>
-    </row>
-    <row r="402" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C402" s="10"/>
-      <c r="E402" s="10"/>
-    </row>
-    <row r="403" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C403" s="10"/>
-      <c r="E403" s="10"/>
-    </row>
-    <row r="404" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C404" s="10"/>
-      <c r="E404" s="10"/>
-    </row>
-    <row r="405" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C405" s="10"/>
-      <c r="E405" s="10"/>
-    </row>
-    <row r="406" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C406" s="10"/>
-      <c r="E406" s="10"/>
-    </row>
-    <row r="407" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C407" s="10"/>
-      <c r="E407" s="10"/>
-    </row>
-    <row r="408" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C408" s="10"/>
-      <c r="E408" s="10"/>
-    </row>
-    <row r="409" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C409" s="10"/>
-      <c r="E409" s="10"/>
-    </row>
-    <row r="410" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C410" s="10"/>
-      <c r="E410" s="10"/>
-    </row>
-    <row r="411" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C411" s="10"/>
-      <c r="E411" s="10"/>
-    </row>
-    <row r="412" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C412" s="10"/>
-      <c r="E412" s="10"/>
-    </row>
-    <row r="413" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C413" s="10"/>
-      <c r="E413" s="10"/>
-    </row>
-    <row r="414" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C414" s="10"/>
-      <c r="E414" s="10"/>
-    </row>
-    <row r="415" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C415" s="10"/>
-      <c r="E415" s="10"/>
-    </row>
-    <row r="416" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C416" s="10"/>
-      <c r="E416" s="10"/>
-    </row>
-    <row r="417" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C417" s="10"/>
-      <c r="E417" s="10"/>
-    </row>
-    <row r="418" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C418" s="10"/>
-      <c r="E418" s="10"/>
-    </row>
-    <row r="419" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C419" s="10"/>
-      <c r="E419" s="10"/>
-    </row>
-    <row r="420" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C420" s="10"/>
-      <c r="E420" s="10"/>
-    </row>
-    <row r="421" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C421" s="10"/>
-      <c r="E421" s="10"/>
-    </row>
-    <row r="422" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C422" s="10"/>
-      <c r="E422" s="10"/>
-    </row>
-    <row r="423" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C423" s="10"/>
-      <c r="E423" s="10"/>
-    </row>
-    <row r="424" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C424" s="10"/>
-      <c r="E424" s="10"/>
-    </row>
-    <row r="425" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C425" s="10"/>
-      <c r="E425" s="10"/>
-    </row>
-    <row r="426" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C426" s="10"/>
-      <c r="E426" s="10"/>
-    </row>
-    <row r="427" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C427" s="10"/>
-      <c r="E427" s="10"/>
-    </row>
-    <row r="428" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C428" s="10"/>
-      <c r="E428" s="10"/>
-    </row>
-    <row r="429" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C429" s="10"/>
-      <c r="E429" s="10"/>
-    </row>
-    <row r="430" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C430" s="10"/>
-      <c r="E430" s="10"/>
-    </row>
-    <row r="431" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C431" s="10"/>
-      <c r="E431" s="10"/>
-    </row>
-    <row r="432" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C432" s="10"/>
-      <c r="E432" s="10"/>
-    </row>
-    <row r="433" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C433" s="10"/>
-      <c r="E433" s="10"/>
-    </row>
-    <row r="434" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C434" s="10"/>
-      <c r="E434" s="10"/>
-    </row>
-    <row r="435" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C435" s="10"/>
-      <c r="E435" s="10"/>
-    </row>
-    <row r="436" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C436" s="10"/>
-      <c r="E436" s="10"/>
-    </row>
-    <row r="437" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C437" s="10"/>
-      <c r="E437" s="10"/>
-    </row>
-    <row r="438" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C438" s="10"/>
-      <c r="E438" s="10"/>
-    </row>
-    <row r="439" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C439" s="10"/>
-      <c r="E439" s="10"/>
-    </row>
-    <row r="440" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C440" s="10"/>
-      <c r="E440" s="10"/>
-    </row>
-    <row r="441" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C441" s="10"/>
-      <c r="E441" s="10"/>
-    </row>
-    <row r="442" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C442" s="10"/>
-      <c r="E442" s="10"/>
-    </row>
-    <row r="443" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C443" s="10"/>
-      <c r="E443" s="10"/>
-    </row>
-    <row r="444" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C444" s="10"/>
-      <c r="E444" s="10"/>
-    </row>
-    <row r="445" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C445" s="10"/>
-      <c r="E445" s="10"/>
-    </row>
-    <row r="446" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C446" s="10"/>
-      <c r="E446" s="10"/>
-    </row>
-    <row r="447" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C447" s="10"/>
-      <c r="E447" s="10"/>
-    </row>
-    <row r="448" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C448" s="10"/>
-      <c r="E448" s="10"/>
-    </row>
-    <row r="449" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C449" s="10"/>
-      <c r="E449" s="10"/>
-    </row>
-    <row r="450" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C450" s="10"/>
-      <c r="E450" s="10"/>
-    </row>
-    <row r="451" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C451" s="10"/>
-      <c r="E451" s="10"/>
-    </row>
-    <row r="452" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C452" s="10"/>
-      <c r="E452" s="10"/>
-    </row>
-    <row r="453" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C453" s="10"/>
-      <c r="E453" s="10"/>
-    </row>
-    <row r="454" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C454" s="10"/>
-      <c r="E454" s="10"/>
-    </row>
-    <row r="455" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C455" s="10"/>
-      <c r="E455" s="10"/>
-    </row>
-    <row r="456" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C456" s="10"/>
-      <c r="E456" s="10"/>
-    </row>
-    <row r="457" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C457" s="10"/>
-      <c r="E457" s="10"/>
-    </row>
-    <row r="458" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C458" s="10"/>
-      <c r="E458" s="10"/>
-    </row>
-    <row r="459" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C459" s="10"/>
-      <c r="E459" s="10"/>
-    </row>
-    <row r="460" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C460" s="10"/>
-      <c r="E460" s="10"/>
-    </row>
-    <row r="461" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C461" s="10"/>
-      <c r="E461" s="10"/>
-    </row>
-    <row r="462" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C462" s="10"/>
-      <c r="E462" s="10"/>
-    </row>
-    <row r="463" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C463" s="10"/>
-      <c r="E463" s="10"/>
-    </row>
-    <row r="464" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C464" s="10"/>
-      <c r="E464" s="10"/>
-    </row>
-    <row r="465" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C465" s="10"/>
-      <c r="E465" s="10"/>
-    </row>
-    <row r="466" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C466" s="10"/>
-      <c r="E466" s="10"/>
-    </row>
-    <row r="467" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C467" s="10"/>
-      <c r="E467" s="10"/>
-    </row>
-    <row r="468" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C468" s="10"/>
-      <c r="E468" s="10"/>
-    </row>
-    <row r="469" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C469" s="10"/>
-      <c r="E469" s="10"/>
-    </row>
-    <row r="470" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C470" s="10"/>
-      <c r="E470" s="10"/>
-    </row>
-    <row r="471" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C471" s="10"/>
-      <c r="E471" s="10"/>
-    </row>
-    <row r="472" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C472" s="10"/>
-      <c r="E472" s="10"/>
-    </row>
-    <row r="473" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C473" s="10"/>
-      <c r="E473" s="10"/>
-    </row>
-    <row r="474" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C474" s="10"/>
-      <c r="E474" s="10"/>
-    </row>
-    <row r="475" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C475" s="10"/>
-      <c r="E475" s="10"/>
-    </row>
-    <row r="476" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C476" s="10"/>
-      <c r="E476" s="10"/>
-    </row>
-    <row r="477" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C477" s="10"/>
-      <c r="E477" s="10"/>
-    </row>
-    <row r="478" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C478" s="10"/>
-      <c r="E478" s="10"/>
-    </row>
-    <row r="479" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C479" s="10"/>
-      <c r="E479" s="10"/>
-    </row>
-    <row r="480" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C480" s="10"/>
-      <c r="E480" s="10"/>
-    </row>
-    <row r="481" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C481" s="10"/>
-      <c r="E481" s="10"/>
-    </row>
-    <row r="482" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C482" s="10"/>
-      <c r="E482" s="10"/>
-    </row>
-    <row r="483" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C483" s="10"/>
-      <c r="E483" s="10"/>
-    </row>
-    <row r="484" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C484" s="10"/>
-      <c r="E484" s="10"/>
-    </row>
-    <row r="485" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C485" s="10"/>
-      <c r="E485" s="10"/>
-    </row>
-    <row r="486" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C486" s="10"/>
-      <c r="E486" s="10"/>
-    </row>
-    <row r="487" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C487" s="10"/>
-      <c r="E487" s="10"/>
-    </row>
-    <row r="488" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C488" s="10"/>
-      <c r="E488" s="10"/>
-    </row>
-    <row r="489" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C489" s="10"/>
-      <c r="E489" s="10"/>
-    </row>
-    <row r="490" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C490" s="10"/>
-      <c r="E490" s="10"/>
-    </row>
-    <row r="491" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C491" s="10"/>
-      <c r="E491" s="10"/>
-    </row>
-    <row r="492" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C492" s="10"/>
-      <c r="E492" s="10"/>
-    </row>
-    <row r="493" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C493" s="10"/>
-      <c r="E493" s="10"/>
-    </row>
-    <row r="494" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C494" s="10"/>
-      <c r="E494" s="10"/>
-    </row>
-    <row r="495" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C495" s="10"/>
-      <c r="E495" s="10"/>
-    </row>
-    <row r="496" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C496" s="10"/>
-      <c r="E496" s="10"/>
-    </row>
-    <row r="497" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C497" s="10"/>
-      <c r="E497" s="10"/>
-    </row>
-    <row r="498" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C498" s="10"/>
-      <c r="E498" s="10"/>
-    </row>
-    <row r="499" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C499" s="10"/>
-      <c r="E499" s="10"/>
-    </row>
-    <row r="500" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C500" s="10"/>
-      <c r="E500" s="10"/>
-    </row>
-    <row r="501" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C501" s="10"/>
-      <c r="E501" s="10"/>
-    </row>
-    <row r="502" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C502" s="10"/>
-      <c r="E502" s="10"/>
-    </row>
-    <row r="503" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C503" s="10"/>
-      <c r="E503" s="10"/>
-    </row>
-    <row r="504" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C504" s="10"/>
-      <c r="E504" s="10"/>
-    </row>
-    <row r="505" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C505" s="10"/>
-      <c r="E505" s="10"/>
-    </row>
-    <row r="506" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C506" s="10"/>
-      <c r="E506" s="10"/>
-    </row>
-    <row r="507" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C507" s="10"/>
-      <c r="E507" s="10"/>
-    </row>
-    <row r="508" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C508" s="10"/>
-      <c r="E508" s="10"/>
-    </row>
-    <row r="509" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C509" s="10"/>
-      <c r="E509" s="10"/>
-    </row>
-    <row r="510" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C510" s="10"/>
-      <c r="E510" s="10"/>
-    </row>
-    <row r="511" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C511" s="10"/>
-      <c r="E511" s="10"/>
-    </row>
-    <row r="512" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C512" s="10"/>
-      <c r="E512" s="10"/>
-    </row>
-    <row r="513" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C513" s="10"/>
-      <c r="E513" s="10"/>
-    </row>
-    <row r="514" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C514" s="10"/>
-      <c r="E514" s="10"/>
-    </row>
-    <row r="515" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C515" s="10"/>
-      <c r="E515" s="10"/>
-    </row>
-    <row r="516" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C516" s="10"/>
-      <c r="E516" s="10"/>
-    </row>
-    <row r="517" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C517" s="10"/>
-      <c r="E517" s="10"/>
-    </row>
-    <row r="518" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C518" s="10"/>
-      <c r="E518" s="10"/>
-    </row>
-    <row r="519" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C519" s="10"/>
-      <c r="E519" s="10"/>
-    </row>
-    <row r="520" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C520" s="10"/>
-      <c r="E520" s="10"/>
-    </row>
-    <row r="521" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C521" s="10"/>
-      <c r="E521" s="10"/>
-    </row>
-    <row r="522" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C522" s="10"/>
-      <c r="E522" s="10"/>
-    </row>
-    <row r="523" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C523" s="10"/>
-      <c r="E523" s="10"/>
-    </row>
-    <row r="524" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C524" s="10"/>
-      <c r="E524" s="10"/>
-    </row>
-    <row r="525" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C525" s="10"/>
-      <c r="E525" s="10"/>
-    </row>
-    <row r="526" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C526" s="10"/>
-      <c r="E526" s="10"/>
-    </row>
-    <row r="527" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C527" s="10"/>
-      <c r="E527" s="10"/>
-    </row>
-    <row r="528" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C528" s="10"/>
-      <c r="E528" s="10"/>
-    </row>
-    <row r="529" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C529" s="10"/>
-      <c r="E529" s="10"/>
-    </row>
-    <row r="530" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C530" s="10"/>
-      <c r="E530" s="10"/>
-    </row>
-    <row r="531" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C531" s="10"/>
-      <c r="E531" s="10"/>
-    </row>
-    <row r="532" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C532" s="10"/>
-      <c r="E532" s="10"/>
-    </row>
-    <row r="533" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C533" s="10"/>
-      <c r="E533" s="10"/>
-    </row>
-    <row r="534" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C534" s="10"/>
-      <c r="E534" s="10"/>
-    </row>
-    <row r="535" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C535" s="10"/>
-      <c r="E535" s="10"/>
-    </row>
-    <row r="536" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C536" s="10"/>
-      <c r="E536" s="10"/>
-    </row>
-    <row r="537" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C537" s="10"/>
-      <c r="E537" s="10"/>
-    </row>
-    <row r="538" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C538" s="10"/>
-      <c r="E538" s="10"/>
-    </row>
-    <row r="539" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C539" s="10"/>
-      <c r="E539" s="10"/>
-    </row>
-    <row r="540" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C540" s="10"/>
-      <c r="E540" s="10"/>
-    </row>
-    <row r="541" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C541" s="10"/>
-      <c r="E541" s="10"/>
-    </row>
-    <row r="542" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C542" s="10"/>
-      <c r="E542" s="10"/>
-    </row>
-    <row r="543" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C543" s="10"/>
-      <c r="E543" s="10"/>
-    </row>
-    <row r="544" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C544" s="10"/>
-      <c r="E544" s="10"/>
-    </row>
-    <row r="545" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C545" s="10"/>
-      <c r="E545" s="10"/>
-    </row>
-    <row r="546" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C546" s="10"/>
-      <c r="E546" s="10"/>
-    </row>
-    <row r="547" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C547" s="10"/>
-      <c r="E547" s="10"/>
-    </row>
-    <row r="548" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C548" s="10"/>
-      <c r="E548" s="10"/>
-    </row>
-    <row r="549" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C549" s="10"/>
-      <c r="E549" s="10"/>
-    </row>
-    <row r="550" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C550" s="10"/>
-      <c r="E550" s="10"/>
-    </row>
-    <row r="551" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C551" s="10"/>
-      <c r="E551" s="10"/>
-    </row>
-    <row r="552" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C552" s="10"/>
-      <c r="E552" s="10"/>
-    </row>
-    <row r="553" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C553" s="10"/>
-      <c r="E553" s="10"/>
-    </row>
-    <row r="554" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C554" s="10"/>
-      <c r="E554" s="10"/>
-    </row>
-    <row r="555" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C555" s="10"/>
-      <c r="E555" s="10"/>
-    </row>
-    <row r="556" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C556" s="10"/>
-      <c r="E556" s="10"/>
-    </row>
-    <row r="557" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C557" s="10"/>
-      <c r="E557" s="10"/>
-    </row>
-    <row r="558" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C558" s="10"/>
-      <c r="E558" s="10"/>
-    </row>
-    <row r="559" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C559" s="10"/>
-      <c r="E559" s="10"/>
-    </row>
-    <row r="560" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C560" s="10"/>
-      <c r="E560" s="10"/>
-    </row>
-    <row r="561" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C561" s="10"/>
-      <c r="E561" s="10"/>
-    </row>
-    <row r="562" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C562" s="10"/>
-      <c r="E562" s="10"/>
-    </row>
-    <row r="563" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C563" s="10"/>
-      <c r="E563" s="10"/>
-    </row>
-    <row r="564" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C564" s="10"/>
-      <c r="E564" s="10"/>
-    </row>
-    <row r="565" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C565" s="10"/>
-      <c r="E565" s="10"/>
-    </row>
-    <row r="566" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C566" s="10"/>
-      <c r="E566" s="10"/>
-    </row>
-    <row r="567" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C567" s="10"/>
-      <c r="E567" s="10"/>
-    </row>
-    <row r="568" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C568" s="10"/>
-      <c r="E568" s="10"/>
-    </row>
-    <row r="569" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C569" s="10"/>
-      <c r="E569" s="10"/>
-    </row>
-    <row r="570" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C570" s="10"/>
-      <c r="E570" s="10"/>
-    </row>
-    <row r="571" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C571" s="10"/>
-      <c r="E571" s="10"/>
-    </row>
-    <row r="572" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C572" s="10"/>
-      <c r="E572" s="10"/>
-    </row>
-    <row r="573" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C573" s="10"/>
-      <c r="E573" s="10"/>
-    </row>
-    <row r="574" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C574" s="10"/>
-      <c r="E574" s="10"/>
-    </row>
-    <row r="575" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C575" s="10"/>
-      <c r="E575" s="10"/>
-    </row>
-    <row r="576" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C576" s="10"/>
-      <c r="E576" s="10"/>
-    </row>
-    <row r="577" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C577" s="10"/>
-      <c r="E577" s="10"/>
-    </row>
-    <row r="578" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C578" s="10"/>
-      <c r="E578" s="10"/>
-    </row>
-    <row r="579" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C579" s="10"/>
-      <c r="E579" s="10"/>
-    </row>
-    <row r="580" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C580" s="10"/>
-      <c r="E580" s="10"/>
-    </row>
-    <row r="581" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C581" s="10"/>
-      <c r="E581" s="10"/>
-    </row>
-    <row r="582" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C582" s="10"/>
-      <c r="E582" s="10"/>
-    </row>
-    <row r="583" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C583" s="10"/>
-      <c r="E583" s="10"/>
-    </row>
-    <row r="584" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C584" s="10"/>
-      <c r="E584" s="10"/>
-    </row>
-    <row r="585" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C585" s="10"/>
-      <c r="E585" s="10"/>
-    </row>
-    <row r="586" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C586" s="10"/>
-      <c r="E586" s="10"/>
-    </row>
-    <row r="587" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C587" s="10"/>
-      <c r="E587" s="10"/>
-    </row>
-    <row r="588" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C588" s="10"/>
-      <c r="E588" s="10"/>
-    </row>
-    <row r="589" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C589" s="10"/>
-      <c r="E589" s="10"/>
-    </row>
-    <row r="590" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C590" s="10"/>
-      <c r="E590" s="10"/>
-    </row>
-    <row r="591" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C591" s="10"/>
-      <c r="E591" s="10"/>
-    </row>
-    <row r="592" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C592" s="10"/>
-      <c r="E592" s="10"/>
-    </row>
-    <row r="593" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C593" s="10"/>
-      <c r="E593" s="10"/>
-    </row>
-    <row r="594" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C594" s="10"/>
-      <c r="E594" s="10"/>
-    </row>
-    <row r="595" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C595" s="10"/>
-      <c r="E595" s="10"/>
-    </row>
-    <row r="596" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C596" s="10"/>
-      <c r="E596" s="10"/>
-    </row>
-    <row r="597" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C597" s="10"/>
-      <c r="E597" s="10"/>
-    </row>
-    <row r="598" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C598" s="10"/>
-      <c r="E598" s="10"/>
-    </row>
-    <row r="599" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C599" s="10"/>
-      <c r="E599" s="10"/>
-    </row>
-    <row r="600" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C600" s="10"/>
-      <c r="E600" s="10"/>
-    </row>
-    <row r="601" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C601" s="10"/>
-      <c r="E601" s="10"/>
-    </row>
-    <row r="602" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C602" s="10"/>
-      <c r="E602" s="10"/>
-    </row>
-    <row r="603" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C603" s="10"/>
-      <c r="E603" s="10"/>
-    </row>
-    <row r="604" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C604" s="10"/>
-      <c r="E604" s="10"/>
-    </row>
-    <row r="605" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C605" s="10"/>
-      <c r="E605" s="10"/>
-    </row>
-    <row r="606" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C606" s="10"/>
-      <c r="E606" s="10"/>
-    </row>
-    <row r="607" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C607" s="10"/>
-      <c r="E607" s="10"/>
-    </row>
-    <row r="608" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C608" s="10"/>
-      <c r="E608" s="10"/>
-    </row>
-    <row r="609" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C609" s="10"/>
-      <c r="E609" s="10"/>
-    </row>
-    <row r="610" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C610" s="10"/>
-      <c r="E610" s="10"/>
-    </row>
-    <row r="611" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C611" s="10"/>
-      <c r="E611" s="10"/>
-    </row>
-    <row r="612" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C612" s="10"/>
-      <c r="E612" s="10"/>
-    </row>
-    <row r="613" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C613" s="10"/>
-      <c r="E613" s="10"/>
-    </row>
-    <row r="614" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C614" s="10"/>
-      <c r="E614" s="10"/>
-    </row>
-    <row r="615" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C615" s="10"/>
-      <c r="E615" s="10"/>
-    </row>
-    <row r="616" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C616" s="10"/>
-      <c r="E616" s="10"/>
-    </row>
-    <row r="617" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C617" s="10"/>
-      <c r="E617" s="10"/>
-    </row>
-    <row r="618" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C618" s="10"/>
-      <c r="E618" s="10"/>
-    </row>
-    <row r="619" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C619" s="10"/>
-      <c r="E619" s="10"/>
-    </row>
-    <row r="620" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C620" s="10"/>
-      <c r="E620" s="10"/>
-    </row>
-    <row r="621" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C621" s="10"/>
-      <c r="E621" s="10"/>
-    </row>
-    <row r="622" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C622" s="10"/>
-      <c r="E622" s="10"/>
-    </row>
-    <row r="623" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C623" s="10"/>
-      <c r="E623" s="10"/>
-    </row>
-    <row r="624" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C624" s="10"/>
-      <c r="E624" s="10"/>
-    </row>
-    <row r="625" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C625" s="10"/>
-      <c r="E625" s="10"/>
-    </row>
-    <row r="626" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C626" s="10"/>
-      <c r="E626" s="10"/>
-    </row>
-    <row r="627" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C627" s="10"/>
-      <c r="E627" s="10"/>
-    </row>
-    <row r="628" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C628" s="10"/>
-      <c r="E628" s="10"/>
-    </row>
-    <row r="629" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C629" s="10"/>
-      <c r="E629" s="10"/>
-    </row>
-    <row r="630" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C630" s="10"/>
-      <c r="E630" s="10"/>
-    </row>
-    <row r="631" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C631" s="10"/>
-      <c r="E631" s="10"/>
-    </row>
-    <row r="632" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C632" s="10"/>
-      <c r="E632" s="10"/>
-    </row>
-    <row r="633" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C633" s="10"/>
-      <c r="E633" s="10"/>
-    </row>
-    <row r="634" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C634" s="10"/>
-      <c r="E634" s="10"/>
-    </row>
-    <row r="635" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C635" s="10"/>
-      <c r="E635" s="10"/>
-    </row>
-    <row r="636" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C636" s="10"/>
-      <c r="E636" s="10"/>
-    </row>
-    <row r="637" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C637" s="10"/>
-      <c r="E637" s="10"/>
-    </row>
-    <row r="638" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C638" s="10"/>
-      <c r="E638" s="10"/>
-    </row>
-    <row r="639" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C639" s="10"/>
-      <c r="E639" s="10"/>
-    </row>
-    <row r="640" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C640" s="10"/>
-      <c r="E640" s="10"/>
-    </row>
-    <row r="641" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C641" s="10"/>
-      <c r="E641" s="10"/>
-    </row>
-    <row r="642" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C642" s="10"/>
-      <c r="E642" s="10"/>
-    </row>
-    <row r="643" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C643" s="10"/>
-      <c r="E643" s="10"/>
-    </row>
-    <row r="644" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C644" s="10"/>
-      <c r="E644" s="10"/>
-    </row>
-    <row r="645" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C645" s="10"/>
-      <c r="E645" s="10"/>
-    </row>
-    <row r="646" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C646" s="10"/>
-      <c r="E646" s="10"/>
-    </row>
-    <row r="647" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C647" s="10"/>
-      <c r="E647" s="10"/>
-    </row>
-    <row r="648" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C648" s="10"/>
-      <c r="E648" s="10"/>
-    </row>
-    <row r="649" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C649" s="10"/>
-      <c r="E649" s="10"/>
-    </row>
-    <row r="650" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C650" s="10"/>
-      <c r="E650" s="10"/>
-    </row>
-    <row r="651" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C651" s="10"/>
-      <c r="E651" s="10"/>
-    </row>
-    <row r="652" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C652" s="10"/>
-      <c r="E652" s="10"/>
-    </row>
-    <row r="653" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C653" s="10"/>
-      <c r="E653" s="10"/>
-    </row>
-    <row r="654" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C654" s="10"/>
-      <c r="E654" s="10"/>
-    </row>
-    <row r="655" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C655" s="10"/>
-      <c r="E655" s="10"/>
-    </row>
-    <row r="656" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C656" s="10"/>
-      <c r="E656" s="10"/>
-    </row>
-    <row r="657" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C657" s="10"/>
-      <c r="E657" s="10"/>
-    </row>
-    <row r="658" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C658" s="10"/>
-      <c r="E658" s="10"/>
-    </row>
-    <row r="659" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C659" s="10"/>
-      <c r="E659" s="10"/>
-    </row>
-    <row r="660" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C660" s="10"/>
-      <c r="E660" s="10"/>
-    </row>
-    <row r="661" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C661" s="10"/>
-      <c r="E661" s="10"/>
-    </row>
-    <row r="662" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C662" s="10"/>
-      <c r="E662" s="10"/>
-    </row>
-    <row r="663" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C663" s="10"/>
-      <c r="E663" s="10"/>
-    </row>
-    <row r="664" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C664" s="10"/>
-      <c r="E664" s="10"/>
-    </row>
-    <row r="665" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C665" s="10"/>
-      <c r="E665" s="10"/>
-    </row>
-    <row r="666" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C666" s="10"/>
-      <c r="E666" s="10"/>
-    </row>
-    <row r="667" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C667" s="10"/>
-      <c r="E667" s="10"/>
-    </row>
-    <row r="668" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C668" s="10"/>
-      <c r="E668" s="10"/>
-    </row>
-    <row r="669" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C669" s="10"/>
-      <c r="E669" s="10"/>
-    </row>
-    <row r="670" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C670" s="10"/>
-      <c r="E670" s="10"/>
-    </row>
-    <row r="671" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C671" s="10"/>
-      <c r="E671" s="10"/>
-    </row>
-    <row r="672" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C672" s="10"/>
-      <c r="E672" s="10"/>
-    </row>
-    <row r="673" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C673" s="10"/>
-      <c r="E673" s="10"/>
-    </row>
-    <row r="674" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C674" s="10"/>
-      <c r="E674" s="10"/>
-    </row>
-    <row r="675" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C675" s="10"/>
-      <c r="E675" s="10"/>
-    </row>
-    <row r="676" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C676" s="10"/>
-      <c r="E676" s="10"/>
-    </row>
-    <row r="677" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C677" s="10"/>
-      <c r="E677" s="10"/>
-    </row>
-    <row r="678" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C678" s="10"/>
-      <c r="E678" s="10"/>
-    </row>
-    <row r="679" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C679" s="10"/>
-      <c r="E679" s="10"/>
-    </row>
-    <row r="680" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C680" s="10"/>
-      <c r="E680" s="10"/>
-    </row>
-    <row r="681" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C681" s="10"/>
-      <c r="E681" s="10"/>
-    </row>
-    <row r="682" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C682" s="10"/>
-      <c r="E682" s="10"/>
-    </row>
-    <row r="683" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C683" s="10"/>
-      <c r="E683" s="10"/>
-    </row>
-    <row r="684" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C684" s="10"/>
-      <c r="E684" s="10"/>
-    </row>
-    <row r="685" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C685" s="10"/>
-      <c r="E685" s="10"/>
-    </row>
-    <row r="686" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C686" s="10"/>
-      <c r="E686" s="10"/>
-    </row>
-    <row r="687" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C687" s="10"/>
-      <c r="E687" s="10"/>
-    </row>
-    <row r="688" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C688" s="10"/>
-      <c r="E688" s="10"/>
-    </row>
-    <row r="689" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C689" s="10"/>
-      <c r="E689" s="10"/>
-    </row>
-    <row r="690" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C690" s="10"/>
-      <c r="E690" s="10"/>
-    </row>
-    <row r="691" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C691" s="10"/>
-      <c r="E691" s="10"/>
-    </row>
-    <row r="692" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C692" s="10"/>
-      <c r="E692" s="10"/>
-    </row>
-    <row r="693" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C693" s="10"/>
-      <c r="E693" s="10"/>
+      <c r="G393" s="2" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A394" s="20" t="n">
+        <v>45093</v>
+      </c>
+      <c r="B394" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="C394" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D394" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E394" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="395" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B395" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="C395" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D395" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E395" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B396" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="C396" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D396" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E396" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B397" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="C397" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D397" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E397" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B398" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="C398" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D398" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E398" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B399" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="C399" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D399" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E399" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B400" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="C400" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D400" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E400" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B401" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="C401" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D401" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E401" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B402" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="C402" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D402" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E402" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="403" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B403" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="C403" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D403" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E403" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="404" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B404" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="C404" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D404" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E404" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="405" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B405" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="C405" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D405" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E405" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="406" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B406" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="C406" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D406" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E406" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="407" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B407" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="C407" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D407" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E407" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B408" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="C408" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D408" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E408" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="409" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B409" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="C409" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D409" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E409" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B410" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="C410" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D410" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E410" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="411" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B411" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="C411" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D411" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E411" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="412" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B412" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="C412" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D412" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E412" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="413" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B413" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="C413" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D413" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E413" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B414" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="C414" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D414" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E414" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="415" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B415" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="C415" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D415" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E415" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="416" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B416" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="C416" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D416" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E416" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B417" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="C417" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D417" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E417" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="418" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B418" s="2" t="s">
+        <v>794</v>
+      </c>
+      <c r="C418" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D418" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E418" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B419" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="C419" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D419" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E419" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="420" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B420" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="C420" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D420" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E420" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B421" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="C421" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D421" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E421" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B422" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="C422" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D422" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E422" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B423" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="C423" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D423" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E423" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="424" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B424" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="C424" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D424" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E424" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B425" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="C425" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D425" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E425" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="426" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B426" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="C426" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D426" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E426" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="427" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B427" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="C427" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D427" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E427" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B428" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="C428" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D428" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E428" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B429" s="2" t="s">
+        <v>805</v>
+      </c>
+      <c r="C429" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D429" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E429" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="430" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B430" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="C430" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D430" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E430" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B431" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="C431" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D431" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E431" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B432" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="C432" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D432" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E432" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B433" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="C433" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D433" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E433" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B434" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="C434" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D434" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E434" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B435" s="2" t="s">
+        <v>811</v>
+      </c>
+      <c r="C435" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D435" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E435" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="436" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B436" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="C436" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D436" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E436" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B437" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="C437" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D437" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E437" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B438" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="C438" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D438" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E438" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B439" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="C439" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D439" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E439" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B440" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="C440" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D440" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E440" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B441" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="C441" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D441" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E441" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="442" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B442" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="C442" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D442" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E442" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B443" s="2" t="s">
+        <v>819</v>
+      </c>
+      <c r="C443" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D443" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E443" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B444" s="2" t="s">
+        <v>820</v>
+      </c>
+      <c r="C444" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D444" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E444" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B445" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="C445" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D445" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E445" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="446" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B446" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="C446" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D446" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E446" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B447" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="C447" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D447" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E447" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="448" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B448" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="C448" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D448" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E448" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="449" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B449" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="C449" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D449" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E449" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="450" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B450" s="2" t="s">
+        <v>826</v>
+      </c>
+      <c r="C450" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D450" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E450" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="451" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B451" s="2" t="s">
+        <v>827</v>
+      </c>
+      <c r="C451" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D451" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E451" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="452" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B452" s="2" t="s">
+        <v>828</v>
+      </c>
+      <c r="C452" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D452" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E452" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="453" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B453" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="C453" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D453" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E453" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="454" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B454" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="C454" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D454" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E454" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="455" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B455" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="C455" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D455" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E455" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="456" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B456" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="C456" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D456" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E456" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="457" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B457" s="2" t="s">
+        <v>833</v>
+      </c>
+      <c r="C457" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D457" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E457" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="458" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B458" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="C458" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D458" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E458" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="459" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B459" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="C459" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D459" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E459" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="460" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B460" s="2" t="s">
+        <v>836</v>
+      </c>
+      <c r="C460" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D460" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E460" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="461" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B461" s="2" t="s">
+        <v>837</v>
+      </c>
+      <c r="C461" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D461" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E461" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="462" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B462" s="2" t="s">
+        <v>838</v>
+      </c>
+      <c r="C462" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D462" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E462" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="463" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B463" s="2" t="s">
+        <v>839</v>
+      </c>
+      <c r="C463" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D463" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E463" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="464" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B464" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="C464" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D464" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E464" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="465" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B465" s="2" t="s">
+        <v>841</v>
+      </c>
+      <c r="C465" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D465" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E465" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="466" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B466" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="C466" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D466" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E466" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="467" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B467" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="C467" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D467" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E467" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="468" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B468" s="2" t="s">
+        <v>844</v>
+      </c>
+      <c r="C468" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D468" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E468" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="469" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B469" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="C469" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D469" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E469" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="470" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B470" s="2" t="s">
+        <v>846</v>
+      </c>
+      <c r="C470" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D470" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E470" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="471" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B471" s="2" t="s">
+        <v>847</v>
+      </c>
+      <c r="C471" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D471" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E471" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="472" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B472" s="2" t="s">
+        <v>848</v>
+      </c>
+      <c r="C472" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D472" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E472" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="473" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B473" s="2" t="s">
+        <v>849</v>
+      </c>
+      <c r="C473" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D473" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E473" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="474" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B474" s="2" t="s">
+        <v>850</v>
+      </c>
+      <c r="C474" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D474" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E474" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="475" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B475" s="2" t="s">
+        <v>851</v>
+      </c>
+      <c r="C475" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D475" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E475" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="476" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B476" s="2" t="s">
+        <v>852</v>
+      </c>
+      <c r="C476" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D476" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E476" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="477" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B477" s="2" t="s">
+        <v>853</v>
+      </c>
+      <c r="C477" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D477" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E477" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="478" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B478" s="2" t="s">
+        <v>854</v>
+      </c>
+      <c r="C478" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D478" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E478" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="479" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B479" s="2" t="s">
+        <v>855</v>
+      </c>
+      <c r="C479" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D479" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E479" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="480" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B480" s="2" t="s">
+        <v>856</v>
+      </c>
+      <c r="C480" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D480" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E480" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="481" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B481" s="2" t="s">
+        <v>857</v>
+      </c>
+      <c r="C481" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D481" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E481" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="482" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B482" s="2" t="s">
+        <v>858</v>
+      </c>
+      <c r="C482" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D482" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E482" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="483" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B483" s="2" t="s">
+        <v>859</v>
+      </c>
+      <c r="C483" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D483" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E483" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="484" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B484" s="2" t="s">
+        <v>860</v>
+      </c>
+      <c r="C484" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D484" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E484" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="485" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B485" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="C485" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D485" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E485" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="486" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B486" s="2" t="s">
+        <v>862</v>
+      </c>
+      <c r="C486" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D486" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E486" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="487" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B487" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="C487" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D487" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E487" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="488" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B488" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="C488" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D488" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E488" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="489" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B489" s="2" t="s">
+        <v>865</v>
+      </c>
+      <c r="C489" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D489" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E489" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="490" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B490" s="2" t="s">
+        <v>866</v>
+      </c>
+      <c r="C490" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D490" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E490" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="491" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B491" s="2" t="s">
+        <v>867</v>
+      </c>
+      <c r="C491" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D491" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E491" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="492" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B492" s="2" t="s">
+        <v>868</v>
+      </c>
+      <c r="C492" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D492" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E492" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="493" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B493" s="2" t="s">
+        <v>869</v>
+      </c>
+      <c r="C493" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D493" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E493" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="494" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B494" s="2" t="s">
+        <v>870</v>
+      </c>
+      <c r="C494" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D494" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E494" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="495" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B495" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C495" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D495" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E495" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="496" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B496" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="C496" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D496" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E496" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="497" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B497" s="2" t="s">
+        <v>873</v>
+      </c>
+      <c r="C497" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D497" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E497" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="498" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B498" s="2" t="s">
+        <v>874</v>
+      </c>
+      <c r="C498" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D498" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E498" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="499" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B499" s="2" t="s">
+        <v>875</v>
+      </c>
+      <c r="C499" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D499" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E499" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="500" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B500" s="2" t="s">
+        <v>876</v>
+      </c>
+      <c r="C500" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D500" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E500" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="501" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B501" s="2" t="s">
+        <v>877</v>
+      </c>
+      <c r="C501" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D501" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E501" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="502" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B502" s="2" t="s">
+        <v>878</v>
+      </c>
+      <c r="C502" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D502" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E502" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="503" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B503" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="C503" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D503" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E503" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="504" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B504" s="2" t="s">
+        <v>880</v>
+      </c>
+      <c r="C504" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D504" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E504" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="505" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B505" s="2" t="s">
+        <v>881</v>
+      </c>
+      <c r="C505" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D505" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E505" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="506" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B506" s="2" t="s">
+        <v>882</v>
+      </c>
+      <c r="C506" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D506" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E506" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="507" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B507" s="2" t="s">
+        <v>883</v>
+      </c>
+      <c r="C507" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D507" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E507" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="508" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B508" s="2" t="s">
+        <v>884</v>
+      </c>
+      <c r="C508" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D508" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E508" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="509" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B509" s="2" t="s">
+        <v>885</v>
+      </c>
+      <c r="C509" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D509" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E509" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="510" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B510" s="2" t="s">
+        <v>886</v>
+      </c>
+      <c r="C510" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D510" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E510" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="511" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B511" s="2" t="s">
+        <v>887</v>
+      </c>
+      <c r="C511" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D511" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E511" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="512" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B512" s="2" t="s">
+        <v>888</v>
+      </c>
+      <c r="C512" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D512" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E512" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="513" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B513" s="2" t="s">
+        <v>889</v>
+      </c>
+      <c r="C513" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D513" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E513" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="514" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B514" s="2" t="s">
+        <v>890</v>
+      </c>
+      <c r="C514" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D514" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E514" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="515" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B515" s="2" t="s">
+        <v>891</v>
+      </c>
+      <c r="C515" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D515" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E515" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="516" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B516" s="2" t="s">
+        <v>892</v>
+      </c>
+      <c r="C516" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D516" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E516" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="517" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B517" s="2" t="s">
+        <v>893</v>
+      </c>
+      <c r="C517" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D517" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E517" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="518" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B518" s="2" t="s">
+        <v>894</v>
+      </c>
+      <c r="C518" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D518" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E518" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="519" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B519" s="2" t="s">
+        <v>895</v>
+      </c>
+      <c r="C519" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D519" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E519" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="520" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B520" s="2" t="s">
+        <v>896</v>
+      </c>
+      <c r="C520" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D520" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E520" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="521" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B521" s="2" t="s">
+        <v>897</v>
+      </c>
+      <c r="C521" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D521" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E521" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="522" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B522" s="2" t="s">
+        <v>898</v>
+      </c>
+      <c r="C522" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D522" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E522" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="523" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B523" s="2" t="s">
+        <v>899</v>
+      </c>
+      <c r="C523" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D523" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E523" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="524" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B524" s="2" t="s">
+        <v>900</v>
+      </c>
+      <c r="C524" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D524" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E524" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="525" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B525" s="2" t="s">
+        <v>901</v>
+      </c>
+      <c r="C525" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D525" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E525" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="526" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B526" s="2" t="s">
+        <v>902</v>
+      </c>
+      <c r="C526" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D526" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E526" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="527" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B527" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="C527" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D527" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E527" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="528" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B528" s="2" t="s">
+        <v>904</v>
+      </c>
+      <c r="C528" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D528" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E528" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="529" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B529" s="2" t="s">
+        <v>905</v>
+      </c>
+      <c r="C529" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D529" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E529" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="530" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B530" s="2" t="s">
+        <v>906</v>
+      </c>
+      <c r="C530" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D530" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E530" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="531" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B531" s="2" t="s">
+        <v>907</v>
+      </c>
+      <c r="C531" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D531" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E531" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="532" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B532" s="2" t="s">
+        <v>908</v>
+      </c>
+      <c r="C532" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D532" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E532" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="533" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B533" s="2" t="s">
+        <v>909</v>
+      </c>
+      <c r="C533" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D533" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E533" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="534" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B534" s="2" t="s">
+        <v>910</v>
+      </c>
+      <c r="C534" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D534" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E534" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="535" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B535" s="2" t="s">
+        <v>911</v>
+      </c>
+      <c r="C535" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D535" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E535" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="536" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B536" s="2" t="s">
+        <v>912</v>
+      </c>
+      <c r="C536" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D536" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E536" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="537" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B537" s="2" t="s">
+        <v>913</v>
+      </c>
+      <c r="C537" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D537" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E537" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="538" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B538" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="C538" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D538" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E538" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="539" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B539" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="C539" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D539" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E539" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="540" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B540" s="2" t="s">
+        <v>916</v>
+      </c>
+      <c r="C540" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D540" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E540" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="541" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B541" s="2" t="s">
+        <v>917</v>
+      </c>
+      <c r="C541" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D541" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E541" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="542" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B542" s="2" t="s">
+        <v>918</v>
+      </c>
+      <c r="C542" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D542" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E542" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="543" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B543" s="2" t="s">
+        <v>919</v>
+      </c>
+      <c r="C543" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D543" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E543" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="544" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B544" s="2" t="s">
+        <v>920</v>
+      </c>
+      <c r="C544" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D544" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E544" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="545" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B545" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="C545" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D545" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E545" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="546" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B546" s="2" t="s">
+        <v>922</v>
+      </c>
+      <c r="C546" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D546" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E546" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="547" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B547" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C547" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D547" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E547" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="548" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B548" s="2" t="s">
+        <v>924</v>
+      </c>
+      <c r="C548" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D548" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E548" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="549" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B549" s="2" t="s">
+        <v>925</v>
+      </c>
+      <c r="C549" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D549" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E549" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="550" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B550" s="2" t="s">
+        <v>926</v>
+      </c>
+      <c r="C550" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D550" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E550" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="551" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B551" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="C551" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D551" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E551" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="552" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B552" s="2" t="s">
+        <v>928</v>
+      </c>
+      <c r="C552" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D552" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E552" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="553" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B553" s="2" t="s">
+        <v>929</v>
+      </c>
+      <c r="C553" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D553" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E553" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="554" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B554" s="2" t="s">
+        <v>930</v>
+      </c>
+      <c r="C554" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D554" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E554" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="555" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B555" s="2" t="s">
+        <v>931</v>
+      </c>
+      <c r="C555" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D555" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E555" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="556" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B556" s="2" t="s">
+        <v>932</v>
+      </c>
+      <c r="C556" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D556" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E556" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="557" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B557" s="2" t="s">
+        <v>933</v>
+      </c>
+      <c r="C557" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D557" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E557" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="558" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B558" s="2" t="s">
+        <v>934</v>
+      </c>
+      <c r="C558" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D558" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E558" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="559" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B559" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="C559" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D559" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E559" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="560" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B560" s="2" t="s">
+        <v>936</v>
+      </c>
+      <c r="C560" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D560" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E560" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="561" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B561" s="2" t="s">
+        <v>937</v>
+      </c>
+      <c r="C561" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D561" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E561" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="562" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B562" s="2" t="s">
+        <v>938</v>
+      </c>
+      <c r="C562" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D562" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E562" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="563" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B563" s="2" t="s">
+        <v>939</v>
+      </c>
+      <c r="C563" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D563" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E563" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="564" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B564" s="2" t="s">
+        <v>940</v>
+      </c>
+      <c r="C564" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D564" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E564" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="565" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B565" s="2" t="s">
+        <v>941</v>
+      </c>
+      <c r="C565" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D565" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E565" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="566" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B566" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="C566" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D566" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E566" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="567" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B567" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="C567" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D567" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E567" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="568" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B568" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="C568" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D568" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E568" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="569" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B569" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="C569" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D569" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E569" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="570" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B570" s="2" t="s">
+        <v>946</v>
+      </c>
+      <c r="C570" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D570" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E570" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="571" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B571" s="2" t="s">
+        <v>947</v>
+      </c>
+      <c r="C571" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D571" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E571" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="572" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B572" s="2" t="s">
+        <v>948</v>
+      </c>
+      <c r="C572" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D572" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E572" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="573" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B573" s="2" t="s">
+        <v>949</v>
+      </c>
+      <c r="C573" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D573" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E573" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="574" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B574" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="C574" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D574" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E574" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="575" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B575" s="2" t="s">
+        <v>951</v>
+      </c>
+      <c r="C575" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D575" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E575" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="576" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B576" s="2" t="s">
+        <v>952</v>
+      </c>
+      <c r="C576" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D576" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E576" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="577" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B577" s="2" t="s">
+        <v>953</v>
+      </c>
+      <c r="C577" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D577" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E577" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="578" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B578" s="2" t="s">
+        <v>954</v>
+      </c>
+      <c r="C578" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D578" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E578" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="579" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B579" s="2" t="s">
+        <v>955</v>
+      </c>
+      <c r="C579" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D579" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E579" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="580" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B580" s="2" t="s">
+        <v>956</v>
+      </c>
+      <c r="C580" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D580" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E580" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="581" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B581" s="2" t="s">
+        <v>957</v>
+      </c>
+      <c r="C581" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D581" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E581" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="582" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B582" s="2" t="s">
+        <v>958</v>
+      </c>
+      <c r="C582" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D582" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E582" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="583" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B583" s="2" t="s">
+        <v>959</v>
+      </c>
+      <c r="C583" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D583" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E583" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="584" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B584" s="2" t="s">
+        <v>960</v>
+      </c>
+      <c r="C584" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D584" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E584" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="585" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B585" s="2" t="s">
+        <v>961</v>
+      </c>
+      <c r="C585" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D585" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E585" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="586" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B586" s="2" t="s">
+        <v>962</v>
+      </c>
+      <c r="C586" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D586" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E586" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="587" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B587" s="2" t="s">
+        <v>963</v>
+      </c>
+      <c r="C587" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D587" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E587" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="588" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B588" s="2" t="s">
+        <v>964</v>
+      </c>
+      <c r="C588" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D588" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E588" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="589" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B589" s="2" t="s">
+        <v>965</v>
+      </c>
+      <c r="C589" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D589" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E589" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="590" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B590" s="2" t="s">
+        <v>966</v>
+      </c>
+      <c r="C590" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D590" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E590" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="591" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B591" s="2" t="s">
+        <v>967</v>
+      </c>
+      <c r="C591" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D591" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E591" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="592" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B592" s="2" t="s">
+        <v>968</v>
+      </c>
+      <c r="C592" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D592" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E592" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="593" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B593" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="C593" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D593" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E593" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="594" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B594" s="2" t="s">
+        <v>970</v>
+      </c>
+      <c r="C594" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D594" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E594" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="595" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B595" s="2" t="s">
+        <v>971</v>
+      </c>
+      <c r="C595" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D595" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E595" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="596" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B596" s="2" t="s">
+        <v>972</v>
+      </c>
+      <c r="C596" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D596" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E596" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="597" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B597" s="2" t="s">
+        <v>973</v>
+      </c>
+      <c r="C597" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D597" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E597" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="598" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B598" s="2" t="s">
+        <v>974</v>
+      </c>
+      <c r="C598" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D598" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E598" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="599" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B599" s="2" t="s">
+        <v>975</v>
+      </c>
+      <c r="C599" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D599" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E599" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="600" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B600" s="2" t="s">
+        <v>976</v>
+      </c>
+      <c r="C600" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D600" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E600" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="601" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B601" s="2" t="s">
+        <v>977</v>
+      </c>
+      <c r="C601" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D601" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E601" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="602" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B602" s="2" t="s">
+        <v>978</v>
+      </c>
+      <c r="C602" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D602" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E602" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="603" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B603" s="2" t="s">
+        <v>979</v>
+      </c>
+      <c r="C603" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D603" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E603" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="604" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B604" s="2" t="s">
+        <v>980</v>
+      </c>
+      <c r="C604" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D604" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E604" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="605" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B605" s="2" t="s">
+        <v>981</v>
+      </c>
+      <c r="C605" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D605" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E605" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="606" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B606" s="2" t="s">
+        <v>982</v>
+      </c>
+      <c r="C606" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D606" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E606" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="607" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B607" s="2" t="s">
+        <v>983</v>
+      </c>
+      <c r="C607" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D607" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E607" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="608" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B608" s="2" t="s">
+        <v>984</v>
+      </c>
+      <c r="C608" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D608" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E608" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="609" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B609" s="2" t="s">
+        <v>985</v>
+      </c>
+      <c r="C609" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D609" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E609" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="610" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B610" s="2" t="s">
+        <v>986</v>
+      </c>
+      <c r="C610" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D610" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E610" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="611" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B611" s="2" t="s">
+        <v>987</v>
+      </c>
+      <c r="C611" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D611" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E611" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="612" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B612" s="2" t="s">
+        <v>988</v>
+      </c>
+      <c r="C612" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D612" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E612" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="613" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B613" s="2" t="s">
+        <v>989</v>
+      </c>
+      <c r="C613" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D613" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E613" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="614" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B614" s="2" t="s">
+        <v>990</v>
+      </c>
+      <c r="C614" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D614" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E614" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="615" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B615" s="2" t="s">
+        <v>991</v>
+      </c>
+      <c r="C615" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D615" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E615" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="616" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B616" s="2" t="s">
+        <v>992</v>
+      </c>
+      <c r="C616" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D616" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E616" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="617" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B617" s="2" t="s">
+        <v>993</v>
+      </c>
+      <c r="C617" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D617" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E617" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="618" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B618" s="2" t="s">
+        <v>994</v>
+      </c>
+      <c r="C618" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D618" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E618" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="619" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B619" s="2" t="s">
+        <v>995</v>
+      </c>
+      <c r="C619" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D619" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E619" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="620" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B620" s="2" t="s">
+        <v>996</v>
+      </c>
+      <c r="C620" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D620" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E620" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="621" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B621" s="2" t="s">
+        <v>997</v>
+      </c>
+      <c r="C621" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D621" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E621" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="622" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B622" s="2" t="s">
+        <v>998</v>
+      </c>
+      <c r="C622" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D622" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E622" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="623" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B623" s="2" t="s">
+        <v>999</v>
+      </c>
+      <c r="C623" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D623" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E623" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="624" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B624" s="2" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C624" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D624" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E624" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="625" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B625" s="2" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C625" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D625" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E625" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="626" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B626" s="2" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C626" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D626" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E626" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="627" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B627" s="2" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C627" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D627" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E627" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="628" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B628" s="2" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C628" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D628" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E628" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="629" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B629" s="2" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C629" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D629" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E629" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="630" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B630" s="2" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C630" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D630" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E630" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="631" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B631" s="2" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C631" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D631" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E631" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="632" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B632" s="2" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C632" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D632" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E632" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="633" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B633" s="2" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C633" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D633" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E633" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="634" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B634" s="2" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C634" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D634" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E634" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="635" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B635" s="2" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C635" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D635" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E635" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="636" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B636" s="2" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C636" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D636" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E636" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="637" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B637" s="2" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C637" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D637" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E637" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="638" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B638" s="2" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C638" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D638" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E638" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="639" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B639" s="2" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C639" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D639" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E639" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="640" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B640" s="2" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C640" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D640" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E640" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="641" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B641" s="2" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C641" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D641" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E641" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="642" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B642" s="2" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C642" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D642" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E642" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="643" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B643" s="2" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C643" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D643" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E643" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="644" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B644" s="2" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C644" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D644" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E644" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="645" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B645" s="2" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C645" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D645" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E645" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="646" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B646" s="2" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C646" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D646" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E646" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="647" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B647" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C647" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D647" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E647" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="648" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B648" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C648" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D648" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E648" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="649" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B649" s="2" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C649" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D649" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E649" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="650" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B650" s="2" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C650" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D650" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E650" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="651" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B651" s="2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C651" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D651" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E651" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="652" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B652" s="2" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C652" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D652" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E652" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="653" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B653" s="2" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C653" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D653" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E653" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="654" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B654" s="2" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C654" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D654" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E654" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="655" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B655" s="2" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C655" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D655" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E655" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="656" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B656" s="2" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C656" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D656" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E656" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="657" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B657" s="2" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C657" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D657" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E657" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="658" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B658" s="2" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C658" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D658" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E658" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="659" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B659" s="2" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C659" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D659" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E659" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="660" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B660" s="2" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C660" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D660" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E660" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="661" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B661" s="2" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C661" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D661" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E661" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="662" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B662" s="2" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C662" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D662" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E662" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="663" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B663" s="2" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C663" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D663" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E663" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="664" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B664" s="2" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C664" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D664" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E664" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="665" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B665" s="2" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C665" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D665" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E665" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="666" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B666" s="2" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C666" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D666" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E666" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="667" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B667" s="2" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C667" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D667" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E667" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="668" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B668" s="2" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C668" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D668" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E668" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="669" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B669" s="2" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C669" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D669" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E669" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="670" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B670" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C670" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D670" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E670" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="671" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B671" s="2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C671" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D671" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E671" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="672" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B672" s="2" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C672" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D672" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E672" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="673" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B673" s="2" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C673" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D673" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E673" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="674" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B674" s="2" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C674" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D674" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E674" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="675" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B675" s="2" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C675" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D675" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E675" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="676" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B676" s="2" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C676" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D676" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E676" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="677" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B677" s="2" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C677" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D677" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E677" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="678" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B678" s="2" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C678" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D678" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E678" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="679" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B679" s="2" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C679" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D679" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E679" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="680" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B680" s="2" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C680" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D680" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E680" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="681" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B681" s="2" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C681" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D681" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E681" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="682" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B682" s="2" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C682" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D682" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E682" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="683" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B683" s="2" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C683" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D683" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E683" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="684" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B684" s="2" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C684" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D684" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E684" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="685" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B685" s="2" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C685" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D685" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E685" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="686" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B686" s="2" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C686" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D686" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E686" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="687" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B687" s="2" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C687" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D687" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="E687" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="688" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B688" s="2" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C688" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D688" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="E688" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="689" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B689" s="2" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C689" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D689" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="E689" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="690" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B690" s="2" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C690" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D690" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="E690" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="691" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B691" s="2" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C691" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D691" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="E691" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="692" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B692" s="2" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C692" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D692" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="E692" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="693" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B693" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="C693" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D693" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="E693" s="10" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="694" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C694" s="10"/>

--- a/Hexxium Creations Master Threat List.xlsx
+++ b/Hexxium Creations Master Threat List.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3554" uniqueCount="1101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3621" uniqueCount="1112">
   <si>
     <t xml:space="preserve">HEXXIUM CREATIONS THREAT LIST MASTER LOGBOOK</t>
   </si>
@@ -3255,6 +3255,9 @@
     <t xml:space="preserve">stecmcommunity.com</t>
   </si>
   <si>
+    <t xml:space="preserve">https://github.com/HexxiumCreations/threat-list/commit/c5a5d1ac45812dc6975ba4798316cf0d5764406a</t>
+  </si>
+  <si>
     <t xml:space="preserve">glft.ru</t>
   </si>
   <si>
@@ -3333,6 +3336,9 @@
     <t xml:space="preserve">steanmcomnnumnity.com</t>
   </si>
   <si>
+    <t xml:space="preserve">https://github.com/HexxiumCreations/threat-list/commit/7aa87f82eee0b18ce52a265ebd9c09f53df26d7b</t>
+  </si>
+  <si>
     <t xml:space="preserve">free-gifts.space</t>
   </si>
   <si>
@@ -3343,6 +3349,33 @@
   </si>
   <si>
     <t xml:space="preserve">Fake sports streaming website, starts a subscription that cannot be canceled; https://www.trustpilot.com/review/beststream-sports.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcommnunitly.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcomumnuetiuey.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steanmcommnunilty.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcomumnunity.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">open-gifts.online</t>
+  </si>
+  <si>
+    <t xml:space="preserve">open-gift.site</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sgifts.space</t>
+  </si>
+  <si>
+    <t xml:space="preserve">best-glfts.online</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcomunnunmity.com</t>
   </si>
 </sst>
 </file>
@@ -3555,7 +3588,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3629,10 +3662,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3729,8 +3758,8 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A696" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D725" activeCellId="0" sqref="D725"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A688" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G728" activeCellId="0" sqref="G728"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15593,10 +15622,13 @@
       <c r="E694" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="G694" s="2" t="s">
+        <v>1071</v>
+      </c>
     </row>
     <row r="695" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B695" s="2" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="C695" s="10" t="s">
         <v>45</v>
@@ -15607,10 +15639,13 @@
       <c r="E695" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="G695" s="2" t="s">
+        <v>1071</v>
+      </c>
     </row>
     <row r="696" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B696" s="2" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="C696" s="10" t="s">
         <v>45</v>
@@ -15621,11 +15656,13 @@
       <c r="E696" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G696" s="19"/>
+      <c r="G696" s="2" t="s">
+        <v>1071</v>
+      </c>
     </row>
     <row r="697" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B697" s="2" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="C697" s="10" t="s">
         <v>45</v>
@@ -15636,10 +15673,13 @@
       <c r="E697" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="G697" s="2" t="s">
+        <v>1071</v>
+      </c>
     </row>
     <row r="698" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B698" s="2" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="C698" s="10" t="s">
         <v>45</v>
@@ -15650,10 +15690,13 @@
       <c r="E698" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="G698" s="2" t="s">
+        <v>1071</v>
+      </c>
     </row>
     <row r="699" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B699" s="2" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="C699" s="10" t="s">
         <v>45</v>
@@ -15664,10 +15707,13 @@
       <c r="E699" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="G699" s="2" t="s">
+        <v>1071</v>
+      </c>
     </row>
     <row r="700" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B700" s="2" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="C700" s="10" t="s">
         <v>45</v>
@@ -15678,10 +15724,13 @@
       <c r="E700" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="G700" s="2" t="s">
+        <v>1071</v>
+      </c>
     </row>
     <row r="701" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B701" s="2" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="C701" s="10" t="s">
         <v>45</v>
@@ -15692,10 +15741,13 @@
       <c r="E701" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="G701" s="2" t="s">
+        <v>1071</v>
+      </c>
     </row>
     <row r="702" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B702" s="2" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="C702" s="10" t="s">
         <v>45</v>
@@ -15705,6 +15757,9 @@
       </c>
       <c r="E702" s="10" t="s">
         <v>13</v>
+      </c>
+      <c r="G702" s="2" t="s">
+        <v>1071</v>
       </c>
     </row>
     <row r="703" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15720,10 +15775,13 @@
       <c r="E703" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="G703" s="2" t="s">
+        <v>1071</v>
+      </c>
     </row>
     <row r="704" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B704" s="2" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="C704" s="10" t="s">
         <v>45</v>
@@ -15734,10 +15792,13 @@
       <c r="E704" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="G704" s="2" t="s">
+        <v>1071</v>
+      </c>
     </row>
     <row r="705" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B705" s="2" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="C705" s="10" t="s">
         <v>45</v>
@@ -15748,10 +15809,13 @@
       <c r="E705" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="G705" s="2" t="s">
+        <v>1071</v>
+      </c>
     </row>
     <row r="706" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B706" s="2" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="C706" s="10" t="s">
         <v>45</v>
@@ -15762,209 +15826,254 @@
       <c r="E706" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="G706" s="2" t="s">
+        <v>1071</v>
+      </c>
     </row>
     <row r="707" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B707" s="2" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="C707" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D707" s="20" t="s">
+      <c r="D707" s="19" t="s">
         <v>770</v>
       </c>
       <c r="E707" s="10" t="s">
         <v>13</v>
+      </c>
+      <c r="G707" s="2" t="s">
+        <v>1071</v>
       </c>
     </row>
     <row r="708" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B708" s="2" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="C708" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D708" s="20" t="s">
+      <c r="D708" s="19" t="s">
         <v>770</v>
       </c>
       <c r="E708" s="10" t="s">
         <v>13</v>
+      </c>
+      <c r="G708" s="2" t="s">
+        <v>1071</v>
       </c>
     </row>
     <row r="709" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B709" s="2" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="C709" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D709" s="20" t="s">
+      <c r="D709" s="19" t="s">
         <v>770</v>
       </c>
       <c r="E709" s="10" t="s">
         <v>13</v>
+      </c>
+      <c r="G709" s="2" t="s">
+        <v>1071</v>
       </c>
     </row>
     <row r="710" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B710" s="2" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="C710" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D710" s="20" t="s">
+      <c r="D710" s="19" t="s">
         <v>770</v>
       </c>
       <c r="E710" s="10" t="s">
         <v>13</v>
+      </c>
+      <c r="G710" s="2" t="s">
+        <v>1071</v>
       </c>
     </row>
     <row r="711" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B711" s="2" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="C711" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D711" s="20" t="s">
+      <c r="D711" s="19" t="s">
         <v>770</v>
       </c>
       <c r="E711" s="10" t="s">
         <v>13</v>
+      </c>
+      <c r="G711" s="2" t="s">
+        <v>1071</v>
       </c>
     </row>
     <row r="712" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B712" s="2" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="C712" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D712" s="20" t="s">
+      <c r="D712" s="19" t="s">
         <v>770</v>
       </c>
       <c r="E712" s="10" t="s">
         <v>13</v>
+      </c>
+      <c r="G712" s="2" t="s">
+        <v>1071</v>
       </c>
     </row>
     <row r="713" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B713" s="2" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="C713" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D713" s="20" t="s">
+      <c r="D713" s="19" t="s">
         <v>770</v>
       </c>
       <c r="E713" s="10" t="s">
         <v>13</v>
+      </c>
+      <c r="G713" s="2" t="s">
+        <v>1071</v>
       </c>
     </row>
     <row r="714" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B714" s="2" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="C714" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D714" s="20" t="s">
+      <c r="D714" s="19" t="s">
         <v>770</v>
       </c>
       <c r="E714" s="10" t="s">
         <v>13</v>
+      </c>
+      <c r="G714" s="2" t="s">
+        <v>1071</v>
       </c>
     </row>
     <row r="715" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B715" s="2" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="C715" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D715" s="20" t="s">
+      <c r="D715" s="19" t="s">
         <v>770</v>
       </c>
       <c r="E715" s="10" t="s">
         <v>13</v>
+      </c>
+      <c r="G715" s="2" t="s">
+        <v>1071</v>
       </c>
     </row>
     <row r="716" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B716" s="2" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="C716" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D716" s="20" t="s">
+      <c r="D716" s="19" t="s">
         <v>770</v>
       </c>
       <c r="E716" s="10" t="s">
         <v>13</v>
+      </c>
+      <c r="G716" s="2" t="s">
+        <v>1071</v>
       </c>
     </row>
     <row r="717" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B717" s="2" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="C717" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D717" s="20" t="s">
+      <c r="D717" s="19" t="s">
         <v>770</v>
       </c>
       <c r="E717" s="10" t="s">
         <v>13</v>
+      </c>
+      <c r="G717" s="2" t="s">
+        <v>1071</v>
       </c>
     </row>
     <row r="718" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B718" s="2" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="C718" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D718" s="20" t="s">
+      <c r="D718" s="19" t="s">
         <v>770</v>
       </c>
       <c r="E718" s="10" t="s">
         <v>13</v>
+      </c>
+      <c r="G718" s="2" t="s">
+        <v>1071</v>
       </c>
     </row>
     <row r="719" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B719" s="2" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="C719" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D719" s="20" t="s">
+      <c r="D719" s="19" t="s">
         <v>770</v>
       </c>
       <c r="E719" s="10" t="s">
         <v>13</v>
+      </c>
+      <c r="G719" s="2" t="s">
+        <v>1071</v>
       </c>
     </row>
     <row r="720" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B720" s="2" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="C720" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D720" s="20" t="s">
+      <c r="D720" s="19" t="s">
         <v>770</v>
       </c>
       <c r="E720" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="G720" s="2" t="s">
+        <v>1071</v>
+      </c>
     </row>
     <row r="721" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A721" s="21" t="n">
+      <c r="A721" s="1" t="n">
         <v>45097</v>
       </c>
       <c r="B721" s="2" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="C721" s="10" t="s">
         <v>45</v>
@@ -15975,10 +16084,13 @@
       <c r="E721" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="G721" s="2" t="s">
+        <v>1098</v>
+      </c>
     </row>
     <row r="722" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B722" s="2" t="s">
-        <v>1097</v>
+        <v>1099</v>
       </c>
       <c r="C722" s="10" t="s">
         <v>45</v>
@@ -15989,10 +16101,13 @@
       <c r="E722" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="G722" s="2" t="s">
+        <v>1098</v>
+      </c>
     </row>
     <row r="723" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B723" s="2" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="C723" s="10" t="s">
         <v>45</v>
@@ -16003,56 +16118,155 @@
       <c r="E723" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="G723" s="2" t="s">
+        <v>1098</v>
+      </c>
     </row>
     <row r="724" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B724" s="2" t="s">
-        <v>1099</v>
+        <v>1101</v>
       </c>
       <c r="C724" s="10" t="s">
         <v>683</v>
       </c>
       <c r="D724" s="3" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="E724" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="G724" s="2" t="s">
+        <v>1098</v>
+      </c>
     </row>
     <row r="725" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C725" s="10"/>
-      <c r="E725" s="10"/>
+      <c r="A725" s="20" t="n">
+        <v>45103</v>
+      </c>
+      <c r="B725" s="2" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C725" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D725" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="E725" s="10" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="726" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C726" s="10"/>
-      <c r="E726" s="10"/>
+      <c r="B726" s="2" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C726" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D726" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="E726" s="10" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="727" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C727" s="10"/>
-      <c r="E727" s="10"/>
+      <c r="B727" s="2" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C727" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D727" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="E727" s="10" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="728" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C728" s="10"/>
-      <c r="E728" s="10"/>
+      <c r="B728" s="2" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C728" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D728" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="E728" s="10" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="729" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C729" s="10"/>
-      <c r="E729" s="10"/>
+      <c r="B729" s="2" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C729" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D729" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="E729" s="10" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="730" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C730" s="10"/>
-      <c r="E730" s="10"/>
+      <c r="B730" s="2" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C730" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D730" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="E730" s="10" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="731" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C731" s="10"/>
-      <c r="E731" s="10"/>
+      <c r="B731" s="2" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C731" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D731" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="E731" s="10" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="732" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C732" s="10"/>
-      <c r="E732" s="10"/>
+      <c r="B732" s="2" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C732" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D732" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="E732" s="10" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="733" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C733" s="10"/>
-      <c r="E733" s="10"/>
+      <c r="B733" s="2" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C733" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D733" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="E733" s="10" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="734" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C734" s="10"/>
@@ -18787,6 +19001,37 @@
     <hyperlink ref="G691" r:id="rId336" display="https://github.com/HexxiumCreations/threat-list/commit/3a424826fea47d5ec6aea099fa7d02aeedf7b6c4"/>
     <hyperlink ref="G692" r:id="rId337" display="https://github.com/HexxiumCreations/threat-list/commit/3a424826fea47d5ec6aea099fa7d02aeedf7b6c4"/>
     <hyperlink ref="G693" r:id="rId338" display="https://github.com/HexxiumCreations/threat-list/commit/3a424826fea47d5ec6aea099fa7d02aeedf7b6c4"/>
+    <hyperlink ref="G694" r:id="rId339" display="https://github.com/HexxiumCreations/threat-list/commit/c5a5d1ac45812dc6975ba4798316cf0d5764406a"/>
+    <hyperlink ref="G695" r:id="rId340" display="https://github.com/HexxiumCreations/threat-list/commit/c5a5d1ac45812dc6975ba4798316cf0d5764406a"/>
+    <hyperlink ref="G696" r:id="rId341" display="https://github.com/HexxiumCreations/threat-list/commit/c5a5d1ac45812dc6975ba4798316cf0d5764406a"/>
+    <hyperlink ref="G697" r:id="rId342" display="https://github.com/HexxiumCreations/threat-list/commit/c5a5d1ac45812dc6975ba4798316cf0d5764406a"/>
+    <hyperlink ref="G698" r:id="rId343" display="https://github.com/HexxiumCreations/threat-list/commit/c5a5d1ac45812dc6975ba4798316cf0d5764406a"/>
+    <hyperlink ref="G699" r:id="rId344" display="https://github.com/HexxiumCreations/threat-list/commit/c5a5d1ac45812dc6975ba4798316cf0d5764406a"/>
+    <hyperlink ref="G700" r:id="rId345" display="https://github.com/HexxiumCreations/threat-list/commit/c5a5d1ac45812dc6975ba4798316cf0d5764406a"/>
+    <hyperlink ref="G701" r:id="rId346" display="https://github.com/HexxiumCreations/threat-list/commit/c5a5d1ac45812dc6975ba4798316cf0d5764406a"/>
+    <hyperlink ref="G702" r:id="rId347" display="https://github.com/HexxiumCreations/threat-list/commit/c5a5d1ac45812dc6975ba4798316cf0d5764406a"/>
+    <hyperlink ref="G703" r:id="rId348" display="https://github.com/HexxiumCreations/threat-list/commit/c5a5d1ac45812dc6975ba4798316cf0d5764406a"/>
+    <hyperlink ref="G704" r:id="rId349" display="https://github.com/HexxiumCreations/threat-list/commit/c5a5d1ac45812dc6975ba4798316cf0d5764406a"/>
+    <hyperlink ref="G705" r:id="rId350" display="https://github.com/HexxiumCreations/threat-list/commit/c5a5d1ac45812dc6975ba4798316cf0d5764406a"/>
+    <hyperlink ref="G706" r:id="rId351" display="https://github.com/HexxiumCreations/threat-list/commit/c5a5d1ac45812dc6975ba4798316cf0d5764406a"/>
+    <hyperlink ref="G707" r:id="rId352" display="https://github.com/HexxiumCreations/threat-list/commit/c5a5d1ac45812dc6975ba4798316cf0d5764406a"/>
+    <hyperlink ref="G708" r:id="rId353" display="https://github.com/HexxiumCreations/threat-list/commit/c5a5d1ac45812dc6975ba4798316cf0d5764406a"/>
+    <hyperlink ref="G709" r:id="rId354" display="https://github.com/HexxiumCreations/threat-list/commit/c5a5d1ac45812dc6975ba4798316cf0d5764406a"/>
+    <hyperlink ref="G710" r:id="rId355" display="https://github.com/HexxiumCreations/threat-list/commit/c5a5d1ac45812dc6975ba4798316cf0d5764406a"/>
+    <hyperlink ref="G711" r:id="rId356" display="https://github.com/HexxiumCreations/threat-list/commit/c5a5d1ac45812dc6975ba4798316cf0d5764406a"/>
+    <hyperlink ref="G712" r:id="rId357" display="https://github.com/HexxiumCreations/threat-list/commit/c5a5d1ac45812dc6975ba4798316cf0d5764406a"/>
+    <hyperlink ref="G713" r:id="rId358" display="https://github.com/HexxiumCreations/threat-list/commit/c5a5d1ac45812dc6975ba4798316cf0d5764406a"/>
+    <hyperlink ref="G714" r:id="rId359" display="https://github.com/HexxiumCreations/threat-list/commit/c5a5d1ac45812dc6975ba4798316cf0d5764406a"/>
+    <hyperlink ref="G715" r:id="rId360" display="https://github.com/HexxiumCreations/threat-list/commit/c5a5d1ac45812dc6975ba4798316cf0d5764406a"/>
+    <hyperlink ref="G716" r:id="rId361" display="https://github.com/HexxiumCreations/threat-list/commit/c5a5d1ac45812dc6975ba4798316cf0d5764406a"/>
+    <hyperlink ref="G717" r:id="rId362" display="https://github.com/HexxiumCreations/threat-list/commit/c5a5d1ac45812dc6975ba4798316cf0d5764406a"/>
+    <hyperlink ref="G718" r:id="rId363" display="https://github.com/HexxiumCreations/threat-list/commit/c5a5d1ac45812dc6975ba4798316cf0d5764406a"/>
+    <hyperlink ref="G719" r:id="rId364" display="https://github.com/HexxiumCreations/threat-list/commit/c5a5d1ac45812dc6975ba4798316cf0d5764406a"/>
+    <hyperlink ref="G720" r:id="rId365" display="https://github.com/HexxiumCreations/threat-list/commit/c5a5d1ac45812dc6975ba4798316cf0d5764406a"/>
+    <hyperlink ref="G721" r:id="rId366" display="https://github.com/HexxiumCreations/threat-list/commit/7aa87f82eee0b18ce52a265ebd9c09f53df26d7b"/>
+    <hyperlink ref="G722" r:id="rId367" display="https://github.com/HexxiumCreations/threat-list/commit/7aa87f82eee0b18ce52a265ebd9c09f53df26d7b"/>
+    <hyperlink ref="G723" r:id="rId368" display="https://github.com/HexxiumCreations/threat-list/commit/7aa87f82eee0b18ce52a265ebd9c09f53df26d7b"/>
+    <hyperlink ref="G724" r:id="rId369" display="https://github.com/HexxiumCreations/threat-list/commit/7aa87f82eee0b18ce52a265ebd9c09f53df26d7b"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/Hexxium Creations Master Threat List.xlsx
+++ b/Hexxium Creations Master Threat List.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3621" uniqueCount="1112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3670" uniqueCount="1123">
   <si>
     <t xml:space="preserve">HEXXIUM CREATIONS THREAT LIST MASTER LOGBOOK</t>
   </si>
@@ -3354,6 +3354,9 @@
     <t xml:space="preserve">steamcommnunitly.com</t>
   </si>
   <si>
+    <t xml:space="preserve">https://github.com/HexxiumCreations/threat-list/commit/27dfa57739c7ca4da36e1e89d4d12bc7d621c38e</t>
+  </si>
+  <si>
     <t xml:space="preserve">steamcomumnuetiuey.com</t>
   </si>
   <si>
@@ -3376,6 +3379,36 @@
   </si>
   <si>
     <t xml:space="preserve">steamcomunnunmity.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcommulnlty.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">my-gift.space</t>
+  </si>
+  <si>
+    <t xml:space="preserve">myglft.space</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcomunuetiuy.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soma-gifts.online</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soma-gifts.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">source2betta.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steaumconnunity.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steanmcommnunily.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steanmscommnunity.com</t>
   </si>
 </sst>
 </file>
@@ -3386,7 +3419,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="[$-F800]dddd&quot;, &quot;mmmm\ dd&quot;, &quot;yyyy"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -3493,13 +3526,6 @@
       <family val="0"/>
       <charset val="1"/>
     </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -3588,7 +3614,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3667,10 +3693,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="2" borderId="0" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -3758,8 +3780,8 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A688" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G728" activeCellId="0" sqref="G728"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A709" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D739" activeCellId="0" sqref="D739"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16140,7 +16162,7 @@
       </c>
     </row>
     <row r="725" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A725" s="20" t="n">
+      <c r="A725" s="1" t="n">
         <v>45103</v>
       </c>
       <c r="B725" s="2" t="s">
@@ -16155,10 +16177,13 @@
       <c r="E725" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="G725" s="2" t="s">
+        <v>1104</v>
+      </c>
     </row>
     <row r="726" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B726" s="2" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="C726" s="10" t="s">
         <v>45</v>
@@ -16169,10 +16194,13 @@
       <c r="E726" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="G726" s="2" t="s">
+        <v>1104</v>
+      </c>
     </row>
     <row r="727" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B727" s="2" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="C727" s="10" t="s">
         <v>45</v>
@@ -16183,10 +16211,13 @@
       <c r="E727" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="G727" s="2" t="s">
+        <v>1104</v>
+      </c>
     </row>
     <row r="728" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B728" s="2" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="C728" s="10" t="s">
         <v>45</v>
@@ -16197,10 +16228,13 @@
       <c r="E728" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="G728" s="2" t="s">
+        <v>1104</v>
+      </c>
     </row>
     <row r="729" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B729" s="2" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="C729" s="10" t="s">
         <v>45</v>
@@ -16211,10 +16245,13 @@
       <c r="E729" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="G729" s="2" t="s">
+        <v>1104</v>
+      </c>
     </row>
     <row r="730" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B730" s="2" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="C730" s="10" t="s">
         <v>45</v>
@@ -16225,10 +16262,13 @@
       <c r="E730" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="G730" s="2" t="s">
+        <v>1104</v>
+      </c>
     </row>
     <row r="731" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B731" s="2" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="C731" s="10" t="s">
         <v>45</v>
@@ -16239,10 +16279,13 @@
       <c r="E731" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="G731" s="2" t="s">
+        <v>1104</v>
+      </c>
     </row>
     <row r="732" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B732" s="2" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="C732" s="10" t="s">
         <v>45</v>
@@ -16253,10 +16296,13 @@
       <c r="E732" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="G732" s="2" t="s">
+        <v>1104</v>
+      </c>
     </row>
     <row r="733" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B733" s="2" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="C733" s="10" t="s">
         <v>45</v>
@@ -16267,46 +16313,152 @@
       <c r="E733" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="G733" s="2" t="s">
+        <v>1104</v>
+      </c>
     </row>
     <row r="734" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C734" s="10"/>
-      <c r="E734" s="10"/>
+      <c r="A734" s="1" t="n">
+        <v>45110</v>
+      </c>
+      <c r="B734" s="2" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C734" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D734" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="E734" s="10" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="735" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C735" s="10"/>
-      <c r="E735" s="10"/>
+      <c r="B735" s="2" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C735" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D735" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="E735" s="10" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="736" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C736" s="10"/>
-      <c r="E736" s="10"/>
-    </row>
-    <row r="737" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C737" s="10"/>
-      <c r="E737" s="10"/>
-    </row>
-    <row r="738" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C738" s="10"/>
-      <c r="E738" s="10"/>
-    </row>
-    <row r="739" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C739" s="10"/>
-      <c r="E739" s="10"/>
-    </row>
-    <row r="740" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C740" s="10"/>
-      <c r="E740" s="10"/>
-    </row>
-    <row r="741" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C741" s="10"/>
-      <c r="E741" s="10"/>
-    </row>
-    <row r="742" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C742" s="10"/>
-      <c r="E742" s="10"/>
-    </row>
-    <row r="743" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C743" s="10"/>
-      <c r="E743" s="10"/>
+      <c r="B736" s="2" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C736" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D736" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="E736" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="737" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B737" s="2" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C737" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D737" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="E737" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="738" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B738" s="2" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C738" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D738" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="E738" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="739" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B739" s="2" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C739" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D739" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="E739" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="740" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B740" s="2" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C740" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D740" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="E740" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="741" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B741" s="2" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C741" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D741" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="E741" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="742" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B742" s="2" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C742" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D742" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="E742" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="743" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B743" s="2" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C743" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D743" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="E743" s="10" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="744" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C744" s="10"/>
@@ -19032,6 +19184,15 @@
     <hyperlink ref="G722" r:id="rId367" display="https://github.com/HexxiumCreations/threat-list/commit/7aa87f82eee0b18ce52a265ebd9c09f53df26d7b"/>
     <hyperlink ref="G723" r:id="rId368" display="https://github.com/HexxiumCreations/threat-list/commit/7aa87f82eee0b18ce52a265ebd9c09f53df26d7b"/>
     <hyperlink ref="G724" r:id="rId369" display="https://github.com/HexxiumCreations/threat-list/commit/7aa87f82eee0b18ce52a265ebd9c09f53df26d7b"/>
+    <hyperlink ref="G725" r:id="rId370" display="https://github.com/HexxiumCreations/threat-list/commit/27dfa57739c7ca4da36e1e89d4d12bc7d621c38e"/>
+    <hyperlink ref="G726" r:id="rId371" display="https://github.com/HexxiumCreations/threat-list/commit/27dfa57739c7ca4da36e1e89d4d12bc7d621c38e"/>
+    <hyperlink ref="G727" r:id="rId372" display="https://github.com/HexxiumCreations/threat-list/commit/27dfa57739c7ca4da36e1e89d4d12bc7d621c38e"/>
+    <hyperlink ref="G728" r:id="rId373" display="https://github.com/HexxiumCreations/threat-list/commit/27dfa57739c7ca4da36e1e89d4d12bc7d621c38e"/>
+    <hyperlink ref="G729" r:id="rId374" display="https://github.com/HexxiumCreations/threat-list/commit/27dfa57739c7ca4da36e1e89d4d12bc7d621c38e"/>
+    <hyperlink ref="G730" r:id="rId375" display="https://github.com/HexxiumCreations/threat-list/commit/27dfa57739c7ca4da36e1e89d4d12bc7d621c38e"/>
+    <hyperlink ref="G731" r:id="rId376" display="https://github.com/HexxiumCreations/threat-list/commit/27dfa57739c7ca4da36e1e89d4d12bc7d621c38e"/>
+    <hyperlink ref="G732" r:id="rId377" display="https://github.com/HexxiumCreations/threat-list/commit/27dfa57739c7ca4da36e1e89d4d12bc7d621c38e"/>
+    <hyperlink ref="G733" r:id="rId378" display="https://github.com/HexxiumCreations/threat-list/commit/27dfa57739c7ca4da36e1e89d4d12bc7d621c38e"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/Hexxium Creations Master Threat List.xlsx
+++ b/Hexxium Creations Master Threat List.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3670" uniqueCount="1123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3700" uniqueCount="1129">
   <si>
     <t xml:space="preserve">HEXXIUM CREATIONS THREAT LIST MASTER LOGBOOK</t>
   </si>
@@ -3384,6 +3384,9 @@
     <t xml:space="preserve">steamcommulnlty.com</t>
   </si>
   <si>
+    <t xml:space="preserve">https://github.com/HexxiumCreations/threat-list/commit/7c9643983c3e8be33e4e0e66198b2bc157219fb4</t>
+  </si>
+  <si>
     <t xml:space="preserve">my-gift.space</t>
   </si>
   <si>
@@ -3409,6 +3412,21 @@
   </si>
   <si>
     <t xml:space="preserve">steanmscommnunity.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">my-glfts.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">opens-glft.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">myglft.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skinbaronl.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamconmunnitiy.com</t>
   </si>
 </sst>
 </file>
@@ -3419,7 +3437,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="[$-F800]dddd&quot;, &quot;mmmm\ dd&quot;, &quot;yyyy"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -3526,6 +3544,13 @@
       <family val="0"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -3614,7 +3639,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3693,6 +3718,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="2" borderId="0" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -3780,8 +3809,8 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A709" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D739" activeCellId="0" sqref="D739"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A715" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G744" activeCellId="0" sqref="G744"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16333,10 +16362,13 @@
       <c r="E734" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="G734" s="2" t="s">
+        <v>1114</v>
+      </c>
     </row>
     <row r="735" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B735" s="2" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="C735" s="10" t="s">
         <v>45</v>
@@ -16347,10 +16379,13 @@
       <c r="E735" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="G735" s="2" t="s">
+        <v>1114</v>
+      </c>
     </row>
     <row r="736" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B736" s="2" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="C736" s="10" t="s">
         <v>45</v>
@@ -16361,10 +16396,13 @@
       <c r="E736" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="G736" s="2" t="s">
+        <v>1114</v>
+      </c>
     </row>
     <row r="737" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B737" s="2" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="C737" s="10" t="s">
         <v>45</v>
@@ -16375,10 +16413,13 @@
       <c r="E737" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="G737" s="2" t="s">
+        <v>1114</v>
+      </c>
     </row>
     <row r="738" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B738" s="2" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="C738" s="10" t="s">
         <v>45</v>
@@ -16389,10 +16430,13 @@
       <c r="E738" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="G738" s="2" t="s">
+        <v>1114</v>
+      </c>
     </row>
     <row r="739" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B739" s="2" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="C739" s="10" t="s">
         <v>45</v>
@@ -16403,10 +16447,13 @@
       <c r="E739" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="G739" s="2" t="s">
+        <v>1114</v>
+      </c>
     </row>
     <row r="740" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B740" s="2" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="C740" s="10" t="s">
         <v>45</v>
@@ -16417,10 +16464,13 @@
       <c r="E740" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="G740" s="2" t="s">
+        <v>1114</v>
+      </c>
     </row>
     <row r="741" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B741" s="2" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="C741" s="10" t="s">
         <v>45</v>
@@ -16431,10 +16481,13 @@
       <c r="E741" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="G741" s="2" t="s">
+        <v>1114</v>
+      </c>
     </row>
     <row r="742" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B742" s="2" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="C742" s="10" t="s">
         <v>45</v>
@@ -16445,10 +16498,13 @@
       <c r="E742" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="G742" s="2" t="s">
+        <v>1114</v>
+      </c>
     </row>
     <row r="743" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B743" s="2" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="C743" s="10" t="s">
         <v>45</v>
@@ -16459,26 +16515,82 @@
       <c r="E743" s="10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="744" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C744" s="10"/>
-      <c r="E744" s="10"/>
-    </row>
-    <row r="745" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C745" s="10"/>
-      <c r="E745" s="10"/>
-    </row>
-    <row r="746" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C746" s="10"/>
-      <c r="E746" s="10"/>
-    </row>
-    <row r="747" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C747" s="10"/>
-      <c r="E747" s="10"/>
-    </row>
-    <row r="748" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C748" s="10"/>
-      <c r="E748" s="10"/>
+      <c r="G743" s="2" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="744" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A744" s="20" t="n">
+        <v>45113</v>
+      </c>
+      <c r="B744" s="2" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C744" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D744" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="E744" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="745" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B745" s="2" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C745" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D745" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="E745" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="746" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B746" s="2" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C746" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D746" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="E746" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="747" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B747" s="2" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C747" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D747" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="E747" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="748" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B748" s="2" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C748" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D748" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="E748" s="10" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="749" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C749" s="10"/>
@@ -19193,6 +19305,16 @@
     <hyperlink ref="G731" r:id="rId376" display="https://github.com/HexxiumCreations/threat-list/commit/27dfa57739c7ca4da36e1e89d4d12bc7d621c38e"/>
     <hyperlink ref="G732" r:id="rId377" display="https://github.com/HexxiumCreations/threat-list/commit/27dfa57739c7ca4da36e1e89d4d12bc7d621c38e"/>
     <hyperlink ref="G733" r:id="rId378" display="https://github.com/HexxiumCreations/threat-list/commit/27dfa57739c7ca4da36e1e89d4d12bc7d621c38e"/>
+    <hyperlink ref="G734" r:id="rId379" display="https://github.com/HexxiumCreations/threat-list/commit/7c9643983c3e8be33e4e0e66198b2bc157219fb4"/>
+    <hyperlink ref="G735" r:id="rId380" display="https://github.com/HexxiumCreations/threat-list/commit/7c9643983c3e8be33e4e0e66198b2bc157219fb4"/>
+    <hyperlink ref="G736" r:id="rId381" display="https://github.com/HexxiumCreations/threat-list/commit/7c9643983c3e8be33e4e0e66198b2bc157219fb4"/>
+    <hyperlink ref="G737" r:id="rId382" display="https://github.com/HexxiumCreations/threat-list/commit/7c9643983c3e8be33e4e0e66198b2bc157219fb4"/>
+    <hyperlink ref="G738" r:id="rId383" display="https://github.com/HexxiumCreations/threat-list/commit/7c9643983c3e8be33e4e0e66198b2bc157219fb4"/>
+    <hyperlink ref="G739" r:id="rId384" display="https://github.com/HexxiumCreations/threat-list/commit/7c9643983c3e8be33e4e0e66198b2bc157219fb4"/>
+    <hyperlink ref="G740" r:id="rId385" display="https://github.com/HexxiumCreations/threat-list/commit/7c9643983c3e8be33e4e0e66198b2bc157219fb4"/>
+    <hyperlink ref="G741" r:id="rId386" display="https://github.com/HexxiumCreations/threat-list/commit/7c9643983c3e8be33e4e0e66198b2bc157219fb4"/>
+    <hyperlink ref="G742" r:id="rId387" display="https://github.com/HexxiumCreations/threat-list/commit/7c9643983c3e8be33e4e0e66198b2bc157219fb4"/>
+    <hyperlink ref="G743" r:id="rId388" display="https://github.com/HexxiumCreations/threat-list/commit/7c9643983c3e8be33e4e0e66198b2bc157219fb4"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/Hexxium Creations Master Threat List.xlsx
+++ b/Hexxium Creations Master Threat List.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3700" uniqueCount="1129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4221" uniqueCount="1260">
   <si>
     <t xml:space="preserve">HEXXIUM CREATIONS THREAT LIST MASTER LOGBOOK</t>
   </si>
@@ -3417,6 +3417,9 @@
     <t xml:space="preserve">my-glfts.ru</t>
   </si>
   <si>
+    <t xml:space="preserve">https://github.com/HexxiumCreations/threat-list/commit/dd9ca027fdb70dff651ab9e7b564b643000343e3</t>
+  </si>
+  <si>
     <t xml:space="preserve">opens-glft.ru</t>
   </si>
   <si>
@@ -3427,6 +3430,396 @@
   </si>
   <si>
     <t xml:space="preserve">steamconmunnitiy.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steancommuntiy.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hosted on same host as other phishing domains (185.106.93.4); high probability of abuse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcommunicy.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">let-us-trade.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamccommunilty.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcomunmiuty.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hellcaes.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamsconmunity.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcommunitiu.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facepunchs-gift.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcommurnty.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steemcomnumity.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamconmmunilty.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steemcommunuty.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stearnconmumity.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcoomnmunity.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcomnulity.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">slemcommurity.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">csgorunbest.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamncomuniity.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamscommmunity.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcommuunity.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcommuintly.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steemcornmunity.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stearrncommunctiy.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcummunirty.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steancommunlity.pro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcommunitelly.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">appdiscord.net</t>
+  </si>
+  <si>
+    <t xml:space="preserve">navi08.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steancomnmnnunity.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gamerrgains.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">navigiveaway.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dsport.space</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamnconmunitly.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">csgo-source2.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcommunfity.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stearncomrnuinty.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stearncorrnuniity.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rusty-moose.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">streamcommunity.net</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcommunitv.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steannconmnultiiy.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steancommunityy.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steemcomunility.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sdwins.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88steam.top</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steanconnynity.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcommynitu.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">key-dropes.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n-faze.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steacomnunity.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamconmmunilty.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">key-dropz.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qw-drop.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcommmnunity.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcommurilty.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcommunicty.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stearncomrnunily.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcomnmmuity.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcomnmnity.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stimcammunity.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facepunch-drop.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">esl-roll.pro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">csanalyzerr.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">slermconumitea.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcomnnunllty.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">faceit-key.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcommuniltly.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stearncommunity.su</t>
+  </si>
+  <si>
+    <t xml:space="preserve">end-sport.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steanconmunitly.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcommuninty.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">staemcommuunitly.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcommuniliy.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stearncomnumity.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcommuntilly.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cs2-play.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steemcomnmunity.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stearconmunity.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">streancommunity.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcomnumity.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcomminty.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">easynltro.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fastcup-legue.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steancommuniliy.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">streamcomnumity.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">staemcomuniity.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">counterstrike2-beta.site</t>
+  </si>
+  <si>
+    <t xml:space="preserve">counterstrike-2.info</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beta2.pro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">betastart.pro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">betainv.pro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">invitebeta.pro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lsteamcommunity.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">take-discord.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">waybeta.pro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamconmunity.net</t>
+  </si>
+  <si>
+    <t xml:space="preserve">betacs2.pro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcomumunity.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steanncomunnity.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rankedcups.net</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hau-tu.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">keydrop.su</t>
+  </si>
+  <si>
+    <t xml:space="preserve">csgoanalyzer.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">keydrops.pro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ecl-ieague.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">twitchcase.net</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cs2bt.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">source02.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ggsports.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">body-shapes.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fazegh.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nero-wins.pro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcommunityiun.top</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcommunityiuo.top</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcommunityiit.top</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcornmunitiy.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcommumuttiy.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcommunitxy.top</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcommumnitiy.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcommumnittiy.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcommumitiy.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcommunnitliy.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcomnunitlly.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcomnumnitlly.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facetpaunchs-twltchs.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steancomunnily.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamncommuinty.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcomnmuinty.com</t>
   </si>
 </sst>
 </file>
@@ -3437,7 +3830,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="[$-F800]dddd&quot;, &quot;mmmm\ dd&quot;, &quot;yyyy"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -3551,6 +3944,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -3639,7 +4038,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3722,6 +4121,10 @@
     </xf>
     <xf numFmtId="165" fontId="15" fillId="2" borderId="0" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -3809,8 +4212,8 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A715" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G744" activeCellId="0" sqref="G744"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A723" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G749" activeCellId="0" sqref="G749"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16520,7 +16923,7 @@
       </c>
     </row>
     <row r="744" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A744" s="20" t="n">
+      <c r="A744" s="1" t="n">
         <v>45113</v>
       </c>
       <c r="B744" s="2" t="s">
@@ -16535,10 +16938,13 @@
       <c r="E744" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="G744" s="2" t="s">
+        <v>1125</v>
+      </c>
     </row>
     <row r="745" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B745" s="2" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="C745" s="10" t="s">
         <v>45</v>
@@ -16549,10 +16955,13 @@
       <c r="E745" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="G745" s="2" t="s">
+        <v>1125</v>
+      </c>
     </row>
     <row r="746" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B746" s="2" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="C746" s="10" t="s">
         <v>45</v>
@@ -16563,10 +16972,13 @@
       <c r="E746" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="G746" s="2" t="s">
+        <v>1125</v>
+      </c>
     </row>
     <row r="747" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B747" s="2" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="C747" s="10" t="s">
         <v>45</v>
@@ -16577,10 +16989,13 @@
       <c r="E747" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="G747" s="2" t="s">
+        <v>1125</v>
+      </c>
     </row>
     <row r="748" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B748" s="2" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="C748" s="10" t="s">
         <v>45</v>
@@ -16591,522 +17006,1818 @@
       <c r="E748" s="10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="749" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C749" s="10"/>
-      <c r="E749" s="10"/>
-    </row>
-    <row r="750" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C750" s="10"/>
-      <c r="E750" s="10"/>
-    </row>
-    <row r="751" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C751" s="10"/>
-      <c r="E751" s="10"/>
-    </row>
-    <row r="752" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C752" s="10"/>
-      <c r="E752" s="10"/>
-    </row>
-    <row r="753" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C753" s="10"/>
-      <c r="E753" s="10"/>
-    </row>
-    <row r="754" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C754" s="10"/>
-      <c r="E754" s="10"/>
-    </row>
-    <row r="755" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C755" s="10"/>
-      <c r="E755" s="10"/>
-    </row>
-    <row r="756" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C756" s="10"/>
-      <c r="E756" s="10"/>
-    </row>
-    <row r="757" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C757" s="10"/>
-      <c r="E757" s="10"/>
-    </row>
-    <row r="758" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C758" s="10"/>
-      <c r="E758" s="10"/>
-    </row>
-    <row r="759" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C759" s="10"/>
-      <c r="E759" s="10"/>
-    </row>
-    <row r="760" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C760" s="10"/>
-      <c r="E760" s="10"/>
-    </row>
-    <row r="761" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C761" s="10"/>
-      <c r="E761" s="10"/>
-    </row>
-    <row r="762" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C762" s="10"/>
-      <c r="E762" s="10"/>
-    </row>
-    <row r="763" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C763" s="10"/>
-      <c r="E763" s="10"/>
-    </row>
-    <row r="764" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C764" s="10"/>
-      <c r="E764" s="10"/>
-    </row>
-    <row r="765" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C765" s="10"/>
-      <c r="E765" s="10"/>
-    </row>
-    <row r="766" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C766" s="10"/>
-      <c r="E766" s="10"/>
-    </row>
-    <row r="767" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C767" s="10"/>
-      <c r="E767" s="10"/>
-    </row>
-    <row r="768" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C768" s="10"/>
-      <c r="E768" s="10"/>
-    </row>
-    <row r="769" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C769" s="10"/>
-      <c r="E769" s="10"/>
-    </row>
-    <row r="770" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C770" s="10"/>
-      <c r="E770" s="10"/>
-    </row>
-    <row r="771" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C771" s="10"/>
-      <c r="E771" s="10"/>
-    </row>
-    <row r="772" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C772" s="10"/>
-      <c r="E772" s="10"/>
-    </row>
-    <row r="773" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C773" s="10"/>
-      <c r="E773" s="10"/>
-    </row>
-    <row r="774" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C774" s="10"/>
-      <c r="E774" s="10"/>
-    </row>
-    <row r="775" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C775" s="10"/>
-      <c r="E775" s="10"/>
-    </row>
-    <row r="776" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C776" s="10"/>
-      <c r="E776" s="10"/>
-    </row>
-    <row r="777" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C777" s="10"/>
-      <c r="E777" s="10"/>
-    </row>
-    <row r="778" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C778" s="10"/>
-      <c r="E778" s="10"/>
-    </row>
-    <row r="779" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C779" s="10"/>
-      <c r="E779" s="10"/>
-    </row>
-    <row r="780" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C780" s="10"/>
-      <c r="E780" s="10"/>
-    </row>
-    <row r="781" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C781" s="10"/>
-      <c r="E781" s="10"/>
-    </row>
-    <row r="782" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C782" s="10"/>
-      <c r="E782" s="10"/>
-    </row>
-    <row r="783" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C783" s="10"/>
-      <c r="E783" s="10"/>
-    </row>
-    <row r="784" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C784" s="10"/>
-      <c r="E784" s="10"/>
-    </row>
-    <row r="785" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C785" s="10"/>
-      <c r="E785" s="10"/>
-    </row>
-    <row r="786" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C786" s="10"/>
-      <c r="E786" s="10"/>
-    </row>
-    <row r="787" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C787" s="10"/>
-      <c r="E787" s="10"/>
-    </row>
-    <row r="788" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C788" s="10"/>
-      <c r="E788" s="10"/>
-    </row>
-    <row r="789" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C789" s="10"/>
-      <c r="E789" s="10"/>
-    </row>
-    <row r="790" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C790" s="10"/>
-      <c r="E790" s="10"/>
-    </row>
-    <row r="791" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C791" s="10"/>
-      <c r="E791" s="10"/>
-    </row>
-    <row r="792" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C792" s="10"/>
-      <c r="E792" s="10"/>
-    </row>
-    <row r="793" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C793" s="10"/>
-      <c r="E793" s="10"/>
-    </row>
-    <row r="794" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C794" s="10"/>
-      <c r="E794" s="10"/>
-    </row>
-    <row r="795" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C795" s="10"/>
-      <c r="E795" s="10"/>
-    </row>
-    <row r="796" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C796" s="10"/>
-      <c r="E796" s="10"/>
-    </row>
-    <row r="797" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C797" s="10"/>
-      <c r="E797" s="10"/>
-    </row>
-    <row r="798" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C798" s="10"/>
-      <c r="E798" s="10"/>
-    </row>
-    <row r="799" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C799" s="10"/>
-      <c r="E799" s="10"/>
-    </row>
-    <row r="800" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C800" s="10"/>
-      <c r="E800" s="10"/>
-    </row>
-    <row r="801" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C801" s="10"/>
-      <c r="E801" s="10"/>
-    </row>
-    <row r="802" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C802" s="10"/>
-      <c r="E802" s="10"/>
-    </row>
-    <row r="803" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C803" s="10"/>
-      <c r="E803" s="10"/>
-    </row>
-    <row r="804" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C804" s="10"/>
-      <c r="E804" s="10"/>
-    </row>
-    <row r="805" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C805" s="10"/>
-      <c r="E805" s="10"/>
-    </row>
-    <row r="806" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C806" s="10"/>
-      <c r="E806" s="10"/>
-    </row>
-    <row r="807" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C807" s="10"/>
-      <c r="E807" s="10"/>
-    </row>
-    <row r="808" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C808" s="10"/>
-      <c r="E808" s="10"/>
-    </row>
-    <row r="809" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C809" s="10"/>
-      <c r="E809" s="10"/>
-    </row>
-    <row r="810" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C810" s="10"/>
-      <c r="E810" s="10"/>
-    </row>
-    <row r="811" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C811" s="10"/>
-      <c r="E811" s="10"/>
-    </row>
-    <row r="812" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C812" s="10"/>
-      <c r="E812" s="10"/>
-    </row>
-    <row r="813" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C813" s="10"/>
-      <c r="E813" s="10"/>
-    </row>
-    <row r="814" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C814" s="10"/>
-      <c r="E814" s="10"/>
-    </row>
-    <row r="815" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C815" s="10"/>
-      <c r="E815" s="10"/>
-    </row>
-    <row r="816" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C816" s="10"/>
-      <c r="E816" s="10"/>
-    </row>
-    <row r="817" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C817" s="10"/>
-      <c r="E817" s="10"/>
-    </row>
-    <row r="818" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C818" s="10"/>
-      <c r="E818" s="10"/>
-    </row>
-    <row r="819" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C819" s="10"/>
-      <c r="E819" s="10"/>
-    </row>
-    <row r="820" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C820" s="10"/>
-      <c r="E820" s="10"/>
-    </row>
-    <row r="821" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C821" s="10"/>
-      <c r="E821" s="10"/>
-    </row>
-    <row r="822" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C822" s="10"/>
-      <c r="E822" s="10"/>
-    </row>
-    <row r="823" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C823" s="10"/>
-      <c r="E823" s="10"/>
-    </row>
-    <row r="824" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C824" s="10"/>
-      <c r="E824" s="10"/>
-    </row>
-    <row r="825" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C825" s="10"/>
-      <c r="E825" s="10"/>
-    </row>
-    <row r="826" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C826" s="10"/>
-      <c r="E826" s="10"/>
-    </row>
-    <row r="827" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C827" s="10"/>
-      <c r="E827" s="10"/>
-    </row>
-    <row r="828" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C828" s="10"/>
-      <c r="E828" s="10"/>
-    </row>
-    <row r="829" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C829" s="10"/>
-      <c r="E829" s="10"/>
-    </row>
-    <row r="830" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C830" s="10"/>
-      <c r="E830" s="10"/>
-    </row>
-    <row r="831" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C831" s="10"/>
-      <c r="E831" s="10"/>
-    </row>
-    <row r="832" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C832" s="10"/>
-      <c r="E832" s="10"/>
-    </row>
-    <row r="833" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C833" s="10"/>
-      <c r="E833" s="10"/>
-    </row>
-    <row r="834" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C834" s="10"/>
-      <c r="E834" s="10"/>
-    </row>
-    <row r="835" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C835" s="10"/>
-      <c r="E835" s="10"/>
-    </row>
-    <row r="836" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C836" s="10"/>
-      <c r="E836" s="10"/>
-    </row>
-    <row r="837" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C837" s="10"/>
-      <c r="E837" s="10"/>
-    </row>
-    <row r="838" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C838" s="10"/>
-      <c r="E838" s="10"/>
-    </row>
-    <row r="839" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C839" s="10"/>
-      <c r="E839" s="10"/>
-    </row>
-    <row r="840" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C840" s="10"/>
-      <c r="E840" s="10"/>
-    </row>
-    <row r="841" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C841" s="10"/>
-      <c r="E841" s="10"/>
-    </row>
-    <row r="842" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C842" s="10"/>
-      <c r="E842" s="10"/>
-    </row>
-    <row r="843" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C843" s="10"/>
-      <c r="E843" s="10"/>
-    </row>
-    <row r="844" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C844" s="10"/>
-      <c r="E844" s="10"/>
-    </row>
-    <row r="845" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C845" s="10"/>
-      <c r="E845" s="10"/>
-    </row>
-    <row r="846" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C846" s="10"/>
-      <c r="E846" s="10"/>
-    </row>
-    <row r="847" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C847" s="10"/>
-      <c r="E847" s="10"/>
-    </row>
-    <row r="848" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C848" s="10"/>
-      <c r="E848" s="10"/>
-    </row>
-    <row r="849" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C849" s="10"/>
-      <c r="E849" s="10"/>
-    </row>
-    <row r="850" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C850" s="10"/>
-      <c r="E850" s="10"/>
-    </row>
-    <row r="851" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C851" s="10"/>
-      <c r="E851" s="10"/>
-    </row>
-    <row r="852" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C852" s="10"/>
-      <c r="E852" s="10"/>
-    </row>
-    <row r="853" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C853" s="10"/>
-      <c r="E853" s="10"/>
-    </row>
-    <row r="854" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C854" s="10"/>
-      <c r="E854" s="10"/>
-    </row>
-    <row r="855" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C855" s="10"/>
-      <c r="E855" s="10"/>
-    </row>
-    <row r="856" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C856" s="10"/>
-      <c r="E856" s="10"/>
-    </row>
-    <row r="857" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C857" s="10"/>
-      <c r="E857" s="10"/>
-    </row>
-    <row r="858" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C858" s="10"/>
-      <c r="E858" s="10"/>
-    </row>
-    <row r="859" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C859" s="10"/>
-      <c r="E859" s="10"/>
-    </row>
-    <row r="860" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C860" s="10"/>
-      <c r="E860" s="10"/>
-    </row>
-    <row r="861" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C861" s="10"/>
-      <c r="E861" s="10"/>
-    </row>
-    <row r="862" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C862" s="10"/>
-      <c r="E862" s="10"/>
-    </row>
-    <row r="863" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C863" s="10"/>
-      <c r="E863" s="10"/>
-    </row>
-    <row r="864" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C864" s="10"/>
-      <c r="E864" s="10"/>
-    </row>
-    <row r="865" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C865" s="10"/>
-      <c r="E865" s="10"/>
-    </row>
-    <row r="866" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C866" s="10"/>
-      <c r="E866" s="10"/>
-    </row>
-    <row r="867" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C867" s="10"/>
-      <c r="E867" s="10"/>
-    </row>
-    <row r="868" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C868" s="10"/>
-      <c r="E868" s="10"/>
-    </row>
-    <row r="869" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C869" s="10"/>
-      <c r="E869" s="10"/>
-    </row>
-    <row r="870" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C870" s="10"/>
-      <c r="E870" s="10"/>
-    </row>
-    <row r="871" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C871" s="10"/>
-      <c r="E871" s="10"/>
-    </row>
-    <row r="872" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C872" s="10"/>
-      <c r="E872" s="10"/>
-    </row>
-    <row r="873" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C873" s="10"/>
-      <c r="E873" s="10"/>
-    </row>
-    <row r="874" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C874" s="10"/>
-      <c r="E874" s="10"/>
-    </row>
-    <row r="875" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C875" s="10"/>
-      <c r="E875" s="10"/>
-    </row>
-    <row r="876" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C876" s="10"/>
-      <c r="E876" s="10"/>
-    </row>
-    <row r="877" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C877" s="10"/>
-      <c r="E877" s="10"/>
+      <c r="G748" s="2" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="749" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A749" s="20" t="n">
+        <v>45123</v>
+      </c>
+      <c r="B749" s="2" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C749" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D749" s="21" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E749" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="750" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B750" s="2" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C750" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D750" s="21" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E750" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="751" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B751" s="2" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C751" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D751" s="21" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E751" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="752" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B752" s="2" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C752" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D752" s="21" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E752" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="753" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B753" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C753" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D753" s="21" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E753" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="754" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B754" s="2" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C754" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D754" s="21" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E754" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="755" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B755" s="2" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C755" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D755" s="21" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E755" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="756" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B756" s="2" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C756" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D756" s="21" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E756" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="757" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B757" s="2" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C757" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D757" s="21" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E757" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="758" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B758" s="2" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C758" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D758" s="21" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E758" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="759" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B759" s="2" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C759" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D759" s="21" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E759" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="760" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B760" s="2" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C760" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D760" s="21" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E760" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="761" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B761" s="2" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C761" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D761" s="21" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E761" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="762" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B762" s="2" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C762" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D762" s="21" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E762" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="763" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B763" s="2" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C763" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D763" s="21" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E763" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="764" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B764" s="2" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C764" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D764" s="21" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E764" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="765" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B765" s="2" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C765" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D765" s="21" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E765" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="766" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B766" s="2" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C766" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D766" s="21" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E766" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="767" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B767" s="2" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C767" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D767" s="21" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E767" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="768" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B768" s="2" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C768" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D768" s="21" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E768" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="769" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B769" s="2" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C769" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D769" s="21" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E769" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="770" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B770" s="2" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C770" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D770" s="21" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E770" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="771" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B771" s="2" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C771" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D771" s="21" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E771" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="772" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B772" s="2" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C772" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D772" s="21" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E772" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="773" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B773" s="2" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C773" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D773" s="21" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E773" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="774" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B774" s="2" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C774" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D774" s="21" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E774" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="775" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B775" s="2" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C775" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D775" s="21" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E775" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="776" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B776" s="2" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C776" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D776" s="21" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E776" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="777" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B777" s="2" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C777" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D777" s="21" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E777" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="778" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B778" s="2" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C778" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D778" s="21" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E778" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="779" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B779" s="2" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C779" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D779" s="21" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E779" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="780" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B780" s="2" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C780" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D780" s="21" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E780" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="781" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B781" s="2" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C781" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D781" s="21" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E781" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="782" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B782" s="2" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C782" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D782" s="21" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E782" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="783" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B783" s="2" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C783" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D783" s="21" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E783" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="784" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B784" s="2" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C784" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D784" s="21" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E784" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="785" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B785" s="2" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C785" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D785" s="21" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E785" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="786" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B786" s="2" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C786" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D786" s="21" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E786" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="787" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B787" s="2" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C787" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D787" s="21" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E787" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="788" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B788" s="2" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C788" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D788" s="21" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E788" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="789" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B789" s="2" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C789" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D789" s="21" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E789" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="790" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B790" s="2" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C790" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D790" s="21" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E790" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="791" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B791" s="2" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C791" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D791" s="21" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E791" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="792" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B792" s="2" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C792" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D792" s="21" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E792" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="793" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B793" s="2" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C793" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D793" s="21" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E793" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="794" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B794" s="2" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C794" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D794" s="21" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E794" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="795" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B795" s="2" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C795" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D795" s="21" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E795" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="796" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B796" s="2" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C796" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D796" s="21" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E796" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="797" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B797" s="2" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C797" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D797" s="21" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E797" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="798" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B798" s="2" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C798" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D798" s="21" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E798" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="799" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B799" s="2" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C799" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D799" s="21" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E799" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="800" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B800" s="2" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C800" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D800" s="21" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E800" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="801" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B801" s="2" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C801" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D801" s="21" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E801" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="802" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B802" s="2" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C802" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D802" s="21" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E802" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="803" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B803" s="2" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C803" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D803" s="21" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E803" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="804" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B804" s="2" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C804" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D804" s="21" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E804" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="805" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B805" s="2" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C805" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D805" s="21" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E805" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="806" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B806" s="2" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C806" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D806" s="21" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E806" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="807" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B807" s="2" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C807" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D807" s="21" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E807" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="808" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B808" s="2" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C808" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D808" s="21" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E808" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="809" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B809" s="2" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C809" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D809" s="21" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E809" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="810" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B810" s="2" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C810" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D810" s="21" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E810" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="811" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B811" s="2" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C811" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D811" s="21" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E811" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="812" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B812" s="2" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C812" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D812" s="21" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E812" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="813" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B813" s="2" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C813" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D813" s="21" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E813" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="814" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B814" s="2" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C814" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D814" s="21" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E814" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="815" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B815" s="2" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C815" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D815" s="21" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E815" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="816" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B816" s="2" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C816" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D816" s="21" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E816" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="817" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B817" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C817" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D817" s="21" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E817" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="818" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B818" s="2" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C818" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D818" s="21" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E818" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="819" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B819" s="2" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C819" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D819" s="21" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E819" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="820" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B820" s="2" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C820" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D820" s="21" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E820" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="821" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B821" s="2" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C821" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D821" s="21" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E821" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="822" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B822" s="2" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C822" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D822" s="21" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E822" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="823" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B823" s="2" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C823" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D823" s="21" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E823" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="824" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B824" s="2" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C824" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D824" s="21" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E824" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="825" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B825" s="2" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C825" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D825" s="21" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E825" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="826" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B826" s="2" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C826" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D826" s="21" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E826" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="827" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B827" s="2" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C827" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D827" s="21" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E827" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="828" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B828" s="2" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C828" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D828" s="21" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E828" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="829" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B829" s="2" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C829" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D829" s="21" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E829" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="830" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B830" s="2" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C830" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D830" s="21" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E830" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="831" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B831" s="2" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C831" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D831" s="21" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E831" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="832" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B832" s="2" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C832" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D832" s="21" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E832" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="833" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B833" s="2" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C833" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D833" s="21" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E833" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="834" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B834" s="2" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C834" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D834" s="21" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E834" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="835" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B835" s="2" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C835" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D835" s="21" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E835" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="836" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B836" s="2" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C836" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D836" s="21" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E836" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="837" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B837" s="2" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C837" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D837" s="21" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E837" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="838" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B838" s="2" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C838" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D838" s="21" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E838" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="839" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B839" s="2" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C839" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D839" s="21" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E839" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="840" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B840" s="2" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C840" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D840" s="21" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E840" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="841" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B841" s="2" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C841" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D841" s="21" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E841" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="842" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B842" s="2" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C842" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D842" s="21" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E842" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="843" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B843" s="2" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C843" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D843" s="21" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E843" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="844" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B844" s="2" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C844" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D844" s="21" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E844" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="845" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B845" s="2" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C845" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D845" s="21" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E845" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="846" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B846" s="2" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C846" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D846" s="21" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E846" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="847" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B847" s="2" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C847" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D847" s="21" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E847" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="848" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B848" s="2" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C848" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D848" s="21" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E848" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="849" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B849" s="2" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C849" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D849" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="E849" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="850" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B850" s="2" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C850" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D850" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="E850" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="851" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B851" s="2" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C851" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D851" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="E851" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="852" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B852" s="2" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C852" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D852" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="E852" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="853" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B853" s="2" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C853" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D853" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="E853" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="854" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B854" s="2" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C854" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D854" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="E854" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="855" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B855" s="2" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C855" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D855" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="E855" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="856" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B856" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C856" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D856" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="E856" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="857" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B857" s="2" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C857" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D857" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="E857" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="858" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B858" s="2" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C858" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D858" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="E858" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="859" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B859" s="2" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C859" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D859" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="E859" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="860" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B860" s="2" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C860" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D860" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="E860" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="861" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B861" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C861" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D861" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="E861" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="862" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B862" s="2" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C862" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D862" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="E862" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="863" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B863" s="2" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C863" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D863" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="E863" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="864" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B864" s="2" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C864" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D864" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="E864" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="865" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B865" s="2" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C865" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D865" s="21" t="s">
+        <v>770</v>
+      </c>
+      <c r="E865" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="866" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B866" s="2" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C866" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D866" s="21" t="s">
+        <v>770</v>
+      </c>
+      <c r="E866" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="867" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B867" s="2" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C867" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D867" s="21" t="s">
+        <v>770</v>
+      </c>
+      <c r="E867" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="868" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B868" s="2" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C868" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D868" s="21" t="s">
+        <v>770</v>
+      </c>
+      <c r="E868" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="869" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B869" s="2" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C869" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D869" s="21" t="s">
+        <v>770</v>
+      </c>
+      <c r="E869" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="870" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B870" s="2" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C870" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D870" s="21" t="s">
+        <v>770</v>
+      </c>
+      <c r="E870" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="871" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B871" s="2" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C871" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D871" s="21" t="s">
+        <v>770</v>
+      </c>
+      <c r="E871" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="872" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B872" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C872" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D872" s="21" t="s">
+        <v>770</v>
+      </c>
+      <c r="E872" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="873" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B873" s="2" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C873" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D873" s="21" t="s">
+        <v>770</v>
+      </c>
+      <c r="E873" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="874" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B874" s="2" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C874" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D874" s="21" t="s">
+        <v>770</v>
+      </c>
+      <c r="E874" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="875" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B875" s="2" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C875" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D875" s="21" t="s">
+        <v>770</v>
+      </c>
+      <c r="E875" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="876" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B876" s="2" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C876" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D876" s="21" t="s">
+        <v>770</v>
+      </c>
+      <c r="E876" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="877" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B877" s="2" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C877" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D877" s="21" t="s">
+        <v>770</v>
+      </c>
+      <c r="E877" s="10" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="878" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C878" s="10"/>
@@ -19315,6 +21026,11 @@
     <hyperlink ref="G741" r:id="rId386" display="https://github.com/HexxiumCreations/threat-list/commit/7c9643983c3e8be33e4e0e66198b2bc157219fb4"/>
     <hyperlink ref="G742" r:id="rId387" display="https://github.com/HexxiumCreations/threat-list/commit/7c9643983c3e8be33e4e0e66198b2bc157219fb4"/>
     <hyperlink ref="G743" r:id="rId388" display="https://github.com/HexxiumCreations/threat-list/commit/7c9643983c3e8be33e4e0e66198b2bc157219fb4"/>
+    <hyperlink ref="G744" r:id="rId389" display="https://github.com/HexxiumCreations/threat-list/commit/dd9ca027fdb70dff651ab9e7b564b643000343e3"/>
+    <hyperlink ref="G745" r:id="rId390" display="https://github.com/HexxiumCreations/threat-list/commit/dd9ca027fdb70dff651ab9e7b564b643000343e3"/>
+    <hyperlink ref="G746" r:id="rId391" display="https://github.com/HexxiumCreations/threat-list/commit/dd9ca027fdb70dff651ab9e7b564b643000343e3"/>
+    <hyperlink ref="G747" r:id="rId392" display="https://github.com/HexxiumCreations/threat-list/commit/dd9ca027fdb70dff651ab9e7b564b643000343e3"/>
+    <hyperlink ref="G748" r:id="rId393" display="https://github.com/HexxiumCreations/threat-list/commit/dd9ca027fdb70dff651ab9e7b564b643000343e3"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/Hexxium Creations Master Threat List.xlsx
+++ b/Hexxium Creations Master Threat List.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4221" uniqueCount="1260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4442" uniqueCount="1284">
   <si>
     <t xml:space="preserve">HEXXIUM CREATIONS THREAT LIST MASTER LOGBOOK</t>
   </si>
@@ -3438,6 +3438,9 @@
     <t xml:space="preserve">Hosted on same host as other phishing domains (185.106.93.4); high probability of abuse</t>
   </si>
   <si>
+    <t xml:space="preserve">https://github.com/HexxiumCreations/threat-list/commit/a12a6cdb1c4a6b3ac21a8860877ec5e85e07c11f</t>
+  </si>
+  <si>
     <t xml:space="preserve">steamcommunicy.com</t>
   </si>
   <si>
@@ -3820,6 +3823,75 @@
   </si>
   <si>
     <t xml:space="preserve">steamcomnmuinty.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steacmcoumunity.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">my-giftes.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">source-2beta.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamconmunitu.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">giftcase-lucky.site</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steanmconmminnity.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">last-gifts.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steaimcoumunnity.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">top-glfts.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steanmcomnnunilty.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcomunuetiu.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamscommunity.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steemscomnmunity.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steanmscommunlity.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steanmpowered.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steanmscomminnity.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcommunutiuy.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stearnscommunitly.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steanscommunity.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">csgo2-sourse.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steanmconmnmunnity.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sourse-2beta.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcomunnutiuy.com</t>
   </si>
 </sst>
 </file>
@@ -3830,7 +3902,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="[$-F800]dddd&quot;, &quot;mmmm\ dd&quot;, &quot;yyyy"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -3944,12 +4016,6 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -4038,7 +4104,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4121,10 +4187,6 @@
     </xf>
     <xf numFmtId="165" fontId="15" fillId="2" borderId="0" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -4212,8 +4274,8 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A723" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G749" activeCellId="0" sqref="G749"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A858" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E878" activeCellId="0" sqref="E878:E900"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17011,7 +17073,7 @@
       </c>
     </row>
     <row r="749" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A749" s="20" t="n">
+      <c r="A749" s="1" t="n">
         <v>45123</v>
       </c>
       <c r="B749" s="2" t="s">
@@ -17020,1402 +17082,1702 @@
       <c r="C749" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D749" s="21" t="s">
+      <c r="D749" s="19" t="s">
         <v>1131</v>
       </c>
       <c r="E749" s="10" t="s">
         <v>13</v>
+      </c>
+      <c r="G749" s="2" t="s">
+        <v>1132</v>
       </c>
     </row>
     <row r="750" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B750" s="2" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C750" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D750" s="19" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E750" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G750" s="2" t="s">
         <v>1132</v>
-      </c>
-      <c r="C750" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D750" s="21" t="s">
-        <v>1131</v>
-      </c>
-      <c r="E750" s="10" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="751" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B751" s="2" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="C751" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D751" s="21" t="s">
+      <c r="D751" s="19" t="s">
         <v>1131</v>
       </c>
       <c r="E751" s="10" t="s">
         <v>13</v>
+      </c>
+      <c r="G751" s="2" t="s">
+        <v>1132</v>
       </c>
     </row>
     <row r="752" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B752" s="2" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="C752" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D752" s="21" t="s">
+      <c r="D752" s="19" t="s">
         <v>1131</v>
       </c>
       <c r="E752" s="10" t="s">
         <v>13</v>
+      </c>
+      <c r="G752" s="2" t="s">
+        <v>1132</v>
       </c>
     </row>
     <row r="753" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B753" s="2" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="C753" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D753" s="21" t="s">
+      <c r="D753" s="19" t="s">
         <v>1131</v>
       </c>
       <c r="E753" s="10" t="s">
         <v>13</v>
+      </c>
+      <c r="G753" s="2" t="s">
+        <v>1132</v>
       </c>
     </row>
     <row r="754" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B754" s="2" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="C754" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D754" s="21" t="s">
+      <c r="D754" s="19" t="s">
         <v>1131</v>
       </c>
       <c r="E754" s="10" t="s">
         <v>13</v>
+      </c>
+      <c r="G754" s="2" t="s">
+        <v>1132</v>
       </c>
     </row>
     <row r="755" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B755" s="2" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="C755" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D755" s="21" t="s">
+      <c r="D755" s="19" t="s">
         <v>1131</v>
       </c>
       <c r="E755" s="10" t="s">
         <v>13</v>
+      </c>
+      <c r="G755" s="2" t="s">
+        <v>1132</v>
       </c>
     </row>
     <row r="756" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B756" s="2" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="C756" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D756" s="21" t="s">
+      <c r="D756" s="19" t="s">
         <v>1131</v>
       </c>
       <c r="E756" s="10" t="s">
         <v>13</v>
+      </c>
+      <c r="G756" s="2" t="s">
+        <v>1132</v>
       </c>
     </row>
     <row r="757" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B757" s="2" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="C757" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D757" s="21" t="s">
+      <c r="D757" s="19" t="s">
         <v>1131</v>
       </c>
       <c r="E757" s="10" t="s">
         <v>13</v>
+      </c>
+      <c r="G757" s="2" t="s">
+        <v>1132</v>
       </c>
     </row>
     <row r="758" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B758" s="2" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="C758" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D758" s="21" t="s">
+      <c r="D758" s="19" t="s">
         <v>1131</v>
       </c>
       <c r="E758" s="10" t="s">
         <v>13</v>
+      </c>
+      <c r="G758" s="2" t="s">
+        <v>1132</v>
       </c>
     </row>
     <row r="759" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B759" s="2" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="C759" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D759" s="21" t="s">
+      <c r="D759" s="19" t="s">
         <v>1131</v>
       </c>
       <c r="E759" s="10" t="s">
         <v>13</v>
+      </c>
+      <c r="G759" s="2" t="s">
+        <v>1132</v>
       </c>
     </row>
     <row r="760" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B760" s="2" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="C760" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D760" s="21" t="s">
+      <c r="D760" s="19" t="s">
         <v>1131</v>
       </c>
       <c r="E760" s="10" t="s">
         <v>13</v>
+      </c>
+      <c r="G760" s="2" t="s">
+        <v>1132</v>
       </c>
     </row>
     <row r="761" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B761" s="2" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="C761" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D761" s="21" t="s">
+      <c r="D761" s="19" t="s">
         <v>1131</v>
       </c>
       <c r="E761" s="10" t="s">
         <v>13</v>
+      </c>
+      <c r="G761" s="2" t="s">
+        <v>1132</v>
       </c>
     </row>
     <row r="762" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B762" s="2" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="C762" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D762" s="21" t="s">
+      <c r="D762" s="19" t="s">
         <v>1131</v>
       </c>
       <c r="E762" s="10" t="s">
         <v>13</v>
+      </c>
+      <c r="G762" s="2" t="s">
+        <v>1132</v>
       </c>
     </row>
     <row r="763" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B763" s="2" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="C763" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D763" s="21" t="s">
+      <c r="D763" s="19" t="s">
         <v>1131</v>
       </c>
       <c r="E763" s="10" t="s">
         <v>13</v>
+      </c>
+      <c r="G763" s="2" t="s">
+        <v>1132</v>
       </c>
     </row>
     <row r="764" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B764" s="2" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="C764" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D764" s="21" t="s">
+      <c r="D764" s="19" t="s">
         <v>1131</v>
       </c>
       <c r="E764" s="10" t="s">
         <v>13</v>
+      </c>
+      <c r="G764" s="2" t="s">
+        <v>1132</v>
       </c>
     </row>
     <row r="765" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B765" s="2" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="C765" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D765" s="21" t="s">
+      <c r="D765" s="19" t="s">
         <v>1131</v>
       </c>
       <c r="E765" s="10" t="s">
         <v>13</v>
+      </c>
+      <c r="G765" s="2" t="s">
+        <v>1132</v>
       </c>
     </row>
     <row r="766" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B766" s="2" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="C766" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D766" s="21" t="s">
+      <c r="D766" s="19" t="s">
         <v>1131</v>
       </c>
       <c r="E766" s="10" t="s">
         <v>13</v>
+      </c>
+      <c r="G766" s="2" t="s">
+        <v>1132</v>
       </c>
     </row>
     <row r="767" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B767" s="2" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="C767" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D767" s="21" t="s">
+      <c r="D767" s="19" t="s">
         <v>1131</v>
       </c>
       <c r="E767" s="10" t="s">
         <v>13</v>
+      </c>
+      <c r="G767" s="2" t="s">
+        <v>1132</v>
       </c>
     </row>
     <row r="768" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B768" s="2" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="C768" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D768" s="21" t="s">
+      <c r="D768" s="19" t="s">
         <v>1131</v>
       </c>
       <c r="E768" s="10" t="s">
         <v>13</v>
+      </c>
+      <c r="G768" s="2" t="s">
+        <v>1132</v>
       </c>
     </row>
     <row r="769" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B769" s="2" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="C769" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D769" s="21" t="s">
+      <c r="D769" s="19" t="s">
         <v>1131</v>
       </c>
       <c r="E769" s="10" t="s">
         <v>13</v>
+      </c>
+      <c r="G769" s="2" t="s">
+        <v>1132</v>
       </c>
     </row>
     <row r="770" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B770" s="2" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="C770" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D770" s="21" t="s">
+      <c r="D770" s="19" t="s">
         <v>1131</v>
       </c>
       <c r="E770" s="10" t="s">
         <v>13</v>
+      </c>
+      <c r="G770" s="2" t="s">
+        <v>1132</v>
       </c>
     </row>
     <row r="771" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B771" s="2" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="C771" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D771" s="21" t="s">
+      <c r="D771" s="19" t="s">
         <v>1131</v>
       </c>
       <c r="E771" s="10" t="s">
         <v>13</v>
+      </c>
+      <c r="G771" s="2" t="s">
+        <v>1132</v>
       </c>
     </row>
     <row r="772" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B772" s="2" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="C772" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D772" s="21" t="s">
+      <c r="D772" s="19" t="s">
         <v>1131</v>
       </c>
       <c r="E772" s="10" t="s">
         <v>13</v>
+      </c>
+      <c r="G772" s="2" t="s">
+        <v>1132</v>
       </c>
     </row>
     <row r="773" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B773" s="2" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="C773" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D773" s="21" t="s">
+      <c r="D773" s="19" t="s">
         <v>1131</v>
       </c>
       <c r="E773" s="10" t="s">
         <v>13</v>
+      </c>
+      <c r="G773" s="2" t="s">
+        <v>1132</v>
       </c>
     </row>
     <row r="774" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B774" s="2" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="C774" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D774" s="21" t="s">
+      <c r="D774" s="19" t="s">
         <v>1131</v>
       </c>
       <c r="E774" s="10" t="s">
         <v>13</v>
+      </c>
+      <c r="G774" s="2" t="s">
+        <v>1132</v>
       </c>
     </row>
     <row r="775" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B775" s="2" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="C775" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D775" s="21" t="s">
+      <c r="D775" s="19" t="s">
         <v>1131</v>
       </c>
       <c r="E775" s="10" t="s">
         <v>13</v>
+      </c>
+      <c r="G775" s="2" t="s">
+        <v>1132</v>
       </c>
     </row>
     <row r="776" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B776" s="2" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="C776" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D776" s="21" t="s">
+      <c r="D776" s="19" t="s">
         <v>1131</v>
       </c>
       <c r="E776" s="10" t="s">
         <v>13</v>
+      </c>
+      <c r="G776" s="2" t="s">
+        <v>1132</v>
       </c>
     </row>
     <row r="777" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B777" s="2" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="C777" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D777" s="21" t="s">
+      <c r="D777" s="19" t="s">
         <v>1131</v>
       </c>
       <c r="E777" s="10" t="s">
         <v>13</v>
+      </c>
+      <c r="G777" s="2" t="s">
+        <v>1132</v>
       </c>
     </row>
     <row r="778" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B778" s="2" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="C778" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D778" s="21" t="s">
+      <c r="D778" s="19" t="s">
         <v>1131</v>
       </c>
       <c r="E778" s="10" t="s">
         <v>13</v>
+      </c>
+      <c r="G778" s="2" t="s">
+        <v>1132</v>
       </c>
     </row>
     <row r="779" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B779" s="2" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="C779" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D779" s="21" t="s">
+      <c r="D779" s="19" t="s">
         <v>1131</v>
       </c>
       <c r="E779" s="10" t="s">
         <v>13</v>
+      </c>
+      <c r="G779" s="2" t="s">
+        <v>1132</v>
       </c>
     </row>
     <row r="780" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B780" s="2" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="C780" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D780" s="21" t="s">
+      <c r="D780" s="19" t="s">
         <v>1131</v>
       </c>
       <c r="E780" s="10" t="s">
         <v>13</v>
+      </c>
+      <c r="G780" s="2" t="s">
+        <v>1132</v>
       </c>
     </row>
     <row r="781" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B781" s="2" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="C781" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D781" s="21" t="s">
+      <c r="D781" s="19" t="s">
         <v>1131</v>
       </c>
       <c r="E781" s="10" t="s">
         <v>13</v>
+      </c>
+      <c r="G781" s="2" t="s">
+        <v>1132</v>
       </c>
     </row>
     <row r="782" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B782" s="2" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="C782" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D782" s="21" t="s">
+      <c r="D782" s="19" t="s">
         <v>1131</v>
       </c>
       <c r="E782" s="10" t="s">
         <v>13</v>
+      </c>
+      <c r="G782" s="2" t="s">
+        <v>1132</v>
       </c>
     </row>
     <row r="783" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B783" s="2" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="C783" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D783" s="21" t="s">
+      <c r="D783" s="19" t="s">
         <v>1131</v>
       </c>
       <c r="E783" s="10" t="s">
         <v>13</v>
+      </c>
+      <c r="G783" s="2" t="s">
+        <v>1132</v>
       </c>
     </row>
     <row r="784" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B784" s="2" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="C784" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D784" s="21" t="s">
+      <c r="D784" s="19" t="s">
         <v>1131</v>
       </c>
       <c r="E784" s="10" t="s">
         <v>13</v>
+      </c>
+      <c r="G784" s="2" t="s">
+        <v>1132</v>
       </c>
     </row>
     <row r="785" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B785" s="2" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="C785" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D785" s="21" t="s">
+      <c r="D785" s="19" t="s">
         <v>1131</v>
       </c>
       <c r="E785" s="10" t="s">
         <v>13</v>
+      </c>
+      <c r="G785" s="2" t="s">
+        <v>1132</v>
       </c>
     </row>
     <row r="786" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B786" s="2" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="C786" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D786" s="21" t="s">
+      <c r="D786" s="19" t="s">
         <v>1131</v>
       </c>
       <c r="E786" s="10" t="s">
         <v>13</v>
+      </c>
+      <c r="G786" s="2" t="s">
+        <v>1132</v>
       </c>
     </row>
     <row r="787" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B787" s="2" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="C787" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D787" s="21" t="s">
+      <c r="D787" s="19" t="s">
         <v>1131</v>
       </c>
       <c r="E787" s="10" t="s">
         <v>13</v>
+      </c>
+      <c r="G787" s="2" t="s">
+        <v>1132</v>
       </c>
     </row>
     <row r="788" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B788" s="2" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="C788" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D788" s="21" t="s">
+      <c r="D788" s="19" t="s">
         <v>1131</v>
       </c>
       <c r="E788" s="10" t="s">
         <v>13</v>
+      </c>
+      <c r="G788" s="2" t="s">
+        <v>1132</v>
       </c>
     </row>
     <row r="789" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B789" s="2" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="C789" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D789" s="21" t="s">
+      <c r="D789" s="19" t="s">
         <v>1131</v>
       </c>
       <c r="E789" s="10" t="s">
         <v>13</v>
+      </c>
+      <c r="G789" s="2" t="s">
+        <v>1132</v>
       </c>
     </row>
     <row r="790" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B790" s="2" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="C790" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D790" s="21" t="s">
+      <c r="D790" s="19" t="s">
         <v>1131</v>
       </c>
       <c r="E790" s="10" t="s">
         <v>13</v>
+      </c>
+      <c r="G790" s="2" t="s">
+        <v>1132</v>
       </c>
     </row>
     <row r="791" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B791" s="2" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="C791" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D791" s="21" t="s">
+      <c r="D791" s="19" t="s">
         <v>1131</v>
       </c>
       <c r="E791" s="10" t="s">
         <v>13</v>
+      </c>
+      <c r="G791" s="2" t="s">
+        <v>1132</v>
       </c>
     </row>
     <row r="792" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B792" s="2" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="C792" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D792" s="21" t="s">
+      <c r="D792" s="19" t="s">
         <v>1131</v>
       </c>
       <c r="E792" s="10" t="s">
         <v>13</v>
+      </c>
+      <c r="G792" s="2" t="s">
+        <v>1132</v>
       </c>
     </row>
     <row r="793" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B793" s="2" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="C793" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D793" s="21" t="s">
+      <c r="D793" s="19" t="s">
         <v>1131</v>
       </c>
       <c r="E793" s="10" t="s">
         <v>13</v>
+      </c>
+      <c r="G793" s="2" t="s">
+        <v>1132</v>
       </c>
     </row>
     <row r="794" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B794" s="2" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="C794" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D794" s="21" t="s">
+      <c r="D794" s="19" t="s">
         <v>1131</v>
       </c>
       <c r="E794" s="10" t="s">
         <v>13</v>
+      </c>
+      <c r="G794" s="2" t="s">
+        <v>1132</v>
       </c>
     </row>
     <row r="795" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B795" s="2" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="C795" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D795" s="21" t="s">
+      <c r="D795" s="19" t="s">
         <v>1131</v>
       </c>
       <c r="E795" s="10" t="s">
         <v>13</v>
+      </c>
+      <c r="G795" s="2" t="s">
+        <v>1132</v>
       </c>
     </row>
     <row r="796" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B796" s="2" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="C796" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D796" s="21" t="s">
+      <c r="D796" s="19" t="s">
         <v>1131</v>
       </c>
       <c r="E796" s="10" t="s">
         <v>13</v>
+      </c>
+      <c r="G796" s="2" t="s">
+        <v>1132</v>
       </c>
     </row>
     <row r="797" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B797" s="2" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="C797" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D797" s="21" t="s">
+      <c r="D797" s="19" t="s">
         <v>1131</v>
       </c>
       <c r="E797" s="10" t="s">
         <v>13</v>
+      </c>
+      <c r="G797" s="2" t="s">
+        <v>1132</v>
       </c>
     </row>
     <row r="798" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B798" s="2" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="C798" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D798" s="21" t="s">
+      <c r="D798" s="19" t="s">
         <v>1131</v>
       </c>
       <c r="E798" s="10" t="s">
         <v>13</v>
+      </c>
+      <c r="G798" s="2" t="s">
+        <v>1132</v>
       </c>
     </row>
     <row r="799" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B799" s="2" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="C799" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D799" s="21" t="s">
+      <c r="D799" s="19" t="s">
         <v>1131</v>
       </c>
       <c r="E799" s="10" t="s">
         <v>13</v>
+      </c>
+      <c r="G799" s="2" t="s">
+        <v>1132</v>
       </c>
     </row>
     <row r="800" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B800" s="2" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="C800" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D800" s="21" t="s">
+      <c r="D800" s="19" t="s">
         <v>1131</v>
       </c>
       <c r="E800" s="10" t="s">
         <v>13</v>
+      </c>
+      <c r="G800" s="2" t="s">
+        <v>1132</v>
       </c>
     </row>
     <row r="801" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B801" s="2" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="C801" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D801" s="21" t="s">
+      <c r="D801" s="19" t="s">
         <v>1131</v>
       </c>
       <c r="E801" s="10" t="s">
         <v>13</v>
+      </c>
+      <c r="G801" s="2" t="s">
+        <v>1132</v>
       </c>
     </row>
     <row r="802" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B802" s="2" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="C802" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D802" s="21" t="s">
+      <c r="D802" s="19" t="s">
         <v>1131</v>
       </c>
       <c r="E802" s="10" t="s">
         <v>13</v>
+      </c>
+      <c r="G802" s="2" t="s">
+        <v>1132</v>
       </c>
     </row>
     <row r="803" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B803" s="2" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="C803" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D803" s="21" t="s">
+      <c r="D803" s="19" t="s">
         <v>1131</v>
       </c>
       <c r="E803" s="10" t="s">
         <v>13</v>
+      </c>
+      <c r="G803" s="2" t="s">
+        <v>1132</v>
       </c>
     </row>
     <row r="804" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B804" s="2" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="C804" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D804" s="21" t="s">
+      <c r="D804" s="19" t="s">
         <v>1131</v>
       </c>
       <c r="E804" s="10" t="s">
         <v>13</v>
+      </c>
+      <c r="G804" s="2" t="s">
+        <v>1132</v>
       </c>
     </row>
     <row r="805" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B805" s="2" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="C805" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D805" s="21" t="s">
+      <c r="D805" s="19" t="s">
         <v>1131</v>
       </c>
       <c r="E805" s="10" t="s">
         <v>13</v>
+      </c>
+      <c r="G805" s="2" t="s">
+        <v>1132</v>
       </c>
     </row>
     <row r="806" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B806" s="2" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="C806" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D806" s="21" t="s">
+      <c r="D806" s="19" t="s">
         <v>1131</v>
       </c>
       <c r="E806" s="10" t="s">
         <v>13</v>
+      </c>
+      <c r="G806" s="2" t="s">
+        <v>1132</v>
       </c>
     </row>
     <row r="807" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B807" s="2" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="C807" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D807" s="21" t="s">
+      <c r="D807" s="19" t="s">
         <v>1131</v>
       </c>
       <c r="E807" s="10" t="s">
         <v>13</v>
+      </c>
+      <c r="G807" s="2" t="s">
+        <v>1132</v>
       </c>
     </row>
     <row r="808" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B808" s="2" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="C808" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D808" s="21" t="s">
+      <c r="D808" s="19" t="s">
         <v>1131</v>
       </c>
       <c r="E808" s="10" t="s">
         <v>13</v>
+      </c>
+      <c r="G808" s="2" t="s">
+        <v>1132</v>
       </c>
     </row>
     <row r="809" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B809" s="2" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="C809" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D809" s="21" t="s">
+      <c r="D809" s="19" t="s">
         <v>1131</v>
       </c>
       <c r="E809" s="10" t="s">
         <v>13</v>
+      </c>
+      <c r="G809" s="2" t="s">
+        <v>1132</v>
       </c>
     </row>
     <row r="810" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B810" s="2" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="C810" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D810" s="21" t="s">
+      <c r="D810" s="19" t="s">
         <v>1131</v>
       </c>
       <c r="E810" s="10" t="s">
         <v>13</v>
+      </c>
+      <c r="G810" s="2" t="s">
+        <v>1132</v>
       </c>
     </row>
     <row r="811" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B811" s="2" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="C811" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D811" s="21" t="s">
+      <c r="D811" s="19" t="s">
         <v>1131</v>
       </c>
       <c r="E811" s="10" t="s">
         <v>13</v>
+      </c>
+      <c r="G811" s="2" t="s">
+        <v>1132</v>
       </c>
     </row>
     <row r="812" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B812" s="2" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="C812" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D812" s="21" t="s">
+      <c r="D812" s="19" t="s">
         <v>1131</v>
       </c>
       <c r="E812" s="10" t="s">
         <v>13</v>
+      </c>
+      <c r="G812" s="2" t="s">
+        <v>1132</v>
       </c>
     </row>
     <row r="813" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B813" s="2" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="C813" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D813" s="21" t="s">
+      <c r="D813" s="19" t="s">
         <v>1131</v>
       </c>
       <c r="E813" s="10" t="s">
         <v>13</v>
+      </c>
+      <c r="G813" s="2" t="s">
+        <v>1132</v>
       </c>
     </row>
     <row r="814" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B814" s="2" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="C814" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D814" s="21" t="s">
+      <c r="D814" s="19" t="s">
         <v>1131</v>
       </c>
       <c r="E814" s="10" t="s">
         <v>13</v>
+      </c>
+      <c r="G814" s="2" t="s">
+        <v>1132</v>
       </c>
     </row>
     <row r="815" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B815" s="2" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="C815" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D815" s="21" t="s">
+      <c r="D815" s="19" t="s">
         <v>1131</v>
       </c>
       <c r="E815" s="10" t="s">
         <v>13</v>
+      </c>
+      <c r="G815" s="2" t="s">
+        <v>1132</v>
       </c>
     </row>
     <row r="816" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B816" s="2" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="C816" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D816" s="21" t="s">
+      <c r="D816" s="19" t="s">
         <v>1131</v>
       </c>
       <c r="E816" s="10" t="s">
         <v>13</v>
+      </c>
+      <c r="G816" s="2" t="s">
+        <v>1132</v>
       </c>
     </row>
     <row r="817" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B817" s="2" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="C817" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D817" s="21" t="s">
+      <c r="D817" s="19" t="s">
         <v>1131</v>
       </c>
       <c r="E817" s="10" t="s">
         <v>13</v>
+      </c>
+      <c r="G817" s="2" t="s">
+        <v>1132</v>
       </c>
     </row>
     <row r="818" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B818" s="2" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="C818" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D818" s="21" t="s">
+      <c r="D818" s="19" t="s">
         <v>1131</v>
       </c>
       <c r="E818" s="10" t="s">
         <v>13</v>
+      </c>
+      <c r="G818" s="2" t="s">
+        <v>1132</v>
       </c>
     </row>
     <row r="819" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B819" s="2" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="C819" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D819" s="21" t="s">
+      <c r="D819" s="19" t="s">
         <v>1131</v>
       </c>
       <c r="E819" s="10" t="s">
         <v>13</v>
+      </c>
+      <c r="G819" s="2" t="s">
+        <v>1132</v>
       </c>
     </row>
     <row r="820" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B820" s="2" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="C820" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D820" s="21" t="s">
+      <c r="D820" s="19" t="s">
         <v>1131</v>
       </c>
       <c r="E820" s="10" t="s">
         <v>13</v>
+      </c>
+      <c r="G820" s="2" t="s">
+        <v>1132</v>
       </c>
     </row>
     <row r="821" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B821" s="2" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="C821" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D821" s="21" t="s">
+      <c r="D821" s="19" t="s">
         <v>1131</v>
       </c>
       <c r="E821" s="10" t="s">
         <v>13</v>
+      </c>
+      <c r="G821" s="2" t="s">
+        <v>1132</v>
       </c>
     </row>
     <row r="822" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B822" s="2" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="C822" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D822" s="21" t="s">
+      <c r="D822" s="19" t="s">
         <v>1131</v>
       </c>
       <c r="E822" s="10" t="s">
         <v>13</v>
+      </c>
+      <c r="G822" s="2" t="s">
+        <v>1132</v>
       </c>
     </row>
     <row r="823" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B823" s="2" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="C823" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D823" s="21" t="s">
+      <c r="D823" s="19" t="s">
         <v>1131</v>
       </c>
       <c r="E823" s="10" t="s">
         <v>13</v>
+      </c>
+      <c r="G823" s="2" t="s">
+        <v>1132</v>
       </c>
     </row>
     <row r="824" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B824" s="2" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="C824" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D824" s="21" t="s">
+      <c r="D824" s="19" t="s">
         <v>1131</v>
       </c>
       <c r="E824" s="10" t="s">
         <v>13</v>
+      </c>
+      <c r="G824" s="2" t="s">
+        <v>1132</v>
       </c>
     </row>
     <row r="825" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B825" s="2" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="C825" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D825" s="21" t="s">
+      <c r="D825" s="19" t="s">
         <v>1131</v>
       </c>
       <c r="E825" s="10" t="s">
         <v>13</v>
+      </c>
+      <c r="G825" s="2" t="s">
+        <v>1132</v>
       </c>
     </row>
     <row r="826" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B826" s="2" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="C826" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D826" s="21" t="s">
+      <c r="D826" s="19" t="s">
         <v>1131</v>
       </c>
       <c r="E826" s="10" t="s">
         <v>13</v>
+      </c>
+      <c r="G826" s="2" t="s">
+        <v>1132</v>
       </c>
     </row>
     <row r="827" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B827" s="2" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="C827" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D827" s="21" t="s">
+      <c r="D827" s="19" t="s">
         <v>1131</v>
       </c>
       <c r="E827" s="10" t="s">
         <v>13</v>
+      </c>
+      <c r="G827" s="2" t="s">
+        <v>1132</v>
       </c>
     </row>
     <row r="828" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B828" s="2" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="C828" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D828" s="21" t="s">
+      <c r="D828" s="19" t="s">
         <v>1131</v>
       </c>
       <c r="E828" s="10" t="s">
         <v>13</v>
+      </c>
+      <c r="G828" s="2" t="s">
+        <v>1132</v>
       </c>
     </row>
     <row r="829" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B829" s="2" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="C829" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D829" s="21" t="s">
+      <c r="D829" s="19" t="s">
         <v>1131</v>
       </c>
       <c r="E829" s="10" t="s">
         <v>13</v>
+      </c>
+      <c r="G829" s="2" t="s">
+        <v>1132</v>
       </c>
     </row>
     <row r="830" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B830" s="2" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="C830" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D830" s="21" t="s">
+      <c r="D830" s="19" t="s">
         <v>1131</v>
       </c>
       <c r="E830" s="10" t="s">
         <v>13</v>
+      </c>
+      <c r="G830" s="2" t="s">
+        <v>1132</v>
       </c>
     </row>
     <row r="831" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B831" s="2" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="C831" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D831" s="21" t="s">
+      <c r="D831" s="19" t="s">
         <v>1131</v>
       </c>
       <c r="E831" s="10" t="s">
         <v>13</v>
+      </c>
+      <c r="G831" s="2" t="s">
+        <v>1132</v>
       </c>
     </row>
     <row r="832" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B832" s="2" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="C832" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D832" s="21" t="s">
+      <c r="D832" s="19" t="s">
         <v>1131</v>
       </c>
       <c r="E832" s="10" t="s">
         <v>13</v>
+      </c>
+      <c r="G832" s="2" t="s">
+        <v>1132</v>
       </c>
     </row>
     <row r="833" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B833" s="2" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="C833" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D833" s="21" t="s">
+      <c r="D833" s="19" t="s">
         <v>1131</v>
       </c>
       <c r="E833" s="10" t="s">
         <v>13</v>
+      </c>
+      <c r="G833" s="2" t="s">
+        <v>1132</v>
       </c>
     </row>
     <row r="834" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B834" s="2" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="C834" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D834" s="21" t="s">
+      <c r="D834" s="19" t="s">
         <v>1131</v>
       </c>
       <c r="E834" s="10" t="s">
         <v>13</v>
+      </c>
+      <c r="G834" s="2" t="s">
+        <v>1132</v>
       </c>
     </row>
     <row r="835" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B835" s="2" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="C835" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D835" s="21" t="s">
+      <c r="D835" s="19" t="s">
         <v>1131</v>
       </c>
       <c r="E835" s="10" t="s">
         <v>13</v>
+      </c>
+      <c r="G835" s="2" t="s">
+        <v>1132</v>
       </c>
     </row>
     <row r="836" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B836" s="2" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="C836" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D836" s="21" t="s">
+      <c r="D836" s="19" t="s">
         <v>1131</v>
       </c>
       <c r="E836" s="10" t="s">
         <v>13</v>
+      </c>
+      <c r="G836" s="2" t="s">
+        <v>1132</v>
       </c>
     </row>
     <row r="837" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B837" s="2" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="C837" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D837" s="21" t="s">
+      <c r="D837" s="19" t="s">
         <v>1131</v>
       </c>
       <c r="E837" s="10" t="s">
         <v>13</v>
+      </c>
+      <c r="G837" s="2" t="s">
+        <v>1132</v>
       </c>
     </row>
     <row r="838" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B838" s="2" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="C838" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D838" s="21" t="s">
+      <c r="D838" s="19" t="s">
         <v>1131</v>
       </c>
       <c r="E838" s="10" t="s">
         <v>13</v>
+      </c>
+      <c r="G838" s="2" t="s">
+        <v>1132</v>
       </c>
     </row>
     <row r="839" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B839" s="2" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="C839" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D839" s="21" t="s">
+      <c r="D839" s="19" t="s">
         <v>1131</v>
       </c>
       <c r="E839" s="10" t="s">
         <v>13</v>
+      </c>
+      <c r="G839" s="2" t="s">
+        <v>1132</v>
       </c>
     </row>
     <row r="840" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B840" s="2" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="C840" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D840" s="21" t="s">
+      <c r="D840" s="19" t="s">
         <v>1131</v>
       </c>
       <c r="E840" s="10" t="s">
         <v>13</v>
+      </c>
+      <c r="G840" s="2" t="s">
+        <v>1132</v>
       </c>
     </row>
     <row r="841" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B841" s="2" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="C841" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D841" s="21" t="s">
+      <c r="D841" s="19" t="s">
         <v>1131</v>
       </c>
       <c r="E841" s="10" t="s">
         <v>13</v>
+      </c>
+      <c r="G841" s="2" t="s">
+        <v>1132</v>
       </c>
     </row>
     <row r="842" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B842" s="2" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="C842" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D842" s="21" t="s">
+      <c r="D842" s="19" t="s">
         <v>1131</v>
       </c>
       <c r="E842" s="10" t="s">
         <v>13</v>
+      </c>
+      <c r="G842" s="2" t="s">
+        <v>1132</v>
       </c>
     </row>
     <row r="843" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B843" s="2" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="C843" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D843" s="21" t="s">
+      <c r="D843" s="19" t="s">
         <v>1131</v>
       </c>
       <c r="E843" s="10" t="s">
         <v>13</v>
+      </c>
+      <c r="G843" s="2" t="s">
+        <v>1132</v>
       </c>
     </row>
     <row r="844" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B844" s="2" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="C844" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D844" s="21" t="s">
+      <c r="D844" s="19" t="s">
         <v>1131</v>
       </c>
       <c r="E844" s="10" t="s">
         <v>13</v>
+      </c>
+      <c r="G844" s="2" t="s">
+        <v>1132</v>
       </c>
     </row>
     <row r="845" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B845" s="2" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="C845" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D845" s="21" t="s">
+      <c r="D845" s="19" t="s">
         <v>1131</v>
       </c>
       <c r="E845" s="10" t="s">
         <v>13</v>
+      </c>
+      <c r="G845" s="2" t="s">
+        <v>1132</v>
       </c>
     </row>
     <row r="846" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B846" s="2" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="C846" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D846" s="21" t="s">
+      <c r="D846" s="19" t="s">
         <v>1131</v>
       </c>
       <c r="E846" s="10" t="s">
         <v>13</v>
+      </c>
+      <c r="G846" s="2" t="s">
+        <v>1132</v>
       </c>
     </row>
     <row r="847" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B847" s="2" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="C847" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D847" s="21" t="s">
+      <c r="D847" s="19" t="s">
         <v>1131</v>
       </c>
       <c r="E847" s="10" t="s">
         <v>13</v>
+      </c>
+      <c r="G847" s="2" t="s">
+        <v>1132</v>
       </c>
     </row>
     <row r="848" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B848" s="2" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="C848" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D848" s="21" t="s">
+      <c r="D848" s="19" t="s">
         <v>1131</v>
       </c>
       <c r="E848" s="10" t="s">
         <v>13</v>
+      </c>
+      <c r="G848" s="2" t="s">
+        <v>1132</v>
       </c>
     </row>
     <row r="849" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B849" s="2" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="C849" s="10" t="s">
         <v>45</v>
@@ -18426,10 +18788,13 @@
       <c r="E849" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="G849" s="2" t="s">
+        <v>1132</v>
+      </c>
     </row>
     <row r="850" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B850" s="2" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="C850" s="10" t="s">
         <v>45</v>
@@ -18440,10 +18805,13 @@
       <c r="E850" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="G850" s="2" t="s">
+        <v>1132</v>
+      </c>
     </row>
     <row r="851" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B851" s="2" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="C851" s="10" t="s">
         <v>45</v>
@@ -18454,10 +18822,13 @@
       <c r="E851" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="G851" s="2" t="s">
+        <v>1132</v>
+      </c>
     </row>
     <row r="852" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B852" s="2" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="C852" s="10" t="s">
         <v>45</v>
@@ -18468,10 +18839,13 @@
       <c r="E852" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="G852" s="2" t="s">
+        <v>1132</v>
+      </c>
     </row>
     <row r="853" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B853" s="2" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="C853" s="10" t="s">
         <v>45</v>
@@ -18482,10 +18856,13 @@
       <c r="E853" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="G853" s="2" t="s">
+        <v>1132</v>
+      </c>
     </row>
     <row r="854" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B854" s="2" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="C854" s="10" t="s">
         <v>45</v>
@@ -18496,10 +18873,13 @@
       <c r="E854" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="G854" s="2" t="s">
+        <v>1132</v>
+      </c>
     </row>
     <row r="855" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B855" s="2" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="C855" s="10" t="s">
         <v>45</v>
@@ -18510,10 +18890,13 @@
       <c r="E855" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="G855" s="2" t="s">
+        <v>1132</v>
+      </c>
     </row>
     <row r="856" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B856" s="2" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="C856" s="10" t="s">
         <v>45</v>
@@ -18524,10 +18907,13 @@
       <c r="E856" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="G856" s="2" t="s">
+        <v>1132</v>
+      </c>
     </row>
     <row r="857" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B857" s="2" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="C857" s="10" t="s">
         <v>45</v>
@@ -18538,10 +18924,13 @@
       <c r="E857" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="G857" s="2" t="s">
+        <v>1132</v>
+      </c>
     </row>
     <row r="858" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B858" s="2" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="C858" s="10" t="s">
         <v>45</v>
@@ -18552,10 +18941,13 @@
       <c r="E858" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="G858" s="2" t="s">
+        <v>1132</v>
+      </c>
     </row>
     <row r="859" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B859" s="2" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="C859" s="10" t="s">
         <v>45</v>
@@ -18566,10 +18958,13 @@
       <c r="E859" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="G859" s="2" t="s">
+        <v>1132</v>
+      </c>
     </row>
     <row r="860" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B860" s="2" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="C860" s="10" t="s">
         <v>45</v>
@@ -18580,10 +18975,13 @@
       <c r="E860" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="G860" s="2" t="s">
+        <v>1132</v>
+      </c>
     </row>
     <row r="861" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B861" s="2" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="C861" s="10" t="s">
         <v>45</v>
@@ -18594,10 +18992,13 @@
       <c r="E861" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="G861" s="2" t="s">
+        <v>1132</v>
+      </c>
     </row>
     <row r="862" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B862" s="2" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="C862" s="10" t="s">
         <v>45</v>
@@ -18608,10 +19009,13 @@
       <c r="E862" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="G862" s="2" t="s">
+        <v>1132</v>
+      </c>
     </row>
     <row r="863" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B863" s="2" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="C863" s="10" t="s">
         <v>45</v>
@@ -18622,10 +19026,13 @@
       <c r="E863" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="G863" s="2" t="s">
+        <v>1132</v>
+      </c>
     </row>
     <row r="864" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B864" s="2" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="C864" s="10" t="s">
         <v>45</v>
@@ -18636,280 +19043,555 @@
       <c r="E864" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="G864" s="2" t="s">
+        <v>1132</v>
+      </c>
     </row>
     <row r="865" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B865" s="2" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="C865" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D865" s="21" t="s">
+      <c r="D865" s="19" t="s">
         <v>770</v>
       </c>
       <c r="E865" s="10" t="s">
         <v>13</v>
+      </c>
+      <c r="G865" s="2" t="s">
+        <v>1132</v>
       </c>
     </row>
     <row r="866" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B866" s="2" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="C866" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D866" s="21" t="s">
+      <c r="D866" s="19" t="s">
         <v>770</v>
       </c>
       <c r="E866" s="10" t="s">
         <v>13</v>
+      </c>
+      <c r="G866" s="2" t="s">
+        <v>1132</v>
       </c>
     </row>
     <row r="867" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B867" s="2" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="C867" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D867" s="21" t="s">
+      <c r="D867" s="19" t="s">
         <v>770</v>
       </c>
       <c r="E867" s="10" t="s">
         <v>13</v>
+      </c>
+      <c r="G867" s="2" t="s">
+        <v>1132</v>
       </c>
     </row>
     <row r="868" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B868" s="2" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="C868" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D868" s="21" t="s">
+      <c r="D868" s="19" t="s">
         <v>770</v>
       </c>
       <c r="E868" s="10" t="s">
         <v>13</v>
+      </c>
+      <c r="G868" s="2" t="s">
+        <v>1132</v>
       </c>
     </row>
     <row r="869" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B869" s="2" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="C869" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D869" s="21" t="s">
+      <c r="D869" s="19" t="s">
         <v>770</v>
       </c>
       <c r="E869" s="10" t="s">
         <v>13</v>
+      </c>
+      <c r="G869" s="2" t="s">
+        <v>1132</v>
       </c>
     </row>
     <row r="870" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B870" s="2" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="C870" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D870" s="21" t="s">
+      <c r="D870" s="19" t="s">
         <v>770</v>
       </c>
       <c r="E870" s="10" t="s">
         <v>13</v>
+      </c>
+      <c r="G870" s="2" t="s">
+        <v>1132</v>
       </c>
     </row>
     <row r="871" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B871" s="2" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="C871" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D871" s="21" t="s">
+      <c r="D871" s="19" t="s">
         <v>770</v>
       </c>
       <c r="E871" s="10" t="s">
         <v>13</v>
+      </c>
+      <c r="G871" s="2" t="s">
+        <v>1132</v>
       </c>
     </row>
     <row r="872" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B872" s="2" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="C872" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D872" s="21" t="s">
+      <c r="D872" s="19" t="s">
         <v>770</v>
       </c>
       <c r="E872" s="10" t="s">
         <v>13</v>
+      </c>
+      <c r="G872" s="2" t="s">
+        <v>1132</v>
       </c>
     </row>
     <row r="873" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B873" s="2" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="C873" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D873" s="21" t="s">
+      <c r="D873" s="19" t="s">
         <v>770</v>
       </c>
       <c r="E873" s="10" t="s">
         <v>13</v>
+      </c>
+      <c r="G873" s="2" t="s">
+        <v>1132</v>
       </c>
     </row>
     <row r="874" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B874" s="2" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="C874" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D874" s="21" t="s">
+      <c r="D874" s="19" t="s">
         <v>770</v>
       </c>
       <c r="E874" s="10" t="s">
         <v>13</v>
+      </c>
+      <c r="G874" s="2" t="s">
+        <v>1132</v>
       </c>
     </row>
     <row r="875" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B875" s="2" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="C875" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D875" s="21" t="s">
+      <c r="D875" s="19" t="s">
         <v>770</v>
       </c>
       <c r="E875" s="10" t="s">
         <v>13</v>
+      </c>
+      <c r="G875" s="2" t="s">
+        <v>1132</v>
       </c>
     </row>
     <row r="876" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B876" s="2" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="C876" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D876" s="21" t="s">
+      <c r="D876" s="19" t="s">
         <v>770</v>
       </c>
       <c r="E876" s="10" t="s">
         <v>13</v>
+      </c>
+      <c r="G876" s="2" t="s">
+        <v>1132</v>
       </c>
     </row>
     <row r="877" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B877" s="2" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="C877" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D877" s="21" t="s">
+      <c r="D877" s="19" t="s">
         <v>770</v>
       </c>
       <c r="E877" s="10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="878" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C878" s="10"/>
-      <c r="E878" s="10"/>
-    </row>
-    <row r="879" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C879" s="10"/>
-      <c r="E879" s="10"/>
-    </row>
-    <row r="880" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C880" s="10"/>
-      <c r="E880" s="10"/>
-    </row>
-    <row r="881" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C881" s="10"/>
-      <c r="E881" s="10"/>
-    </row>
-    <row r="882" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C882" s="10"/>
-      <c r="E882" s="10"/>
-    </row>
-    <row r="883" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C883" s="10"/>
-      <c r="E883" s="10"/>
-    </row>
-    <row r="884" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C884" s="10"/>
-      <c r="E884" s="10"/>
-    </row>
-    <row r="885" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C885" s="10"/>
-      <c r="E885" s="10"/>
-    </row>
-    <row r="886" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C886" s="10"/>
-      <c r="E886" s="10"/>
-    </row>
-    <row r="887" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C887" s="10"/>
-      <c r="E887" s="10"/>
-    </row>
-    <row r="888" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C888" s="10"/>
-      <c r="E888" s="10"/>
-    </row>
-    <row r="889" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C889" s="10"/>
-      <c r="E889" s="10"/>
-    </row>
-    <row r="890" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C890" s="10"/>
-      <c r="E890" s="10"/>
-    </row>
-    <row r="891" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C891" s="10"/>
-      <c r="E891" s="10"/>
-    </row>
-    <row r="892" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C892" s="10"/>
-      <c r="E892" s="10"/>
-    </row>
-    <row r="893" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C893" s="10"/>
-      <c r="E893" s="10"/>
-    </row>
-    <row r="894" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C894" s="10"/>
-      <c r="E894" s="10"/>
-    </row>
-    <row r="895" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C895" s="10"/>
-      <c r="E895" s="10"/>
-    </row>
-    <row r="896" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C896" s="10"/>
-      <c r="E896" s="10"/>
-    </row>
-    <row r="897" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C897" s="10"/>
-      <c r="E897" s="10"/>
-    </row>
-    <row r="898" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C898" s="10"/>
-      <c r="E898" s="10"/>
-    </row>
-    <row r="899" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C899" s="10"/>
-      <c r="E899" s="10"/>
-    </row>
-    <row r="900" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C900" s="10"/>
-      <c r="E900" s="10"/>
+      <c r="G877" s="2" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="878" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A878" s="20" t="n">
+        <v>45148</v>
+      </c>
+      <c r="B878" s="2" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C878" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D878" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="E878" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="879" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B879" s="2" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C879" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D879" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="E879" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="880" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B880" s="2" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C880" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D880" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="E880" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="881" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B881" s="2" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C881" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D881" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="E881" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="882" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B882" s="2" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C882" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D882" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="E882" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="883" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B883" s="2" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C883" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D883" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="E883" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="884" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B884" s="2" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C884" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D884" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="E884" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="885" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B885" s="2" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C885" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D885" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="E885" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="886" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B886" s="2" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C886" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D886" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="E886" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="887" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B887" s="2" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C887" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D887" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="E887" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="888" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B888" s="2" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C888" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D888" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="E888" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="889" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B889" s="2" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C889" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D889" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="E889" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="890" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B890" s="2" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C890" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D890" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="E890" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="891" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B891" s="2" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C891" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D891" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="E891" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="892" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B892" s="2" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C892" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D892" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="E892" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="893" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B893" s="2" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C893" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D893" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="E893" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="894" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B894" s="2" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C894" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D894" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="E894" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="895" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B895" s="2" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C895" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D895" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="E895" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="896" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B896" s="2" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C896" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D896" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="E896" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="897" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B897" s="2" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C897" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D897" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="E897" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="898" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B898" s="2" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C898" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D898" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="E898" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="899" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B899" s="2" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C899" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D899" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="E899" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="900" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B900" s="2" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C900" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D900" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="E900" s="10" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="901" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C901" s="10"/>
@@ -21031,6 +21713,135 @@
     <hyperlink ref="G746" r:id="rId391" display="https://github.com/HexxiumCreations/threat-list/commit/dd9ca027fdb70dff651ab9e7b564b643000343e3"/>
     <hyperlink ref="G747" r:id="rId392" display="https://github.com/HexxiumCreations/threat-list/commit/dd9ca027fdb70dff651ab9e7b564b643000343e3"/>
     <hyperlink ref="G748" r:id="rId393" display="https://github.com/HexxiumCreations/threat-list/commit/dd9ca027fdb70dff651ab9e7b564b643000343e3"/>
+    <hyperlink ref="G749" r:id="rId394" display="https://github.com/HexxiumCreations/threat-list/commit/a12a6cdb1c4a6b3ac21a8860877ec5e85e07c11f"/>
+    <hyperlink ref="G750" r:id="rId395" display="https://github.com/HexxiumCreations/threat-list/commit/a12a6cdb1c4a6b3ac21a8860877ec5e85e07c11f"/>
+    <hyperlink ref="G751" r:id="rId396" display="https://github.com/HexxiumCreations/threat-list/commit/a12a6cdb1c4a6b3ac21a8860877ec5e85e07c11f"/>
+    <hyperlink ref="G752" r:id="rId397" display="https://github.com/HexxiumCreations/threat-list/commit/a12a6cdb1c4a6b3ac21a8860877ec5e85e07c11f"/>
+    <hyperlink ref="G753" r:id="rId398" display="https://github.com/HexxiumCreations/threat-list/commit/a12a6cdb1c4a6b3ac21a8860877ec5e85e07c11f"/>
+    <hyperlink ref="G754" r:id="rId399" display="https://github.com/HexxiumCreations/threat-list/commit/a12a6cdb1c4a6b3ac21a8860877ec5e85e07c11f"/>
+    <hyperlink ref="G755" r:id="rId400" display="https://github.com/HexxiumCreations/threat-list/commit/a12a6cdb1c4a6b3ac21a8860877ec5e85e07c11f"/>
+    <hyperlink ref="G756" r:id="rId401" display="https://github.com/HexxiumCreations/threat-list/commit/a12a6cdb1c4a6b3ac21a8860877ec5e85e07c11f"/>
+    <hyperlink ref="G757" r:id="rId402" display="https://github.com/HexxiumCreations/threat-list/commit/a12a6cdb1c4a6b3ac21a8860877ec5e85e07c11f"/>
+    <hyperlink ref="G758" r:id="rId403" display="https://github.com/HexxiumCreations/threat-list/commit/a12a6cdb1c4a6b3ac21a8860877ec5e85e07c11f"/>
+    <hyperlink ref="G759" r:id="rId404" display="https://github.com/HexxiumCreations/threat-list/commit/a12a6cdb1c4a6b3ac21a8860877ec5e85e07c11f"/>
+    <hyperlink ref="G760" r:id="rId405" display="https://github.com/HexxiumCreations/threat-list/commit/a12a6cdb1c4a6b3ac21a8860877ec5e85e07c11f"/>
+    <hyperlink ref="G761" r:id="rId406" display="https://github.com/HexxiumCreations/threat-list/commit/a12a6cdb1c4a6b3ac21a8860877ec5e85e07c11f"/>
+    <hyperlink ref="G762" r:id="rId407" display="https://github.com/HexxiumCreations/threat-list/commit/a12a6cdb1c4a6b3ac21a8860877ec5e85e07c11f"/>
+    <hyperlink ref="G763" r:id="rId408" display="https://github.com/HexxiumCreations/threat-list/commit/a12a6cdb1c4a6b3ac21a8860877ec5e85e07c11f"/>
+    <hyperlink ref="G764" r:id="rId409" display="https://github.com/HexxiumCreations/threat-list/commit/a12a6cdb1c4a6b3ac21a8860877ec5e85e07c11f"/>
+    <hyperlink ref="G765" r:id="rId410" display="https://github.com/HexxiumCreations/threat-list/commit/a12a6cdb1c4a6b3ac21a8860877ec5e85e07c11f"/>
+    <hyperlink ref="G766" r:id="rId411" display="https://github.com/HexxiumCreations/threat-list/commit/a12a6cdb1c4a6b3ac21a8860877ec5e85e07c11f"/>
+    <hyperlink ref="G767" r:id="rId412" display="https://github.com/HexxiumCreations/threat-list/commit/a12a6cdb1c4a6b3ac21a8860877ec5e85e07c11f"/>
+    <hyperlink ref="G768" r:id="rId413" display="https://github.com/HexxiumCreations/threat-list/commit/a12a6cdb1c4a6b3ac21a8860877ec5e85e07c11f"/>
+    <hyperlink ref="G769" r:id="rId414" display="https://github.com/HexxiumCreations/threat-list/commit/a12a6cdb1c4a6b3ac21a8860877ec5e85e07c11f"/>
+    <hyperlink ref="G770" r:id="rId415" display="https://github.com/HexxiumCreations/threat-list/commit/a12a6cdb1c4a6b3ac21a8860877ec5e85e07c11f"/>
+    <hyperlink ref="G771" r:id="rId416" display="https://github.com/HexxiumCreations/threat-list/commit/a12a6cdb1c4a6b3ac21a8860877ec5e85e07c11f"/>
+    <hyperlink ref="G772" r:id="rId417" display="https://github.com/HexxiumCreations/threat-list/commit/a12a6cdb1c4a6b3ac21a8860877ec5e85e07c11f"/>
+    <hyperlink ref="G773" r:id="rId418" display="https://github.com/HexxiumCreations/threat-list/commit/a12a6cdb1c4a6b3ac21a8860877ec5e85e07c11f"/>
+    <hyperlink ref="G774" r:id="rId419" display="https://github.com/HexxiumCreations/threat-list/commit/a12a6cdb1c4a6b3ac21a8860877ec5e85e07c11f"/>
+    <hyperlink ref="G775" r:id="rId420" display="https://github.com/HexxiumCreations/threat-list/commit/a12a6cdb1c4a6b3ac21a8860877ec5e85e07c11f"/>
+    <hyperlink ref="G776" r:id="rId421" display="https://github.com/HexxiumCreations/threat-list/commit/a12a6cdb1c4a6b3ac21a8860877ec5e85e07c11f"/>
+    <hyperlink ref="G777" r:id="rId422" display="https://github.com/HexxiumCreations/threat-list/commit/a12a6cdb1c4a6b3ac21a8860877ec5e85e07c11f"/>
+    <hyperlink ref="G778" r:id="rId423" display="https://github.com/HexxiumCreations/threat-list/commit/a12a6cdb1c4a6b3ac21a8860877ec5e85e07c11f"/>
+    <hyperlink ref="G779" r:id="rId424" display="https://github.com/HexxiumCreations/threat-list/commit/a12a6cdb1c4a6b3ac21a8860877ec5e85e07c11f"/>
+    <hyperlink ref="G780" r:id="rId425" display="https://github.com/HexxiumCreations/threat-list/commit/a12a6cdb1c4a6b3ac21a8860877ec5e85e07c11f"/>
+    <hyperlink ref="G781" r:id="rId426" display="https://github.com/HexxiumCreations/threat-list/commit/a12a6cdb1c4a6b3ac21a8860877ec5e85e07c11f"/>
+    <hyperlink ref="G782" r:id="rId427" display="https://github.com/HexxiumCreations/threat-list/commit/a12a6cdb1c4a6b3ac21a8860877ec5e85e07c11f"/>
+    <hyperlink ref="G783" r:id="rId428" display="https://github.com/HexxiumCreations/threat-list/commit/a12a6cdb1c4a6b3ac21a8860877ec5e85e07c11f"/>
+    <hyperlink ref="G784" r:id="rId429" display="https://github.com/HexxiumCreations/threat-list/commit/a12a6cdb1c4a6b3ac21a8860877ec5e85e07c11f"/>
+    <hyperlink ref="G785" r:id="rId430" display="https://github.com/HexxiumCreations/threat-list/commit/a12a6cdb1c4a6b3ac21a8860877ec5e85e07c11f"/>
+    <hyperlink ref="G786" r:id="rId431" display="https://github.com/HexxiumCreations/threat-list/commit/a12a6cdb1c4a6b3ac21a8860877ec5e85e07c11f"/>
+    <hyperlink ref="G787" r:id="rId432" display="https://github.com/HexxiumCreations/threat-list/commit/a12a6cdb1c4a6b3ac21a8860877ec5e85e07c11f"/>
+    <hyperlink ref="G788" r:id="rId433" display="https://github.com/HexxiumCreations/threat-list/commit/a12a6cdb1c4a6b3ac21a8860877ec5e85e07c11f"/>
+    <hyperlink ref="G789" r:id="rId434" display="https://github.com/HexxiumCreations/threat-list/commit/a12a6cdb1c4a6b3ac21a8860877ec5e85e07c11f"/>
+    <hyperlink ref="G790" r:id="rId435" display="https://github.com/HexxiumCreations/threat-list/commit/a12a6cdb1c4a6b3ac21a8860877ec5e85e07c11f"/>
+    <hyperlink ref="G791" r:id="rId436" display="https://github.com/HexxiumCreations/threat-list/commit/a12a6cdb1c4a6b3ac21a8860877ec5e85e07c11f"/>
+    <hyperlink ref="G792" r:id="rId437" display="https://github.com/HexxiumCreations/threat-list/commit/a12a6cdb1c4a6b3ac21a8860877ec5e85e07c11f"/>
+    <hyperlink ref="G793" r:id="rId438" display="https://github.com/HexxiumCreations/threat-list/commit/a12a6cdb1c4a6b3ac21a8860877ec5e85e07c11f"/>
+    <hyperlink ref="G794" r:id="rId439" display="https://github.com/HexxiumCreations/threat-list/commit/a12a6cdb1c4a6b3ac21a8860877ec5e85e07c11f"/>
+    <hyperlink ref="G795" r:id="rId440" display="https://github.com/HexxiumCreations/threat-list/commit/a12a6cdb1c4a6b3ac21a8860877ec5e85e07c11f"/>
+    <hyperlink ref="G796" r:id="rId441" display="https://github.com/HexxiumCreations/threat-list/commit/a12a6cdb1c4a6b3ac21a8860877ec5e85e07c11f"/>
+    <hyperlink ref="G797" r:id="rId442" display="https://github.com/HexxiumCreations/threat-list/commit/a12a6cdb1c4a6b3ac21a8860877ec5e85e07c11f"/>
+    <hyperlink ref="G798" r:id="rId443" display="https://github.com/HexxiumCreations/threat-list/commit/a12a6cdb1c4a6b3ac21a8860877ec5e85e07c11f"/>
+    <hyperlink ref="G799" r:id="rId444" display="https://github.com/HexxiumCreations/threat-list/commit/a12a6cdb1c4a6b3ac21a8860877ec5e85e07c11f"/>
+    <hyperlink ref="G800" r:id="rId445" display="https://github.com/HexxiumCreations/threat-list/commit/a12a6cdb1c4a6b3ac21a8860877ec5e85e07c11f"/>
+    <hyperlink ref="G801" r:id="rId446" display="https://github.com/HexxiumCreations/threat-list/commit/a12a6cdb1c4a6b3ac21a8860877ec5e85e07c11f"/>
+    <hyperlink ref="G802" r:id="rId447" display="https://github.com/HexxiumCreations/threat-list/commit/a12a6cdb1c4a6b3ac21a8860877ec5e85e07c11f"/>
+    <hyperlink ref="G803" r:id="rId448" display="https://github.com/HexxiumCreations/threat-list/commit/a12a6cdb1c4a6b3ac21a8860877ec5e85e07c11f"/>
+    <hyperlink ref="G804" r:id="rId449" display="https://github.com/HexxiumCreations/threat-list/commit/a12a6cdb1c4a6b3ac21a8860877ec5e85e07c11f"/>
+    <hyperlink ref="G805" r:id="rId450" display="https://github.com/HexxiumCreations/threat-list/commit/a12a6cdb1c4a6b3ac21a8860877ec5e85e07c11f"/>
+    <hyperlink ref="G806" r:id="rId451" display="https://github.com/HexxiumCreations/threat-list/commit/a12a6cdb1c4a6b3ac21a8860877ec5e85e07c11f"/>
+    <hyperlink ref="G807" r:id="rId452" display="https://github.com/HexxiumCreations/threat-list/commit/a12a6cdb1c4a6b3ac21a8860877ec5e85e07c11f"/>
+    <hyperlink ref="G808" r:id="rId453" display="https://github.com/HexxiumCreations/threat-list/commit/a12a6cdb1c4a6b3ac21a8860877ec5e85e07c11f"/>
+    <hyperlink ref="G809" r:id="rId454" display="https://github.com/HexxiumCreations/threat-list/commit/a12a6cdb1c4a6b3ac21a8860877ec5e85e07c11f"/>
+    <hyperlink ref="G810" r:id="rId455" display="https://github.com/HexxiumCreations/threat-list/commit/a12a6cdb1c4a6b3ac21a8860877ec5e85e07c11f"/>
+    <hyperlink ref="G811" r:id="rId456" display="https://github.com/HexxiumCreations/threat-list/commit/a12a6cdb1c4a6b3ac21a8860877ec5e85e07c11f"/>
+    <hyperlink ref="G812" r:id="rId457" display="https://github.com/HexxiumCreations/threat-list/commit/a12a6cdb1c4a6b3ac21a8860877ec5e85e07c11f"/>
+    <hyperlink ref="G813" r:id="rId458" display="https://github.com/HexxiumCreations/threat-list/commit/a12a6cdb1c4a6b3ac21a8860877ec5e85e07c11f"/>
+    <hyperlink ref="G814" r:id="rId459" display="https://github.com/HexxiumCreations/threat-list/commit/a12a6cdb1c4a6b3ac21a8860877ec5e85e07c11f"/>
+    <hyperlink ref="G815" r:id="rId460" display="https://github.com/HexxiumCreations/threat-list/commit/a12a6cdb1c4a6b3ac21a8860877ec5e85e07c11f"/>
+    <hyperlink ref="G816" r:id="rId461" display="https://github.com/HexxiumCreations/threat-list/commit/a12a6cdb1c4a6b3ac21a8860877ec5e85e07c11f"/>
+    <hyperlink ref="G817" r:id="rId462" display="https://github.com/HexxiumCreations/threat-list/commit/a12a6cdb1c4a6b3ac21a8860877ec5e85e07c11f"/>
+    <hyperlink ref="G818" r:id="rId463" display="https://github.com/HexxiumCreations/threat-list/commit/a12a6cdb1c4a6b3ac21a8860877ec5e85e07c11f"/>
+    <hyperlink ref="G819" r:id="rId464" display="https://github.com/HexxiumCreations/threat-list/commit/a12a6cdb1c4a6b3ac21a8860877ec5e85e07c11f"/>
+    <hyperlink ref="G820" r:id="rId465" display="https://github.com/HexxiumCreations/threat-list/commit/a12a6cdb1c4a6b3ac21a8860877ec5e85e07c11f"/>
+    <hyperlink ref="G821" r:id="rId466" display="https://github.com/HexxiumCreations/threat-list/commit/a12a6cdb1c4a6b3ac21a8860877ec5e85e07c11f"/>
+    <hyperlink ref="G822" r:id="rId467" display="https://github.com/HexxiumCreations/threat-list/commit/a12a6cdb1c4a6b3ac21a8860877ec5e85e07c11f"/>
+    <hyperlink ref="G823" r:id="rId468" display="https://github.com/HexxiumCreations/threat-list/commit/a12a6cdb1c4a6b3ac21a8860877ec5e85e07c11f"/>
+    <hyperlink ref="G824" r:id="rId469" display="https://github.com/HexxiumCreations/threat-list/commit/a12a6cdb1c4a6b3ac21a8860877ec5e85e07c11f"/>
+    <hyperlink ref="G825" r:id="rId470" display="https://github.com/HexxiumCreations/threat-list/commit/a12a6cdb1c4a6b3ac21a8860877ec5e85e07c11f"/>
+    <hyperlink ref="G826" r:id="rId471" display="https://github.com/HexxiumCreations/threat-list/commit/a12a6cdb1c4a6b3ac21a8860877ec5e85e07c11f"/>
+    <hyperlink ref="G827" r:id="rId472" display="https://github.com/HexxiumCreations/threat-list/commit/a12a6cdb1c4a6b3ac21a8860877ec5e85e07c11f"/>
+    <hyperlink ref="G828" r:id="rId473" display="https://github.com/HexxiumCreations/threat-list/commit/a12a6cdb1c4a6b3ac21a8860877ec5e85e07c11f"/>
+    <hyperlink ref="G829" r:id="rId474" display="https://github.com/HexxiumCreations/threat-list/commit/a12a6cdb1c4a6b3ac21a8860877ec5e85e07c11f"/>
+    <hyperlink ref="G830" r:id="rId475" display="https://github.com/HexxiumCreations/threat-list/commit/a12a6cdb1c4a6b3ac21a8860877ec5e85e07c11f"/>
+    <hyperlink ref="G831" r:id="rId476" display="https://github.com/HexxiumCreations/threat-list/commit/a12a6cdb1c4a6b3ac21a8860877ec5e85e07c11f"/>
+    <hyperlink ref="G832" r:id="rId477" display="https://github.com/HexxiumCreations/threat-list/commit/a12a6cdb1c4a6b3ac21a8860877ec5e85e07c11f"/>
+    <hyperlink ref="G833" r:id="rId478" display="https://github.com/HexxiumCreations/threat-list/commit/a12a6cdb1c4a6b3ac21a8860877ec5e85e07c11f"/>
+    <hyperlink ref="G834" r:id="rId479" display="https://github.com/HexxiumCreations/threat-list/commit/a12a6cdb1c4a6b3ac21a8860877ec5e85e07c11f"/>
+    <hyperlink ref="G835" r:id="rId480" display="https://github.com/HexxiumCreations/threat-list/commit/a12a6cdb1c4a6b3ac21a8860877ec5e85e07c11f"/>
+    <hyperlink ref="G836" r:id="rId481" display="https://github.com/HexxiumCreations/threat-list/commit/a12a6cdb1c4a6b3ac21a8860877ec5e85e07c11f"/>
+    <hyperlink ref="G837" r:id="rId482" display="https://github.com/HexxiumCreations/threat-list/commit/a12a6cdb1c4a6b3ac21a8860877ec5e85e07c11f"/>
+    <hyperlink ref="G838" r:id="rId483" display="https://github.com/HexxiumCreations/threat-list/commit/a12a6cdb1c4a6b3ac21a8860877ec5e85e07c11f"/>
+    <hyperlink ref="G839" r:id="rId484" display="https://github.com/HexxiumCreations/threat-list/commit/a12a6cdb1c4a6b3ac21a8860877ec5e85e07c11f"/>
+    <hyperlink ref="G840" r:id="rId485" display="https://github.com/HexxiumCreations/threat-list/commit/a12a6cdb1c4a6b3ac21a8860877ec5e85e07c11f"/>
+    <hyperlink ref="G841" r:id="rId486" display="https://github.com/HexxiumCreations/threat-list/commit/a12a6cdb1c4a6b3ac21a8860877ec5e85e07c11f"/>
+    <hyperlink ref="G842" r:id="rId487" display="https://github.com/HexxiumCreations/threat-list/commit/a12a6cdb1c4a6b3ac21a8860877ec5e85e07c11f"/>
+    <hyperlink ref="G843" r:id="rId488" display="https://github.com/HexxiumCreations/threat-list/commit/a12a6cdb1c4a6b3ac21a8860877ec5e85e07c11f"/>
+    <hyperlink ref="G844" r:id="rId489" display="https://github.com/HexxiumCreations/threat-list/commit/a12a6cdb1c4a6b3ac21a8860877ec5e85e07c11f"/>
+    <hyperlink ref="G845" r:id="rId490" display="https://github.com/HexxiumCreations/threat-list/commit/a12a6cdb1c4a6b3ac21a8860877ec5e85e07c11f"/>
+    <hyperlink ref="G846" r:id="rId491" display="https://github.com/HexxiumCreations/threat-list/commit/a12a6cdb1c4a6b3ac21a8860877ec5e85e07c11f"/>
+    <hyperlink ref="G847" r:id="rId492" display="https://github.com/HexxiumCreations/threat-list/commit/a12a6cdb1c4a6b3ac21a8860877ec5e85e07c11f"/>
+    <hyperlink ref="G848" r:id="rId493" display="https://github.com/HexxiumCreations/threat-list/commit/a12a6cdb1c4a6b3ac21a8860877ec5e85e07c11f"/>
+    <hyperlink ref="G849" r:id="rId494" display="https://github.com/HexxiumCreations/threat-list/commit/a12a6cdb1c4a6b3ac21a8860877ec5e85e07c11f"/>
+    <hyperlink ref="G850" r:id="rId495" display="https://github.com/HexxiumCreations/threat-list/commit/a12a6cdb1c4a6b3ac21a8860877ec5e85e07c11f"/>
+    <hyperlink ref="G851" r:id="rId496" display="https://github.com/HexxiumCreations/threat-list/commit/a12a6cdb1c4a6b3ac21a8860877ec5e85e07c11f"/>
+    <hyperlink ref="G852" r:id="rId497" display="https://github.com/HexxiumCreations/threat-list/commit/a12a6cdb1c4a6b3ac21a8860877ec5e85e07c11f"/>
+    <hyperlink ref="G853" r:id="rId498" display="https://github.com/HexxiumCreations/threat-list/commit/a12a6cdb1c4a6b3ac21a8860877ec5e85e07c11f"/>
+    <hyperlink ref="G854" r:id="rId499" display="https://github.com/HexxiumCreations/threat-list/commit/a12a6cdb1c4a6b3ac21a8860877ec5e85e07c11f"/>
+    <hyperlink ref="G855" r:id="rId500" display="https://github.com/HexxiumCreations/threat-list/commit/a12a6cdb1c4a6b3ac21a8860877ec5e85e07c11f"/>
+    <hyperlink ref="G856" r:id="rId501" display="https://github.com/HexxiumCreations/threat-list/commit/a12a6cdb1c4a6b3ac21a8860877ec5e85e07c11f"/>
+    <hyperlink ref="G857" r:id="rId502" display="https://github.com/HexxiumCreations/threat-list/commit/a12a6cdb1c4a6b3ac21a8860877ec5e85e07c11f"/>
+    <hyperlink ref="G858" r:id="rId503" display="https://github.com/HexxiumCreations/threat-list/commit/a12a6cdb1c4a6b3ac21a8860877ec5e85e07c11f"/>
+    <hyperlink ref="G859" r:id="rId504" display="https://github.com/HexxiumCreations/threat-list/commit/a12a6cdb1c4a6b3ac21a8860877ec5e85e07c11f"/>
+    <hyperlink ref="G860" r:id="rId505" display="https://github.com/HexxiumCreations/threat-list/commit/a12a6cdb1c4a6b3ac21a8860877ec5e85e07c11f"/>
+    <hyperlink ref="G861" r:id="rId506" display="https://github.com/HexxiumCreations/threat-list/commit/a12a6cdb1c4a6b3ac21a8860877ec5e85e07c11f"/>
+    <hyperlink ref="G862" r:id="rId507" display="https://github.com/HexxiumCreations/threat-list/commit/a12a6cdb1c4a6b3ac21a8860877ec5e85e07c11f"/>
+    <hyperlink ref="G863" r:id="rId508" display="https://github.com/HexxiumCreations/threat-list/commit/a12a6cdb1c4a6b3ac21a8860877ec5e85e07c11f"/>
+    <hyperlink ref="G864" r:id="rId509" display="https://github.com/HexxiumCreations/threat-list/commit/a12a6cdb1c4a6b3ac21a8860877ec5e85e07c11f"/>
+    <hyperlink ref="G865" r:id="rId510" display="https://github.com/HexxiumCreations/threat-list/commit/a12a6cdb1c4a6b3ac21a8860877ec5e85e07c11f"/>
+    <hyperlink ref="G866" r:id="rId511" display="https://github.com/HexxiumCreations/threat-list/commit/a12a6cdb1c4a6b3ac21a8860877ec5e85e07c11f"/>
+    <hyperlink ref="G867" r:id="rId512" display="https://github.com/HexxiumCreations/threat-list/commit/a12a6cdb1c4a6b3ac21a8860877ec5e85e07c11f"/>
+    <hyperlink ref="G868" r:id="rId513" display="https://github.com/HexxiumCreations/threat-list/commit/a12a6cdb1c4a6b3ac21a8860877ec5e85e07c11f"/>
+    <hyperlink ref="G869" r:id="rId514" display="https://github.com/HexxiumCreations/threat-list/commit/a12a6cdb1c4a6b3ac21a8860877ec5e85e07c11f"/>
+    <hyperlink ref="G870" r:id="rId515" display="https://github.com/HexxiumCreations/threat-list/commit/a12a6cdb1c4a6b3ac21a8860877ec5e85e07c11f"/>
+    <hyperlink ref="G871" r:id="rId516" display="https://github.com/HexxiumCreations/threat-list/commit/a12a6cdb1c4a6b3ac21a8860877ec5e85e07c11f"/>
+    <hyperlink ref="G872" r:id="rId517" display="https://github.com/HexxiumCreations/threat-list/commit/a12a6cdb1c4a6b3ac21a8860877ec5e85e07c11f"/>
+    <hyperlink ref="G873" r:id="rId518" display="https://github.com/HexxiumCreations/threat-list/commit/a12a6cdb1c4a6b3ac21a8860877ec5e85e07c11f"/>
+    <hyperlink ref="G874" r:id="rId519" display="https://github.com/HexxiumCreations/threat-list/commit/a12a6cdb1c4a6b3ac21a8860877ec5e85e07c11f"/>
+    <hyperlink ref="G875" r:id="rId520" display="https://github.com/HexxiumCreations/threat-list/commit/a12a6cdb1c4a6b3ac21a8860877ec5e85e07c11f"/>
+    <hyperlink ref="G876" r:id="rId521" display="https://github.com/HexxiumCreations/threat-list/commit/a12a6cdb1c4a6b3ac21a8860877ec5e85e07c11f"/>
+    <hyperlink ref="G877" r:id="rId522" display="https://github.com/HexxiumCreations/threat-list/commit/a12a6cdb1c4a6b3ac21a8860877ec5e85e07c11f"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/Hexxium Creations Master Threat List.xlsx
+++ b/Hexxium Creations Master Threat List.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4442" uniqueCount="1284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4573" uniqueCount="1313">
   <si>
     <t xml:space="preserve">HEXXIUM CREATIONS THREAT LIST MASTER LOGBOOK</t>
   </si>
@@ -3828,6 +3828,9 @@
     <t xml:space="preserve">steacmcoumunity.com</t>
   </si>
   <si>
+    <t xml:space="preserve">https://github.com/HexxiumCreations/threat-list/commit/a8cddd097cbf8667c62fddeb9dc4bfe699e8e3e3</t>
+  </si>
+  <si>
     <t xml:space="preserve">my-giftes.ru</t>
   </si>
   <si>
@@ -3892,6 +3895,90 @@
   </si>
   <si>
     <t xml:space="preserve">steamcomunnutiuy.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">csgobeta.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">csgo2soursebeta.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cstwitch.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stearnocommunity.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcommuniitys.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">csstwo.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">navi146.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">twitchgb.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">navi169.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcommunitu.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcommuulty.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maxcs2.pro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">csrun.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beta-2.pro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">startcs2.pro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cs2up.pro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">csbeta2.pro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beta2key.pro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beta2k.pro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">betacsgo.pro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamncommuunity.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cs2bets.pro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steamcommiunlty.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">twitchs-gamer8.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cs2go.site</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cn-counterstrike.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ipfs.io/ipfs/QmXJ9WVqYnY3zqWQ3aT9wgmeW5GkUtfdngBjjeHLKCGpv2/roundcp.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fake Cpanel login page</t>
   </si>
 </sst>
 </file>
@@ -4274,13 +4361,13 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A858" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E878" activeCellId="0" sqref="E878:E900"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A876" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G901" activeCellId="0" sqref="G901"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="26.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="27.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="56.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="28.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="109.42"/>
@@ -19269,7 +19356,7 @@
       </c>
     </row>
     <row r="878" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A878" s="20" t="n">
+      <c r="A878" s="1" t="n">
         <v>45148</v>
       </c>
       <c r="B878" s="2" t="s">
@@ -19284,10 +19371,13 @@
       <c r="E878" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="G878" s="2" t="s">
+        <v>1262</v>
+      </c>
     </row>
     <row r="879" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B879" s="2" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="C879" s="10" t="s">
         <v>45</v>
@@ -19298,10 +19388,13 @@
       <c r="E879" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="G879" s="2" t="s">
+        <v>1262</v>
+      </c>
     </row>
     <row r="880" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B880" s="2" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="C880" s="10" t="s">
         <v>45</v>
@@ -19312,10 +19405,13 @@
       <c r="E880" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="G880" s="2" t="s">
+        <v>1262</v>
+      </c>
     </row>
     <row r="881" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B881" s="2" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="C881" s="10" t="s">
         <v>45</v>
@@ -19326,10 +19422,13 @@
       <c r="E881" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="G881" s="2" t="s">
+        <v>1262</v>
+      </c>
     </row>
     <row r="882" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B882" s="2" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="C882" s="10" t="s">
         <v>45</v>
@@ -19340,10 +19439,13 @@
       <c r="E882" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="G882" s="2" t="s">
+        <v>1262</v>
+      </c>
     </row>
     <row r="883" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B883" s="2" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="C883" s="10" t="s">
         <v>45</v>
@@ -19354,10 +19456,13 @@
       <c r="E883" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="G883" s="2" t="s">
+        <v>1262</v>
+      </c>
     </row>
     <row r="884" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B884" s="2" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="C884" s="10" t="s">
         <v>45</v>
@@ -19368,10 +19473,13 @@
       <c r="E884" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="G884" s="2" t="s">
+        <v>1262</v>
+      </c>
     </row>
     <row r="885" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B885" s="2" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="C885" s="10" t="s">
         <v>45</v>
@@ -19382,10 +19490,13 @@
       <c r="E885" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="G885" s="2" t="s">
+        <v>1262</v>
+      </c>
     </row>
     <row r="886" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B886" s="2" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="C886" s="10" t="s">
         <v>45</v>
@@ -19396,10 +19507,13 @@
       <c r="E886" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="G886" s="2" t="s">
+        <v>1262</v>
+      </c>
     </row>
     <row r="887" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B887" s="2" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="C887" s="10" t="s">
         <v>45</v>
@@ -19410,10 +19524,13 @@
       <c r="E887" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="G887" s="2" t="s">
+        <v>1262</v>
+      </c>
     </row>
     <row r="888" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B888" s="2" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="C888" s="10" t="s">
         <v>45</v>
@@ -19424,10 +19541,13 @@
       <c r="E888" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="G888" s="2" t="s">
+        <v>1262</v>
+      </c>
     </row>
     <row r="889" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B889" s="2" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="C889" s="10" t="s">
         <v>45</v>
@@ -19438,10 +19558,13 @@
       <c r="E889" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="G889" s="2" t="s">
+        <v>1262</v>
+      </c>
     </row>
     <row r="890" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B890" s="2" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="C890" s="10" t="s">
         <v>45</v>
@@ -19452,10 +19575,13 @@
       <c r="E890" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="G890" s="2" t="s">
+        <v>1262</v>
+      </c>
     </row>
     <row r="891" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B891" s="2" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="C891" s="10" t="s">
         <v>45</v>
@@ -19466,10 +19592,13 @@
       <c r="E891" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="G891" s="2" t="s">
+        <v>1262</v>
+      </c>
     </row>
     <row r="892" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B892" s="2" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="C892" s="10" t="s">
         <v>45</v>
@@ -19480,10 +19609,13 @@
       <c r="E892" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="G892" s="2" t="s">
+        <v>1262</v>
+      </c>
     </row>
     <row r="893" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B893" s="2" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="C893" s="10" t="s">
         <v>45</v>
@@ -19494,10 +19626,13 @@
       <c r="E893" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="G893" s="2" t="s">
+        <v>1262</v>
+      </c>
     </row>
     <row r="894" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B894" s="2" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="C894" s="10" t="s">
         <v>45</v>
@@ -19508,10 +19643,13 @@
       <c r="E894" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="G894" s="2" t="s">
+        <v>1262</v>
+      </c>
     </row>
     <row r="895" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B895" s="2" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="C895" s="10" t="s">
         <v>45</v>
@@ -19522,10 +19660,13 @@
       <c r="E895" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="G895" s="2" t="s">
+        <v>1262</v>
+      </c>
     </row>
     <row r="896" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B896" s="2" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="C896" s="10" t="s">
         <v>45</v>
@@ -19536,10 +19677,13 @@
       <c r="E896" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="G896" s="2" t="s">
+        <v>1262</v>
+      </c>
     </row>
     <row r="897" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B897" s="2" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="C897" s="10" t="s">
         <v>45</v>
@@ -19550,10 +19694,13 @@
       <c r="E897" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="G897" s="2" t="s">
+        <v>1262</v>
+      </c>
     </row>
     <row r="898" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B898" s="2" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="C898" s="10" t="s">
         <v>45</v>
@@ -19564,10 +19711,13 @@
       <c r="E898" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="G898" s="2" t="s">
+        <v>1262</v>
+      </c>
     </row>
     <row r="899" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B899" s="2" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="C899" s="10" t="s">
         <v>45</v>
@@ -19578,10 +19728,13 @@
       <c r="E899" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="G899" s="2" t="s">
+        <v>1262</v>
+      </c>
     </row>
     <row r="900" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B900" s="2" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="C900" s="10" t="s">
         <v>45</v>
@@ -19592,114 +19745,390 @@
       <c r="E900" s="10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="901" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C901" s="10"/>
-      <c r="E901" s="10"/>
-    </row>
-    <row r="902" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C902" s="10"/>
-      <c r="E902" s="10"/>
-    </row>
-    <row r="903" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C903" s="10"/>
-      <c r="E903" s="10"/>
-    </row>
-    <row r="904" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C904" s="10"/>
-      <c r="E904" s="10"/>
-    </row>
-    <row r="905" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C905" s="10"/>
-      <c r="E905" s="10"/>
-    </row>
-    <row r="906" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C906" s="10"/>
-      <c r="E906" s="10"/>
-    </row>
-    <row r="907" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C907" s="10"/>
-      <c r="E907" s="10"/>
-    </row>
-    <row r="908" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C908" s="10"/>
-      <c r="E908" s="10"/>
-    </row>
-    <row r="909" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C909" s="10"/>
-      <c r="E909" s="10"/>
-    </row>
-    <row r="910" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C910" s="10"/>
-      <c r="E910" s="10"/>
-    </row>
-    <row r="911" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C911" s="10"/>
-      <c r="E911" s="10"/>
-    </row>
-    <row r="912" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C912" s="10"/>
-      <c r="E912" s="10"/>
-    </row>
-    <row r="913" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C913" s="10"/>
-      <c r="E913" s="10"/>
-    </row>
-    <row r="914" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C914" s="10"/>
-      <c r="E914" s="10"/>
-    </row>
-    <row r="915" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C915" s="10"/>
-      <c r="E915" s="10"/>
-    </row>
-    <row r="916" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C916" s="10"/>
-      <c r="E916" s="10"/>
-    </row>
-    <row r="917" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C917" s="10"/>
-      <c r="E917" s="10"/>
-    </row>
-    <row r="918" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C918" s="10"/>
-      <c r="E918" s="10"/>
-    </row>
-    <row r="919" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C919" s="10"/>
-      <c r="E919" s="10"/>
-    </row>
-    <row r="920" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C920" s="10"/>
-      <c r="E920" s="10"/>
-    </row>
-    <row r="921" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C921" s="10"/>
-      <c r="E921" s="10"/>
-    </row>
-    <row r="922" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C922" s="10"/>
-      <c r="E922" s="10"/>
-    </row>
-    <row r="923" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C923" s="10"/>
-      <c r="E923" s="10"/>
-    </row>
-    <row r="924" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C924" s="10"/>
-      <c r="E924" s="10"/>
-    </row>
-    <row r="925" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C925" s="10"/>
-      <c r="E925" s="10"/>
-    </row>
-    <row r="926" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C926" s="10"/>
-      <c r="E926" s="10"/>
-    </row>
-    <row r="927" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C927" s="10"/>
-      <c r="E927" s="10"/>
+      <c r="G900" s="2" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="901" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A901" s="20" t="n">
+        <v>45182</v>
+      </c>
+      <c r="B901" s="2" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C901" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D901" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="E901" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="902" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B902" s="2" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C902" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D902" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="E902" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="903" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B903" s="2" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C903" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D903" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="E903" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="904" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B904" s="2" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C904" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D904" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="E904" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="905" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B905" s="2" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C905" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D905" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="E905" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="906" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B906" s="2" t="s">
+        <v>1290</v>
+      </c>
+      <c r="C906" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D906" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="E906" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="907" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B907" s="2" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C907" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D907" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="E907" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="908" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B908" s="2" t="s">
+        <v>1292</v>
+      </c>
+      <c r="C908" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D908" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="E908" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="909" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B909" s="2" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C909" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D909" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="E909" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="910" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B910" s="2" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C910" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D910" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="E910" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="911" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B911" s="2" t="s">
+        <v>1295</v>
+      </c>
+      <c r="C911" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D911" s="19" t="s">
+        <v>770</v>
+      </c>
+      <c r="E911" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="912" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B912" s="2" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C912" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D912" s="19" t="s">
+        <v>770</v>
+      </c>
+      <c r="E912" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="913" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B913" s="2" t="s">
+        <v>1297</v>
+      </c>
+      <c r="C913" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D913" s="19" t="s">
+        <v>770</v>
+      </c>
+      <c r="E913" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="914" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B914" s="2" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C914" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D914" s="19" t="s">
+        <v>770</v>
+      </c>
+      <c r="E914" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="915" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B915" s="2" t="s">
+        <v>1299</v>
+      </c>
+      <c r="C915" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D915" s="19" t="s">
+        <v>770</v>
+      </c>
+      <c r="E915" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="916" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B916" s="2" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C916" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D916" s="19" t="s">
+        <v>770</v>
+      </c>
+      <c r="E916" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="917" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B917" s="2" t="s">
+        <v>1301</v>
+      </c>
+      <c r="C917" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D917" s="19" t="s">
+        <v>770</v>
+      </c>
+      <c r="E917" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="918" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B918" s="2" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C918" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D918" s="19" t="s">
+        <v>770</v>
+      </c>
+      <c r="E918" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="919" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B919" s="2" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C919" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D919" s="19" t="s">
+        <v>770</v>
+      </c>
+      <c r="E919" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="920" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B920" s="2" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C920" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D920" s="19" t="s">
+        <v>770</v>
+      </c>
+      <c r="E920" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="921" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B921" s="2" t="s">
+        <v>1305</v>
+      </c>
+      <c r="C921" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D921" s="19" t="s">
+        <v>770</v>
+      </c>
+      <c r="E921" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="922" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B922" s="2" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C922" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D922" s="19" t="s">
+        <v>770</v>
+      </c>
+      <c r="E922" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="923" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B923" s="2" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C923" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D923" s="19" t="s">
+        <v>770</v>
+      </c>
+      <c r="E923" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="924" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B924" s="2" t="s">
+        <v>1308</v>
+      </c>
+      <c r="C924" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D924" s="19" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E924" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="925" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B925" s="2" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C925" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D925" s="19" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E925" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="926" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B926" s="2" t="s">
+        <v>1310</v>
+      </c>
+      <c r="C926" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D926" s="19" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E926" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="927" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B927" s="2" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C927" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D927" s="3" t="s">
+        <v>1312</v>
+      </c>
+      <c r="E927" s="10" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="928" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C928" s="10"/>
@@ -21842,6 +22271,29 @@
     <hyperlink ref="G875" r:id="rId520" display="https://github.com/HexxiumCreations/threat-list/commit/a12a6cdb1c4a6b3ac21a8860877ec5e85e07c11f"/>
     <hyperlink ref="G876" r:id="rId521" display="https://github.com/HexxiumCreations/threat-list/commit/a12a6cdb1c4a6b3ac21a8860877ec5e85e07c11f"/>
     <hyperlink ref="G877" r:id="rId522" display="https://github.com/HexxiumCreations/threat-list/commit/a12a6cdb1c4a6b3ac21a8860877ec5e85e07c11f"/>
+    <hyperlink ref="G878" r:id="rId523" display="https://github.com/HexxiumCreations/threat-list/commit/a8cddd097cbf8667c62fddeb9dc4bfe699e8e3e3"/>
+    <hyperlink ref="G879" r:id="rId524" display="https://github.com/HexxiumCreations/threat-list/commit/a8cddd097cbf8667c62fddeb9dc4bfe699e8e3e3"/>
+    <hyperlink ref="G880" r:id="rId525" display="https://github.com/HexxiumCreations/threat-list/commit/a8cddd097cbf8667c62fddeb9dc4bfe699e8e3e3"/>
+    <hyperlink ref="G881" r:id="rId526" display="https://github.com/HexxiumCreations/threat-list/commit/a8cddd097cbf8667c62fddeb9dc4bfe699e8e3e3"/>
+    <hyperlink ref="G882" r:id="rId527" display="https://github.com/HexxiumCreations/threat-list/commit/a8cddd097cbf8667c62fddeb9dc4bfe699e8e3e3"/>
+    <hyperlink ref="G883" r:id="rId528" display="https://github.com/HexxiumCreations/threat-list/commit/a8cddd097cbf8667c62fddeb9dc4bfe699e8e3e3"/>
+    <hyperlink ref="G884" r:id="rId529" display="https://github.com/HexxiumCreations/threat-list/commit/a8cddd097cbf8667c62fddeb9dc4bfe699e8e3e3"/>
+    <hyperlink ref="G885" r:id="rId530" display="https://github.com/HexxiumCreations/threat-list/commit/a8cddd097cbf8667c62fddeb9dc4bfe699e8e3e3"/>
+    <hyperlink ref="G886" r:id="rId531" display="https://github.com/HexxiumCreations/threat-list/commit/a8cddd097cbf8667c62fddeb9dc4bfe699e8e3e3"/>
+    <hyperlink ref="G887" r:id="rId532" display="https://github.com/HexxiumCreations/threat-list/commit/a8cddd097cbf8667c62fddeb9dc4bfe699e8e3e3"/>
+    <hyperlink ref="G888" r:id="rId533" display="https://github.com/HexxiumCreations/threat-list/commit/a8cddd097cbf8667c62fddeb9dc4bfe699e8e3e3"/>
+    <hyperlink ref="G889" r:id="rId534" display="https://github.com/HexxiumCreations/threat-list/commit/a8cddd097cbf8667c62fddeb9dc4bfe699e8e3e3"/>
+    <hyperlink ref="G890" r:id="rId535" display="https://github.com/HexxiumCreations/threat-list/commit/a8cddd097cbf8667c62fddeb9dc4bfe699e8e3e3"/>
+    <hyperlink ref="G891" r:id="rId536" display="https://github.com/HexxiumCreations/threat-list/commit/a8cddd097cbf8667c62fddeb9dc4bfe699e8e3e3"/>
+    <hyperlink ref="G892" r:id="rId537" display="https://github.com/HexxiumCreations/threat-list/commit/a8cddd097cbf8667c62fddeb9dc4bfe699e8e3e3"/>
+    <hyperlink ref="G893" r:id="rId538" display="https://github.com/HexxiumCreations/threat-list/commit/a8cddd097cbf8667c62fddeb9dc4bfe699e8e3e3"/>
+    <hyperlink ref="G894" r:id="rId539" display="https://github.com/HexxiumCreations/threat-list/commit/a8cddd097cbf8667c62fddeb9dc4bfe699e8e3e3"/>
+    <hyperlink ref="G895" r:id="rId540" display="https://github.com/HexxiumCreations/threat-list/commit/a8cddd097cbf8667c62fddeb9dc4bfe699e8e3e3"/>
+    <hyperlink ref="G896" r:id="rId541" display="https://github.com/HexxiumCreations/threat-list/commit/a8cddd097cbf8667c62fddeb9dc4bfe699e8e3e3"/>
+    <hyperlink ref="G897" r:id="rId542" display="https://github.com/HexxiumCreations/threat-list/commit/a8cddd097cbf8667c62fddeb9dc4bfe699e8e3e3"/>
+    <hyperlink ref="G898" r:id="rId543" display="https://github.com/HexxiumCreations/threat-list/commit/a8cddd097cbf8667c62fddeb9dc4bfe699e8e3e3"/>
+    <hyperlink ref="G899" r:id="rId544" display="https://github.com/HexxiumCreations/threat-list/commit/a8cddd097cbf8667c62fddeb9dc4bfe699e8e3e3"/>
+    <hyperlink ref="G900" r:id="rId545" display="https://github.com/HexxiumCreations/threat-list/commit/a8cddd097cbf8667c62fddeb9dc4bfe699e8e3e3"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
